--- a/TTWO.xlsx
+++ b/TTWO.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF9E4176-A646-462C-8D38-36B26729D55F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B51CA540-26C9-4A3B-8D55-3C7BB0CCD936}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="20925" xr2:uid="{00763B7E-4695-4F3F-9F45-9F6C40DC75D1}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" activeTab="1" xr2:uid="{00763B7E-4695-4F3F-9F45-9F6C40DC75D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="102">
   <si>
     <t>Take Two Interactive</t>
   </si>
@@ -306,9 +306,6 @@
     <t>numbers in mio USD</t>
   </si>
   <si>
-    <t>FQ225</t>
-  </si>
-  <si>
     <t>Mobile Growth</t>
   </si>
   <si>
@@ -332,6 +329,21 @@
   <si>
     <t>Restructure Expenses</t>
   </si>
+  <si>
+    <t>FQ126</t>
+  </si>
+  <si>
+    <t>Q126</t>
+  </si>
+  <si>
+    <t>Q226</t>
+  </si>
+  <si>
+    <t>Q326</t>
+  </si>
+  <si>
+    <t>Q426</t>
+  </si>
 </sst>
 </file>
 
@@ -341,7 +353,7 @@
     <numFmt numFmtId="164" formatCode="#,##0.0_ ;\-#,##0.0\ "/>
     <numFmt numFmtId="165" formatCode="#,##0.0;\(#,##0.0\)"/>
     <numFmt numFmtId="166" formatCode="#,##0_ ;\-#,##0\ "/>
-    <numFmt numFmtId="169" formatCode="#,##0.00;\(#,##0.00\)"/>
+    <numFmt numFmtId="167" formatCode="#,##0.00;\(#,##0.00\)"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -405,7 +417,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -418,9 +430,8 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -759,8 +770,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26C5FA06-E6FB-49D8-8A1E-09CEAAA93619}">
   <dimension ref="A1:M30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView topLeftCell="E1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -783,7 +794,7 @@
         <v>1</v>
       </c>
       <c r="L3" s="2">
-        <v>212.39</v>
+        <v>228.01</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -791,10 +802,10 @@
         <v>2</v>
       </c>
       <c r="L4" s="9">
-        <v>176.49570600000001</v>
+        <v>184.470212</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -806,7 +817,7 @@
       </c>
       <c r="L5" s="9">
         <f>L3*L4</f>
-        <v>37485.92299734</v>
+        <v>42061.053038120001</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -820,11 +831,11 @@
         <v>4</v>
       </c>
       <c r="L6" s="9">
-        <f>1206.8+3.3+14.9</f>
-        <v>1225</v>
+        <f>2025+10.1</f>
+        <v>2035.1</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -832,11 +843,11 @@
         <v>5</v>
       </c>
       <c r="L7" s="9">
-        <f>3058.3+599.6</f>
-        <v>3657.9</v>
+        <f>2516.1+549</f>
+        <v>3065.1</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -848,7 +859,7 @@
       </c>
       <c r="L8" s="9">
         <f>L5-L6+L7</f>
-        <v>39918.822997340001</v>
+        <v>43091.053038120001</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -951,13 +962,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2BC9C96-0131-4EC8-8F20-C27EFF5E0143}">
-  <dimension ref="A1:BB398"/>
+  <dimension ref="A1:BF398"/>
   <sheetViews>
-    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="P3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D20" sqref="D20"/>
+      <selection pane="bottomRight" activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -966,12 +977,12 @@
     <col min="2" max="2" width="30.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:58" x14ac:dyDescent="0.25">
       <c r="C2" s="4" t="s">
         <v>8</v>
       </c>
@@ -996,32 +1007,44 @@
       <c r="J2" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="L2" t="s">
+      <c r="K2" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="P2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="M2" t="s">
+      <c r="Q2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N2" t="s">
+      <c r="R2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="O2" t="s">
+      <c r="S2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="P2" t="s">
+      <c r="T2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="U2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="R2" t="s">
+      <c r="V2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="S2" t="s">
+      <c r="W2" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:58" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>86</v>
       </c>
@@ -1031,30 +1054,34 @@
       </c>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
+      <c r="G3" s="5">
+        <v>722.5</v>
+      </c>
       <c r="H3" s="5">
         <v>731.6</v>
       </c>
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
+      <c r="K3" s="5">
+        <v>801.7</v>
+      </c>
       <c r="L3" s="5"/>
       <c r="M3" s="5"/>
       <c r="N3" s="5"/>
       <c r="O3" s="5"/>
-      <c r="P3" s="5">
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5">
         <v>403.4</v>
       </c>
-      <c r="Q3" s="5">
+      <c r="U3" s="5">
         <v>2538.6</v>
       </c>
-      <c r="R3" s="5">
+      <c r="V3" s="5">
         <v>2748</v>
       </c>
-      <c r="S3" s="5"/>
-      <c r="T3" s="5"/>
-      <c r="U3" s="5"/>
-      <c r="V3" s="5"/>
       <c r="W3" s="5"/>
       <c r="X3" s="5"/>
       <c r="Y3" s="5"/>
@@ -1087,8 +1114,12 @@
       <c r="AZ3" s="5"/>
       <c r="BA3" s="5"/>
       <c r="BB3" s="5"/>
-    </row>
-    <row r="4" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC3" s="5"/>
+      <c r="BD3" s="5"/>
+      <c r="BE3" s="5"/>
+      <c r="BF3" s="5"/>
+    </row>
+    <row r="4" spans="1:58" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>85</v>
       </c>
@@ -1098,30 +1129,34 @@
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
+      <c r="G4" s="5">
+        <v>508.9</v>
+      </c>
       <c r="H4" s="5">
         <v>507.9</v>
       </c>
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
+      <c r="K4" s="5">
+        <v>550.6</v>
+      </c>
       <c r="L4" s="5"/>
       <c r="M4" s="5"/>
       <c r="N4" s="5"/>
       <c r="O4" s="5"/>
-      <c r="P4" s="5">
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5">
         <v>2528.9</v>
       </c>
-      <c r="Q4" s="5">
+      <c r="U4" s="5">
         <v>2303.8000000000002</v>
       </c>
-      <c r="R4" s="5">
+      <c r="V4" s="5">
         <v>2167.3000000000002</v>
       </c>
-      <c r="S4" s="5"/>
-      <c r="T4" s="5"/>
-      <c r="U4" s="5"/>
-      <c r="V4" s="5"/>
       <c r="W4" s="5"/>
       <c r="X4" s="5"/>
       <c r="Y4" s="5"/>
@@ -1154,8 +1189,12 @@
       <c r="AZ4" s="5"/>
       <c r="BA4" s="5"/>
       <c r="BB4" s="5"/>
-    </row>
-    <row r="5" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC4" s="5"/>
+      <c r="BD4" s="5"/>
+      <c r="BE4" s="5"/>
+      <c r="BF4" s="5"/>
+    </row>
+    <row r="5" spans="1:58" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>87</v>
       </c>
@@ -1165,30 +1204,34 @@
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
+      <c r="G5" s="5">
+        <v>106.8</v>
+      </c>
       <c r="H5" s="5">
         <v>120.3</v>
       </c>
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
+      <c r="K5" s="5">
+        <v>151.5</v>
+      </c>
       <c r="L5" s="5"/>
       <c r="M5" s="5"/>
       <c r="N5" s="5"/>
       <c r="O5" s="5"/>
-      <c r="P5" s="5">
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5">
         <v>572.5</v>
       </c>
-      <c r="Q5" s="5">
+      <c r="U5" s="5">
         <v>507.5</v>
       </c>
-      <c r="R5" s="5">
+      <c r="V5" s="5">
         <v>434.3</v>
       </c>
-      <c r="S5" s="5"/>
-      <c r="T5" s="5"/>
-      <c r="U5" s="5"/>
-      <c r="V5" s="5"/>
       <c r="W5" s="5"/>
       <c r="X5" s="5"/>
       <c r="Y5" s="5"/>
@@ -1221,8 +1264,12 @@
       <c r="AZ5" s="5"/>
       <c r="BA5" s="5"/>
       <c r="BB5" s="5"/>
-    </row>
-    <row r="6" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC5" s="5"/>
+      <c r="BD5" s="5"/>
+      <c r="BE5" s="5"/>
+      <c r="BF5" s="5"/>
+    </row>
+    <row r="6" spans="1:58" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>19</v>
       </c>
@@ -1232,30 +1279,34 @@
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
+      <c r="G6" s="5">
+        <v>1216.7</v>
+      </c>
       <c r="H6" s="5">
         <v>1243.0999999999999</v>
       </c>
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
+      <c r="K6" s="5">
+        <v>1382.5</v>
+      </c>
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
       <c r="N6" s="5"/>
       <c r="O6" s="5"/>
-      <c r="P6" s="5">
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="5">
         <v>3423.2</v>
       </c>
-      <c r="Q6" s="5">
+      <c r="U6" s="5">
         <v>4735.6000000000004</v>
       </c>
-      <c r="R6" s="5">
+      <c r="V6" s="5">
         <v>4693.5</v>
       </c>
-      <c r="S6" s="5"/>
-      <c r="T6" s="5"/>
-      <c r="U6" s="5"/>
-      <c r="V6" s="5"/>
       <c r="W6" s="5"/>
       <c r="X6" s="5"/>
       <c r="Y6" s="5"/>
@@ -1288,8 +1339,12 @@
       <c r="AZ6" s="5"/>
       <c r="BA6" s="5"/>
       <c r="BB6" s="5"/>
-    </row>
-    <row r="7" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC6" s="5"/>
+      <c r="BD6" s="5"/>
+      <c r="BE6" s="5"/>
+      <c r="BF6" s="5"/>
+    </row>
+    <row r="7" spans="1:58" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>20</v>
       </c>
@@ -1299,30 +1354,34 @@
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
+      <c r="G7" s="5">
+        <v>121.5</v>
+      </c>
       <c r="H7" s="5">
         <v>116.7</v>
       </c>
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
+      <c r="K7" s="5">
+        <v>121.3</v>
+      </c>
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
       <c r="N7" s="5"/>
       <c r="O7" s="5"/>
-      <c r="P7" s="5">
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5"/>
+      <c r="S7" s="5"/>
+      <c r="T7" s="5">
         <v>81.599999999999994</v>
       </c>
-      <c r="Q7" s="5">
+      <c r="U7" s="5">
         <v>614.29999999999995</v>
       </c>
-      <c r="R7" s="5">
+      <c r="V7" s="5">
         <v>656.1</v>
       </c>
-      <c r="S7" s="5"/>
-      <c r="T7" s="5"/>
-      <c r="U7" s="5"/>
-      <c r="V7" s="5"/>
       <c r="W7" s="5"/>
       <c r="X7" s="5"/>
       <c r="Y7" s="5"/>
@@ -1355,8 +1414,12 @@
       <c r="AZ7" s="5"/>
       <c r="BA7" s="5"/>
       <c r="BB7" s="5"/>
-    </row>
-    <row r="8" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC7" s="5"/>
+      <c r="BD7" s="5"/>
+      <c r="BE7" s="5"/>
+      <c r="BF7" s="5"/>
+    </row>
+    <row r="8" spans="1:58" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>21</v>
       </c>
@@ -1378,53 +1441,56 @@
       </c>
       <c r="G8" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1338.2</v>
       </c>
       <c r="H8" s="6">
         <f>+H6+H7</f>
         <v>1359.8</v>
       </c>
       <c r="I8" s="6">
-        <f t="shared" ref="I8:J8" si="1">+I6+I7</f>
+        <f t="shared" ref="I8:K8" si="1">+I6+I7</f>
         <v>0</v>
       </c>
       <c r="J8" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K8" s="5"/>
-      <c r="L8" s="6">
-        <f t="shared" ref="L8:Q8" si="2">L6+L7</f>
+      <c r="K8" s="6">
+        <f t="shared" si="1"/>
+        <v>1503.8</v>
+      </c>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="6">
+        <f t="shared" ref="P8:U8" si="2">P6+P7</f>
         <v>0</v>
       </c>
-      <c r="M8" s="6">
+      <c r="Q8" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N8" s="6">
+      <c r="R8" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O8" s="6">
+      <c r="S8" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P8" s="6">
+      <c r="T8" s="6">
         <f t="shared" si="2"/>
         <v>3504.7999999999997</v>
       </c>
-      <c r="Q8" s="6">
+      <c r="U8" s="6">
         <f t="shared" si="2"/>
         <v>5349.9000000000005</v>
       </c>
-      <c r="R8" s="6">
-        <f>R6+R7</f>
+      <c r="V8" s="6">
+        <f>V6+V7</f>
         <v>5349.6</v>
       </c>
-      <c r="S8" s="5"/>
-      <c r="T8" s="5"/>
-      <c r="U8" s="5"/>
-      <c r="V8" s="5"/>
       <c r="W8" s="5"/>
       <c r="X8" s="5"/>
       <c r="Y8" s="5"/>
@@ -1457,8 +1523,12 @@
       <c r="AZ8" s="5"/>
       <c r="BA8" s="5"/>
       <c r="BB8" s="5"/>
-    </row>
-    <row r="9" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC8" s="5"/>
+      <c r="BD8" s="5"/>
+      <c r="BE8" s="5"/>
+      <c r="BF8" s="5"/>
+    </row>
+    <row r="9" spans="1:58" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>26</v>
       </c>
@@ -1468,30 +1538,34 @@
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
+      <c r="G9" s="5">
+        <v>567.1</v>
+      </c>
       <c r="H9" s="5">
         <v>599.9</v>
       </c>
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
+      <c r="K9" s="5">
+        <v>558.79999999999995</v>
+      </c>
       <c r="L9" s="5"/>
       <c r="M9" s="5"/>
       <c r="N9" s="5"/>
       <c r="O9" s="5"/>
-      <c r="P9" s="5">
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="5"/>
+      <c r="T9" s="5">
         <v>1535.4</v>
       </c>
-      <c r="Q9" s="5">
+      <c r="U9" s="5">
         <v>3064.6</v>
       </c>
-      <c r="R9" s="5">
+      <c r="V9" s="5">
         <v>3107.8</v>
       </c>
-      <c r="S9" s="5"/>
-      <c r="T9" s="5"/>
-      <c r="U9" s="5"/>
-      <c r="V9" s="5"/>
       <c r="W9" s="5"/>
       <c r="X9" s="5"/>
       <c r="Y9" s="5"/>
@@ -1524,76 +1598,83 @@
       <c r="AZ9" s="5"/>
       <c r="BA9" s="5"/>
       <c r="BB9" s="5"/>
-    </row>
-    <row r="10" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="B10" s="10" t="s">
+      <c r="BC9" s="5"/>
+      <c r="BD9" s="5"/>
+      <c r="BE9" s="5"/>
+      <c r="BF9" s="5"/>
+    </row>
+    <row r="10" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="11">
-        <f t="shared" ref="C10:J10" si="3">C8-C9</f>
+      <c r="C10" s="5">
+        <f t="shared" ref="C10:K10" si="3">C8-C9</f>
         <v>0</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D10" s="5">
         <f t="shared" si="3"/>
         <v>678.09999999999991</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E10" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F10" s="11">
+      <c r="F10" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G10" s="11">
+      <c r="G10" s="5">
+        <f t="shared" si="3"/>
+        <v>771.1</v>
+      </c>
+      <c r="H10" s="5">
+        <f t="shared" si="3"/>
+        <v>759.9</v>
+      </c>
+      <c r="I10" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H10" s="11">
-        <f t="shared" si="3"/>
-        <v>759.9</v>
-      </c>
-      <c r="I10" s="11">
+      <c r="J10" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J10" s="11">
+      <c r="K10" s="5">
         <f t="shared" si="3"/>
+        <v>945</v>
+      </c>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5">
+        <f t="shared" ref="P10:U10" si="4">P8-P9</f>
         <v>0</v>
       </c>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11">
-        <f t="shared" ref="L10:Q10" si="4">L8-L9</f>
-        <v>0</v>
-      </c>
-      <c r="M10" s="11">
+      <c r="Q10" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="N10" s="11">
+      <c r="R10" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="O10" s="11">
+      <c r="S10" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P10" s="11">
+      <c r="T10" s="5">
         <f t="shared" si="4"/>
         <v>1969.3999999999996</v>
       </c>
-      <c r="Q10" s="11">
+      <c r="U10" s="5">
         <f t="shared" si="4"/>
         <v>2285.3000000000006</v>
       </c>
-      <c r="R10" s="11">
-        <f>R8-R9</f>
+      <c r="V10" s="5">
+        <f>V8-V9</f>
         <v>2241.8000000000002</v>
       </c>
-      <c r="S10" s="11"/>
-      <c r="T10" s="11"/>
-      <c r="U10" s="5"/>
-      <c r="V10" s="5"/>
       <c r="W10" s="5"/>
       <c r="X10" s="5"/>
       <c r="Y10" s="5"/>
@@ -1626,8 +1707,12 @@
       <c r="AZ10" s="5"/>
       <c r="BA10" s="5"/>
       <c r="BB10" s="5"/>
-    </row>
-    <row r="11" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC10" s="5"/>
+      <c r="BD10" s="5"/>
+      <c r="BE10" s="5"/>
+      <c r="BF10" s="5"/>
+    </row>
+    <row r="11" spans="1:58" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>29</v>
       </c>
@@ -1637,30 +1722,34 @@
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
+      <c r="G11" s="5">
+        <v>431.4</v>
+      </c>
       <c r="H11" s="5">
         <v>388.9</v>
       </c>
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
+      <c r="K11" s="5">
+        <v>408.8</v>
+      </c>
       <c r="L11" s="5"/>
       <c r="M11" s="5"/>
       <c r="N11" s="5"/>
       <c r="O11" s="5"/>
-      <c r="P11" s="5">
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="5"/>
+      <c r="T11" s="5">
         <v>516.4</v>
       </c>
-      <c r="Q11" s="5">
+      <c r="U11" s="5">
         <v>1586.5</v>
       </c>
-      <c r="R11" s="5">
+      <c r="V11" s="5">
         <v>1550.2</v>
       </c>
-      <c r="S11" s="5"/>
-      <c r="T11" s="5"/>
-      <c r="U11" s="5"/>
-      <c r="V11" s="5"/>
       <c r="W11" s="5"/>
       <c r="X11" s="5"/>
       <c r="Y11" s="5"/>
@@ -1693,8 +1782,12 @@
       <c r="AZ11" s="5"/>
       <c r="BA11" s="5"/>
       <c r="BB11" s="5"/>
-    </row>
-    <row r="12" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC11" s="5"/>
+      <c r="BD11" s="5"/>
+      <c r="BE11" s="5"/>
+      <c r="BF11" s="5"/>
+    </row>
+    <row r="12" spans="1:58" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>28</v>
       </c>
@@ -1704,30 +1797,34 @@
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
+      <c r="G12" s="5">
+        <v>219.8</v>
+      </c>
       <c r="H12" s="5">
         <v>240.9</v>
       </c>
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
+      <c r="K12" s="5">
+        <v>261.39999999999998</v>
+      </c>
       <c r="L12" s="5"/>
       <c r="M12" s="5"/>
       <c r="N12" s="5"/>
       <c r="O12" s="5"/>
-      <c r="P12" s="5">
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="5"/>
+      <c r="S12" s="5"/>
+      <c r="T12" s="5">
         <v>406.6</v>
       </c>
-      <c r="Q12" s="5">
+      <c r="U12" s="5">
         <v>887.6</v>
       </c>
-      <c r="R12" s="5">
+      <c r="V12" s="5">
         <v>948.2</v>
       </c>
-      <c r="S12" s="5"/>
-      <c r="T12" s="5"/>
-      <c r="U12" s="5"/>
-      <c r="V12" s="5"/>
       <c r="W12" s="5"/>
       <c r="X12" s="5"/>
       <c r="Y12" s="5"/>
@@ -1760,8 +1857,12 @@
       <c r="AZ12" s="5"/>
       <c r="BA12" s="5"/>
       <c r="BB12" s="5"/>
-    </row>
-    <row r="13" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC12" s="5"/>
+      <c r="BD12" s="5"/>
+      <c r="BE12" s="5"/>
+      <c r="BF12" s="5"/>
+    </row>
+    <row r="13" spans="1:58" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>30</v>
       </c>
@@ -1771,30 +1872,34 @@
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
+      <c r="G13" s="5">
+        <v>210.5</v>
+      </c>
       <c r="H13" s="5">
         <v>189.6</v>
       </c>
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
+      <c r="K13" s="5">
+        <v>207</v>
+      </c>
       <c r="L13" s="5"/>
       <c r="M13" s="5"/>
       <c r="N13" s="5"/>
       <c r="O13" s="5"/>
-      <c r="P13" s="5">
+      <c r="P13" s="5"/>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="5"/>
+      <c r="S13" s="5"/>
+      <c r="T13" s="5">
         <v>510.9</v>
       </c>
-      <c r="Q13" s="5">
+      <c r="U13" s="5">
         <v>839.5</v>
       </c>
-      <c r="R13" s="5">
+      <c r="V13" s="5">
         <v>716.1</v>
       </c>
-      <c r="S13" s="5"/>
-      <c r="T13" s="5"/>
-      <c r="U13" s="5"/>
-      <c r="V13" s="5"/>
       <c r="W13" s="5"/>
       <c r="X13" s="5"/>
       <c r="Y13" s="5"/>
@@ -1827,8 +1932,12 @@
       <c r="AZ13" s="5"/>
       <c r="BA13" s="5"/>
       <c r="BB13" s="5"/>
-    </row>
-    <row r="14" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC13" s="5"/>
+      <c r="BD13" s="5"/>
+      <c r="BE13" s="5"/>
+      <c r="BF13" s="5"/>
+    </row>
+    <row r="14" spans="1:58" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>31</v>
       </c>
@@ -1838,31 +1947,35 @@
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
+      <c r="G14" s="5">
+        <v>44.8</v>
+      </c>
       <c r="H14" s="5">
         <v>49.5</v>
       </c>
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
+      <c r="K14" s="5">
+        <v>50.4</v>
+      </c>
       <c r="L14" s="5"/>
       <c r="M14" s="5"/>
       <c r="N14" s="5"/>
       <c r="O14" s="5"/>
-      <c r="P14" s="5">
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="5"/>
+      <c r="S14" s="5"/>
+      <c r="T14" s="5">
         <v>61.1</v>
       </c>
-      <c r="Q14" s="5">
+      <c r="U14" s="5">
         <v>122.3</v>
       </c>
-      <c r="R14" s="5">
+      <c r="V14" s="5">
         <f>171.2+2342.1</f>
         <v>2513.2999999999997</v>
       </c>
-      <c r="S14" s="5"/>
-      <c r="T14" s="5"/>
-      <c r="U14" s="5"/>
-      <c r="V14" s="5"/>
       <c r="W14" s="5"/>
       <c r="X14" s="5"/>
       <c r="Y14" s="5"/>
@@ -1895,10 +2008,14 @@
       <c r="AZ14" s="5"/>
       <c r="BA14" s="5"/>
       <c r="BB14" s="5"/>
-    </row>
-    <row r="15" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC14" s="5"/>
+      <c r="BD14" s="5"/>
+      <c r="BE14" s="5"/>
+      <c r="BF14" s="5"/>
+    </row>
+    <row r="15" spans="1:58" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="5">
@@ -1906,30 +2023,34 @@
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
+      <c r="G15" s="5">
+        <v>49.5</v>
+      </c>
       <c r="H15" s="5">
         <v>23.1</v>
       </c>
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
+      <c r="K15" s="5">
+        <v>-4.2</v>
+      </c>
       <c r="L15" s="5"/>
       <c r="M15" s="5"/>
       <c r="N15" s="5"/>
       <c r="O15" s="5"/>
-      <c r="P15" s="5">
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="5"/>
+      <c r="S15" s="5"/>
+      <c r="T15" s="5">
         <v>0.8</v>
       </c>
-      <c r="Q15" s="5">
+      <c r="U15" s="5">
         <v>14.6</v>
       </c>
-      <c r="R15" s="5">
+      <c r="V15" s="5">
         <v>104.6</v>
       </c>
-      <c r="S15" s="5"/>
-      <c r="T15" s="5"/>
-      <c r="U15" s="5"/>
-      <c r="V15" s="5"/>
       <c r="W15" s="5"/>
       <c r="X15" s="5"/>
       <c r="Y15" s="5"/>
@@ -1962,76 +2083,83 @@
       <c r="AZ15" s="5"/>
       <c r="BA15" s="5"/>
       <c r="BB15" s="5"/>
-    </row>
-    <row r="16" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="B16" s="10" t="s">
+      <c r="BC15" s="5"/>
+      <c r="BD15" s="5"/>
+      <c r="BE15" s="5"/>
+      <c r="BF15" s="5"/>
+    </row>
+    <row r="16" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="11">
-        <f t="shared" ref="C16:J16" si="5">C10-SUM(C11:C15)</f>
+      <c r="C16" s="5">
+        <f t="shared" ref="C16:K16" si="5">C10-SUM(C11:C15)</f>
         <v>0</v>
       </c>
-      <c r="D16" s="11">
+      <c r="D16" s="5">
         <f t="shared" si="5"/>
         <v>-129.50000000000011</v>
       </c>
-      <c r="E16" s="11">
+      <c r="E16" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="F16" s="11">
+      <c r="F16" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G16" s="11">
+      <c r="G16" s="5">
+        <f t="shared" si="5"/>
+        <v>-184.89999999999998</v>
+      </c>
+      <c r="H16" s="5">
+        <f t="shared" si="5"/>
+        <v>-132.10000000000002</v>
+      </c>
+      <c r="I16" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="H16" s="11">
-        <f t="shared" si="5"/>
-        <v>-132.10000000000002</v>
-      </c>
-      <c r="I16" s="11">
+      <c r="J16" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J16" s="11">
+      <c r="K16" s="5">
         <f t="shared" si="5"/>
+        <v>21.600000000000023</v>
+      </c>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5">
+        <f t="shared" ref="P16:U16" si="6">P10-SUM(P11:P15)</f>
         <v>0</v>
       </c>
-      <c r="K16" s="11"/>
-      <c r="L16" s="11">
-        <f t="shared" ref="L16:Q16" si="6">L10-SUM(L11:L15)</f>
-        <v>0</v>
-      </c>
-      <c r="M16" s="11">
+      <c r="Q16" s="5">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="N16" s="11">
+      <c r="R16" s="5">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="O16" s="11">
+      <c r="S16" s="5">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P16" s="11">
+      <c r="T16" s="5">
         <f t="shared" si="6"/>
         <v>473.59999999999968</v>
       </c>
-      <c r="Q16" s="11">
+      <c r="U16" s="5">
         <f t="shared" si="6"/>
         <v>-1165.1999999999994</v>
       </c>
-      <c r="R16" s="11">
-        <f>R10-SUM(R11:R15)</f>
+      <c r="V16" s="5">
+        <f>V10-SUM(V11:V15)</f>
         <v>-3590.5999999999995</v>
       </c>
-      <c r="S16" s="11"/>
-      <c r="T16" s="5"/>
-      <c r="U16" s="5"/>
-      <c r="V16" s="5"/>
       <c r="W16" s="5"/>
       <c r="X16" s="5"/>
       <c r="Y16" s="5"/>
@@ -2064,8 +2192,12 @@
       <c r="AZ16" s="5"/>
       <c r="BA16" s="5"/>
       <c r="BB16" s="5"/>
-    </row>
-    <row r="17" spans="2:54" x14ac:dyDescent="0.25">
+      <c r="BC16" s="5"/>
+      <c r="BD16" s="5"/>
+      <c r="BE16" s="5"/>
+      <c r="BF16" s="5"/>
+    </row>
+    <row r="17" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>33</v>
       </c>
@@ -2076,34 +2208,38 @@
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
+      <c r="G17" s="5">
+        <v>-27.3</v>
+      </c>
       <c r="H17" s="5">
         <f>-21+0.2</f>
         <v>-20.8</v>
       </c>
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
+      <c r="K17" s="5">
+        <v>-35.4</v>
+      </c>
       <c r="L17" s="5"/>
       <c r="M17" s="5"/>
       <c r="N17" s="5"/>
       <c r="O17" s="5"/>
-      <c r="P17" s="5">
+      <c r="P17" s="5"/>
+      <c r="Q17" s="5"/>
+      <c r="R17" s="5"/>
+      <c r="S17" s="5"/>
+      <c r="T17" s="5">
         <f>-14.2+6</f>
         <v>-8.1999999999999993</v>
       </c>
-      <c r="Q17" s="5">
+      <c r="U17" s="5">
         <f>-141.9-31</f>
         <v>-172.9</v>
       </c>
-      <c r="R17" s="5">
+      <c r="V17" s="5">
         <f>-103.6-8.6</f>
         <v>-112.19999999999999</v>
       </c>
-      <c r="S17" s="5"/>
-      <c r="T17" s="5"/>
-      <c r="U17" s="5"/>
-      <c r="V17" s="5"/>
       <c r="W17" s="5"/>
       <c r="X17" s="5"/>
       <c r="Y17" s="5"/>
@@ -2136,13 +2272,17 @@
       <c r="AZ17" s="5"/>
       <c r="BA17" s="5"/>
       <c r="BB17" s="5"/>
-    </row>
-    <row r="18" spans="2:54" x14ac:dyDescent="0.25">
+      <c r="BC17" s="5"/>
+      <c r="BD17" s="5"/>
+      <c r="BE17" s="5"/>
+      <c r="BF17" s="5"/>
+    </row>
+    <row r="18" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>34</v>
       </c>
       <c r="C18" s="5">
-        <f t="shared" ref="C18:J18" si="7">C16+C17</f>
+        <f t="shared" ref="C18:K18" si="7">C16+C17</f>
         <v>0</v>
       </c>
       <c r="D18" s="5">
@@ -2159,7 +2299,7 @@
       </c>
       <c r="G18" s="5">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>-212.2</v>
       </c>
       <c r="H18" s="5">
         <f t="shared" si="7"/>
@@ -2173,39 +2313,42 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5">
-        <f t="shared" ref="L18:Q18" si="8">L16+L17</f>
+      <c r="K18" s="5">
+        <f t="shared" si="7"/>
+        <v>-13.799999999999976</v>
+      </c>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5">
+        <f t="shared" ref="P18:U18" si="8">P16+P17</f>
         <v>0</v>
       </c>
-      <c r="M18" s="5">
+      <c r="Q18" s="5">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="N18" s="5">
+      <c r="R18" s="5">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="O18" s="5">
+      <c r="S18" s="5">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="P18" s="5">
+      <c r="T18" s="5">
         <f t="shared" si="8"/>
         <v>465.39999999999969</v>
       </c>
-      <c r="Q18" s="5">
+      <c r="U18" s="5">
         <f t="shared" si="8"/>
         <v>-1338.0999999999995</v>
       </c>
-      <c r="R18" s="5">
-        <f>R16+R17</f>
+      <c r="V18" s="5">
+        <f>V16+V17</f>
         <v>-3702.7999999999993</v>
       </c>
-      <c r="S18" s="5"/>
-      <c r="T18" s="5"/>
-      <c r="U18" s="5"/>
-      <c r="V18" s="5"/>
       <c r="W18" s="5"/>
       <c r="X18" s="5"/>
       <c r="Y18" s="5"/>
@@ -2238,8 +2381,12 @@
       <c r="AZ18" s="5"/>
       <c r="BA18" s="5"/>
       <c r="BB18" s="5"/>
-    </row>
-    <row r="19" spans="2:54" x14ac:dyDescent="0.25">
+      <c r="BC18" s="5"/>
+      <c r="BD18" s="5"/>
+      <c r="BE18" s="5"/>
+      <c r="BF18" s="5"/>
+    </row>
+    <row r="19" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>35</v>
       </c>
@@ -2249,30 +2396,34 @@
       </c>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
+      <c r="G19" s="5">
+        <v>49.8</v>
+      </c>
       <c r="H19" s="5">
         <v>-27.7</v>
       </c>
       <c r="I19" s="5"/>
       <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
+      <c r="K19" s="5">
+        <v>-1.9</v>
+      </c>
       <c r="L19" s="5"/>
       <c r="M19" s="5"/>
       <c r="N19" s="5"/>
       <c r="O19" s="5"/>
-      <c r="P19" s="5">
+      <c r="P19" s="5"/>
+      <c r="Q19" s="5"/>
+      <c r="R19" s="5"/>
+      <c r="S19" s="5"/>
+      <c r="T19" s="5">
         <v>47.4</v>
       </c>
-      <c r="Q19" s="5">
+      <c r="U19" s="5">
         <v>-213.4</v>
       </c>
-      <c r="R19" s="5">
+      <c r="V19" s="5">
         <v>41.4</v>
       </c>
-      <c r="S19" s="5"/>
-      <c r="T19" s="5"/>
-      <c r="U19" s="5"/>
-      <c r="V19" s="5"/>
       <c r="W19" s="5"/>
       <c r="X19" s="5"/>
       <c r="Y19" s="5"/>
@@ -2305,13 +2456,17 @@
       <c r="AZ19" s="5"/>
       <c r="BA19" s="5"/>
       <c r="BB19" s="5"/>
-    </row>
-    <row r="20" spans="2:54" x14ac:dyDescent="0.25">
+      <c r="BC19" s="5"/>
+      <c r="BD19" s="5"/>
+      <c r="BE19" s="5"/>
+      <c r="BF19" s="5"/>
+    </row>
+    <row r="20" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>36</v>
       </c>
       <c r="C20" s="6">
-        <f t="shared" ref="C20:J20" si="9">C18-C19</f>
+        <f t="shared" ref="C20:K20" si="9">C18-C19</f>
         <v>0</v>
       </c>
       <c r="D20" s="6">
@@ -2328,7 +2483,7 @@
       </c>
       <c r="G20" s="6">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>-262</v>
       </c>
       <c r="H20" s="6">
         <f t="shared" si="9"/>
@@ -2342,39 +2497,42 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K20" s="5"/>
-      <c r="L20" s="6">
-        <f t="shared" ref="L20:Q20" si="10">L18-L19</f>
+      <c r="K20" s="6">
+        <f t="shared" si="9"/>
+        <v>-11.899999999999975</v>
+      </c>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="6">
+        <f t="shared" ref="P20:U20" si="10">P18-P19</f>
         <v>0</v>
       </c>
-      <c r="M20" s="6">
+      <c r="Q20" s="6">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="N20" s="6">
+      <c r="R20" s="6">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="O20" s="6">
+      <c r="S20" s="6">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="P20" s="6">
+      <c r="T20" s="6">
         <f t="shared" si="10"/>
         <v>417.99999999999972</v>
       </c>
-      <c r="Q20" s="6">
+      <c r="U20" s="6">
         <f t="shared" si="10"/>
         <v>-1124.6999999999994</v>
       </c>
-      <c r="R20" s="6">
-        <f>R18-R19</f>
+      <c r="V20" s="6">
+        <f>V18-V19</f>
         <v>-3744.1999999999994</v>
       </c>
-      <c r="S20" s="5"/>
-      <c r="T20" s="5"/>
-      <c r="U20" s="5"/>
-      <c r="V20" s="5"/>
       <c r="W20" s="5"/>
       <c r="X20" s="5"/>
       <c r="Y20" s="5"/>
@@ -2407,8 +2565,12 @@
       <c r="AZ20" s="5"/>
       <c r="BA20" s="5"/>
       <c r="BB20" s="5"/>
-    </row>
-    <row r="21" spans="2:54" x14ac:dyDescent="0.25">
+      <c r="BC20" s="5"/>
+      <c r="BD20" s="5"/>
+      <c r="BE20" s="5"/>
+      <c r="BF20" s="5"/>
+    </row>
+    <row r="21" spans="2:58" x14ac:dyDescent="0.25">
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
@@ -2461,58 +2623,68 @@
       <c r="AZ21" s="5"/>
       <c r="BA21" s="5"/>
       <c r="BB21" s="5"/>
-    </row>
-    <row r="22" spans="2:54" x14ac:dyDescent="0.25">
+      <c r="BC21" s="5"/>
+      <c r="BD21" s="5"/>
+      <c r="BE21" s="5"/>
+      <c r="BF21" s="5"/>
+    </row>
+    <row r="22" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>37</v>
       </c>
-      <c r="C22" s="12" t="e">
+      <c r="C22" s="10" t="e">
         <f t="shared" ref="C22:G22" si="11">+C20/C23</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D22" s="12">
+      <c r="D22" s="10">
         <f t="shared" si="11"/>
         <v>-0.52492836676217836</v>
       </c>
-      <c r="E22" s="12" t="e">
+      <c r="E22" s="10" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F22" s="12" t="e">
+      <c r="F22" s="10" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G22" s="12" t="e">
+      <c r="G22" s="10" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H22" s="12">
+      <c r="H22" s="10">
         <f>+H20/H23</f>
         <v>-0.71136363636363653</v>
       </c>
-      <c r="I22" s="12" t="e">
-        <f t="shared" ref="I22" si="12">+I20/I23</f>
+      <c r="I22" s="10" t="e">
+        <f t="shared" ref="I22:K22" si="12">+I20/I23</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
+      <c r="J22" s="10" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K22" s="10" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="L22" s="5"/>
       <c r="M22" s="5"/>
       <c r="N22" s="5"/>
       <c r="O22" s="5"/>
-      <c r="P22" s="5">
+      <c r="P22" s="5"/>
+      <c r="Q22" s="5"/>
+      <c r="R22" s="5"/>
+      <c r="S22" s="5"/>
+      <c r="T22" s="5">
         <v>3.62</v>
       </c>
-      <c r="Q22" s="5">
+      <c r="U22" s="5">
         <v>-7.03</v>
       </c>
-      <c r="R22" s="5">
+      <c r="V22" s="5">
         <v>-22.01</v>
       </c>
-      <c r="S22" s="5"/>
-      <c r="T22" s="5"/>
-      <c r="U22" s="5"/>
-      <c r="V22" s="5"/>
       <c r="W22" s="5"/>
       <c r="X22" s="5"/>
       <c r="Y22" s="5"/>
@@ -2545,8 +2717,12 @@
       <c r="AZ22" s="5"/>
       <c r="BA22" s="5"/>
       <c r="BB22" s="5"/>
-    </row>
-    <row r="23" spans="2:54" x14ac:dyDescent="0.25">
+      <c r="BC22" s="5"/>
+      <c r="BD22" s="5"/>
+      <c r="BE22" s="5"/>
+      <c r="BF22" s="5"/>
+    </row>
+    <row r="23" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>2</v>
       </c>
@@ -2567,22 +2743,22 @@
       <c r="M23" s="5"/>
       <c r="N23" s="5"/>
       <c r="O23" s="5"/>
-      <c r="P23" s="5">
-        <f t="shared" ref="P23:Q23" si="13">P20/P22</f>
+      <c r="P23" s="5"/>
+      <c r="Q23" s="5"/>
+      <c r="R23" s="5"/>
+      <c r="S23" s="5"/>
+      <c r="T23" s="5">
+        <f t="shared" ref="T23:U23" si="13">T20/T22</f>
         <v>115.46961325966842</v>
       </c>
-      <c r="Q23" s="5">
+      <c r="U23" s="5">
         <f t="shared" si="13"/>
         <v>159.98577524893304</v>
       </c>
-      <c r="R23" s="5">
-        <f>R20/R22</f>
+      <c r="V23" s="5">
+        <f>V20/V22</f>
         <v>170.11358473421168</v>
       </c>
-      <c r="S23" s="5"/>
-      <c r="T23" s="5"/>
-      <c r="U23" s="5"/>
-      <c r="V23" s="5"/>
       <c r="W23" s="5"/>
       <c r="X23" s="5"/>
       <c r="Y23" s="5"/>
@@ -2615,8 +2791,12 @@
       <c r="AZ23" s="5"/>
       <c r="BA23" s="5"/>
       <c r="BB23" s="5"/>
-    </row>
-    <row r="24" spans="2:54" x14ac:dyDescent="0.25">
+      <c r="BC23" s="5"/>
+      <c r="BD23" s="5"/>
+      <c r="BE23" s="5"/>
+      <c r="BF23" s="5"/>
+    </row>
+    <row r="24" spans="2:58" x14ac:dyDescent="0.25">
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
@@ -2669,49 +2849,77 @@
       <c r="AZ24" s="5"/>
       <c r="BA24" s="5"/>
       <c r="BB24" s="5"/>
-    </row>
-    <row r="25" spans="2:54" x14ac:dyDescent="0.25">
+      <c r="BC24" s="5"/>
+      <c r="BD24" s="5"/>
+      <c r="BE24" s="5"/>
+      <c r="BF24" s="5"/>
+    </row>
+    <row r="25" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="5"/>
-      <c r="L25" s="5"/>
-      <c r="M25" s="7" t="e">
-        <f t="shared" ref="M25:R29" si="14">M3/L3-1</f>
+      <c r="G25" s="7" t="e">
+        <f t="shared" ref="G25:J30" si="14">+G3/C3-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N25" s="7" t="e">
+      <c r="H25" s="7">
+        <f t="shared" si="14"/>
+        <v>3.5234187066647715E-2</v>
+      </c>
+      <c r="I25" s="7" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O25" s="7" t="e">
+      <c r="J25" s="7" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P25" s="7" t="e">
-        <f t="shared" si="14"/>
+      <c r="K25" s="7">
+        <f>+K3/G3-1</f>
+        <v>0.10961937716262993</v>
+      </c>
+      <c r="L25" s="7">
+        <f t="shared" ref="L25:N30" si="15">+L3/H3-1</f>
+        <v>-1</v>
+      </c>
+      <c r="M25" s="7" t="e">
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q25" s="7">
-        <f t="shared" si="14"/>
+      <c r="N25" s="7" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O25" s="5"/>
+      <c r="P25" s="5"/>
+      <c r="Q25" s="7" t="e">
+        <f t="shared" ref="Q25:U29" si="16">Q3/P3-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R25" s="7" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S25" s="7" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T25" s="7" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U25" s="7">
+        <f t="shared" si="16"/>
         <v>5.2930094199305904</v>
       </c>
-      <c r="R25" s="7">
-        <f t="shared" ref="R25:R29" si="15">R3/Q3-1</f>
+      <c r="V25" s="7">
+        <f t="shared" ref="V25:V29" si="17">V3/U3-1</f>
         <v>8.248640983219091E-2</v>
       </c>
-      <c r="S25" s="5"/>
-      <c r="T25" s="5"/>
-      <c r="U25" s="5"/>
-      <c r="V25" s="5"/>
       <c r="W25" s="5"/>
       <c r="X25" s="5"/>
       <c r="Y25" s="5"/>
@@ -2744,49 +2952,77 @@
       <c r="AZ25" s="5"/>
       <c r="BA25" s="5"/>
       <c r="BB25" s="5"/>
-    </row>
-    <row r="26" spans="2:54" x14ac:dyDescent="0.25">
+      <c r="BC25" s="5"/>
+      <c r="BD25" s="5"/>
+      <c r="BE25" s="5"/>
+      <c r="BF25" s="5"/>
+    </row>
+    <row r="26" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="5"/>
-      <c r="K26" s="5"/>
-      <c r="L26" s="5"/>
-      <c r="M26" s="7" t="e">
+      <c r="G26" s="7" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N26" s="7" t="e">
+      <c r="H26" s="7">
+        <f t="shared" si="14"/>
+        <v>-7.2498173849525283E-2</v>
+      </c>
+      <c r="I26" s="7" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O26" s="7" t="e">
+      <c r="J26" s="7" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P26" s="7" t="e">
-        <f t="shared" si="14"/>
+      <c r="K26" s="7">
+        <f t="shared" ref="K26:K30" si="18">+K4/G4-1</f>
+        <v>8.1941442326586955E-2</v>
+      </c>
+      <c r="L26" s="7">
+        <f t="shared" si="15"/>
+        <v>-1</v>
+      </c>
+      <c r="M26" s="7" t="e">
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q26" s="7">
-        <f t="shared" si="14"/>
+      <c r="N26" s="7" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O26" s="5"/>
+      <c r="P26" s="5"/>
+      <c r="Q26" s="7" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R26" s="7" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S26" s="7" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T26" s="7" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U26" s="7">
+        <f t="shared" si="16"/>
         <v>-8.9011032464707984E-2</v>
       </c>
-      <c r="R26" s="7">
-        <f t="shared" si="15"/>
+      <c r="V26" s="7">
+        <f t="shared" si="17"/>
         <v>-5.9249934890181488E-2</v>
       </c>
-      <c r="S26" s="5"/>
-      <c r="T26" s="5"/>
-      <c r="U26" s="5"/>
-      <c r="V26" s="5"/>
       <c r="W26" s="5"/>
       <c r="X26" s="5"/>
       <c r="Y26" s="5"/>
@@ -2819,49 +3055,77 @@
       <c r="AZ26" s="5"/>
       <c r="BA26" s="5"/>
       <c r="BB26" s="5"/>
-    </row>
-    <row r="27" spans="2:54" x14ac:dyDescent="0.25">
+      <c r="BC26" s="5"/>
+      <c r="BD26" s="5"/>
+      <c r="BE26" s="5"/>
+      <c r="BF26" s="5"/>
+    </row>
+    <row r="27" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
-      <c r="J27" s="5"/>
-      <c r="K27" s="5"/>
-      <c r="L27" s="5"/>
-      <c r="M27" s="7" t="e">
+      <c r="G27" s="7" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N27" s="7" t="e">
+      <c r="H27" s="7">
+        <f t="shared" si="14"/>
+        <v>7.4107142857142927E-2</v>
+      </c>
+      <c r="I27" s="7" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O27" s="7" t="e">
+      <c r="J27" s="7" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P27" s="7" t="e">
-        <f t="shared" si="14"/>
+      <c r="K27" s="7">
+        <f t="shared" si="18"/>
+        <v>0.4185393258426966</v>
+      </c>
+      <c r="L27" s="7">
+        <f t="shared" si="15"/>
+        <v>-1</v>
+      </c>
+      <c r="M27" s="7" t="e">
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q27" s="7">
-        <f t="shared" si="14"/>
+      <c r="N27" s="7" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O27" s="5"/>
+      <c r="P27" s="5"/>
+      <c r="Q27" s="7" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R27" s="7" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S27" s="7" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T27" s="7" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U27" s="7">
+        <f t="shared" si="16"/>
         <v>-0.11353711790393017</v>
       </c>
-      <c r="R27" s="7">
-        <f t="shared" si="15"/>
+      <c r="V27" s="7">
+        <f t="shared" si="17"/>
         <v>-0.14423645320197043</v>
       </c>
-      <c r="S27" s="5"/>
-      <c r="T27" s="5"/>
-      <c r="U27" s="5"/>
-      <c r="V27" s="5"/>
       <c r="W27" s="5"/>
       <c r="X27" s="5"/>
       <c r="Y27" s="5"/>
@@ -2894,49 +3158,77 @@
       <c r="AZ27" s="5"/>
       <c r="BA27" s="5"/>
       <c r="BB27" s="5"/>
-    </row>
-    <row r="28" spans="2:54" x14ac:dyDescent="0.25">
+      <c r="BC27" s="5"/>
+      <c r="BD27" s="5"/>
+      <c r="BE27" s="5"/>
+      <c r="BF27" s="5"/>
+    </row>
+    <row r="28" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
-      <c r="J28" s="5"/>
-      <c r="K28" s="5"/>
-      <c r="L28" s="5"/>
-      <c r="M28" s="7" t="e">
+      <c r="G28" s="7" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N28" s="7" t="e">
+      <c r="H28" s="7">
+        <f t="shared" si="14"/>
+        <v>2.8885946035424492E-2</v>
+      </c>
+      <c r="I28" s="7" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O28" s="7" t="e">
+      <c r="J28" s="7" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P28" s="7" t="e">
-        <f t="shared" si="14"/>
+      <c r="K28" s="7">
+        <f t="shared" si="18"/>
+        <v>0.13627023917152958</v>
+      </c>
+      <c r="L28" s="7">
+        <f t="shared" si="15"/>
+        <v>-1</v>
+      </c>
+      <c r="M28" s="7" t="e">
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q28" s="7">
-        <f t="shared" si="14"/>
+      <c r="N28" s="7" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O28" s="5"/>
+      <c r="P28" s="5"/>
+      <c r="Q28" s="7" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R28" s="7" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S28" s="7" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T28" s="7" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U28" s="7">
+        <f t="shared" si="16"/>
         <v>0.38338396821687337</v>
       </c>
-      <c r="R28" s="7">
-        <f t="shared" si="15"/>
+      <c r="V28" s="7">
+        <f t="shared" si="17"/>
         <v>-8.8901089619056739E-3</v>
       </c>
-      <c r="S28" s="5"/>
-      <c r="T28" s="5"/>
-      <c r="U28" s="5"/>
-      <c r="V28" s="5"/>
       <c r="W28" s="5"/>
       <c r="X28" s="5"/>
       <c r="Y28" s="5"/>
@@ -2969,49 +3261,77 @@
       <c r="AZ28" s="5"/>
       <c r="BA28" s="5"/>
       <c r="BB28" s="5"/>
-    </row>
-    <row r="29" spans="2:54" x14ac:dyDescent="0.25">
+      <c r="BC28" s="5"/>
+      <c r="BD28" s="5"/>
+      <c r="BE28" s="5"/>
+      <c r="BF28" s="5"/>
+    </row>
+    <row r="29" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="5"/>
-      <c r="K29" s="5"/>
-      <c r="L29" s="5"/>
-      <c r="M29" s="7" t="e">
+      <c r="G29" s="7" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N29" s="7" t="e">
+      <c r="H29" s="7">
+        <f t="shared" si="14"/>
+        <v>-0.26185958254269448</v>
+      </c>
+      <c r="I29" s="7" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O29" s="7" t="e">
+      <c r="J29" s="7" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P29" s="7" t="e">
-        <f t="shared" si="14"/>
+      <c r="K29" s="7">
+        <f t="shared" si="18"/>
+        <v>-1.6460905349794386E-3</v>
+      </c>
+      <c r="L29" s="7">
+        <f t="shared" si="15"/>
+        <v>-1</v>
+      </c>
+      <c r="M29" s="7" t="e">
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q29" s="7">
-        <f t="shared" si="14"/>
+      <c r="N29" s="7" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O29" s="5"/>
+      <c r="P29" s="5"/>
+      <c r="Q29" s="7" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R29" s="7" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S29" s="7" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T29" s="7" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U29" s="7">
+        <f t="shared" si="16"/>
         <v>6.528186274509804</v>
       </c>
-      <c r="R29" s="7">
-        <f t="shared" si="15"/>
+      <c r="V29" s="7">
+        <f t="shared" si="17"/>
         <v>6.8044929187693448E-2</v>
       </c>
-      <c r="S29" s="5"/>
-      <c r="T29" s="5"/>
-      <c r="U29" s="5"/>
-      <c r="V29" s="5"/>
       <c r="W29" s="5"/>
       <c r="X29" s="5"/>
       <c r="Y29" s="5"/>
@@ -3044,8 +3364,12 @@
       <c r="AZ29" s="5"/>
       <c r="BA29" s="5"/>
       <c r="BB29" s="5"/>
-    </row>
-    <row r="30" spans="2:54" x14ac:dyDescent="0.25">
+      <c r="BC29" s="5"/>
+      <c r="BD29" s="5"/>
+      <c r="BE29" s="5"/>
+      <c r="BF29" s="5"/>
+    </row>
+    <row r="30" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>42</v>
       </c>
@@ -3053,40 +3377,64 @@
       <c r="D30" s="5"/>
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
-      <c r="J30" s="5"/>
-      <c r="K30" s="5"/>
-      <c r="L30" s="5"/>
-      <c r="M30" s="7" t="e">
-        <f t="shared" ref="M30:R30" si="16">M8/L8-1</f>
+      <c r="G30" s="11" t="e">
+        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N30" s="7" t="e">
-        <f t="shared" si="16"/>
+      <c r="H30" s="11">
+        <f t="shared" si="14"/>
+        <v>-4.7573739295908579E-3</v>
+      </c>
+      <c r="I30" s="11" t="e">
+        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O30" s="7" t="e">
-        <f t="shared" si="16"/>
+      <c r="J30" s="11" t="e">
+        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P30" s="7" t="e">
-        <f t="shared" si="16"/>
+      <c r="K30" s="11">
+        <f t="shared" si="18"/>
+        <v>0.123748318636975</v>
+      </c>
+      <c r="L30" s="11">
+        <f t="shared" si="15"/>
+        <v>-1</v>
+      </c>
+      <c r="M30" s="11" t="e">
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q30" s="7">
-        <f t="shared" si="16"/>
+      <c r="N30" s="11" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O30" s="5"/>
+      <c r="P30" s="5"/>
+      <c r="Q30" s="7" t="e">
+        <f t="shared" ref="Q30:U30" si="19">Q8/P8-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R30" s="7" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S30" s="7" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T30" s="7" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U30" s="7">
+        <f t="shared" si="19"/>
         <v>0.52644944076694844</v>
       </c>
-      <c r="R30" s="7">
-        <f>R8/Q8-1</f>
+      <c r="V30" s="7">
+        <f>V8/U8-1</f>
         <v>-5.6075814501288512E-5</v>
       </c>
-      <c r="S30" s="5"/>
-      <c r="T30" s="5"/>
-      <c r="U30" s="5"/>
-      <c r="V30" s="5"/>
       <c r="W30" s="5"/>
       <c r="X30" s="5"/>
       <c r="Y30" s="5"/>
@@ -3119,52 +3467,92 @@
       <c r="AZ30" s="5"/>
       <c r="BA30" s="5"/>
       <c r="BB30" s="5"/>
-    </row>
-    <row r="31" spans="2:54" x14ac:dyDescent="0.25">
+      <c r="BC30" s="5"/>
+      <c r="BD30" s="5"/>
+      <c r="BE30" s="5"/>
+      <c r="BF30" s="5"/>
+    </row>
+    <row r="31" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>43</v>
       </c>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="5"/>
-      <c r="J31" s="5"/>
-      <c r="K31" s="5"/>
+      <c r="C31" s="7" t="e">
+        <f t="shared" ref="C31:K31" si="20">+C10/C8</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D31" s="7">
+        <f t="shared" si="20"/>
+        <v>0.49630388640854861</v>
+      </c>
+      <c r="E31" s="7" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F31" s="7" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G31" s="7">
+        <f t="shared" si="20"/>
+        <v>0.57622179046480348</v>
+      </c>
+      <c r="H31" s="7">
+        <f t="shared" si="20"/>
+        <v>0.55883218120311806</v>
+      </c>
+      <c r="I31" s="7" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J31" s="7" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K31" s="7">
+        <f>+K10/K8</f>
+        <v>0.62840803298310943</v>
+      </c>
       <c r="L31" s="7" t="e">
-        <f t="shared" ref="L31:Q31" si="17">L10/L8</f>
+        <f t="shared" ref="L31:N31" si="21">+L10/L8</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M31" s="7" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N31" s="7" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O31" s="7" t="e">
-        <f t="shared" si="17"/>
+      <c r="O31" s="5"/>
+      <c r="P31" s="7" t="e">
+        <f t="shared" ref="P31:V31" si="22">+P10/P8</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="P31" s="7">
-        <f t="shared" si="17"/>
+      <c r="Q31" s="7" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R31" s="7" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S31" s="7" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T31" s="7">
+        <f t="shared" si="22"/>
         <v>0.56191508787947952</v>
       </c>
-      <c r="Q31" s="7">
-        <f t="shared" si="17"/>
+      <c r="U31" s="7">
+        <f t="shared" si="22"/>
         <v>0.4271668629320175</v>
       </c>
-      <c r="R31" s="7">
-        <f>R10/R8</f>
+      <c r="V31" s="7">
+        <f t="shared" si="22"/>
         <v>0.41905936892477941</v>
       </c>
-      <c r="S31" s="5"/>
-      <c r="T31" s="5"/>
-      <c r="U31" s="5"/>
-      <c r="V31" s="5"/>
       <c r="W31" s="5"/>
       <c r="X31" s="5"/>
       <c r="Y31" s="5"/>
@@ -3197,31 +3585,92 @@
       <c r="AZ31" s="5"/>
       <c r="BA31" s="5"/>
       <c r="BB31" s="5"/>
-    </row>
-    <row r="32" spans="2:54" x14ac:dyDescent="0.25">
+      <c r="BC31" s="5"/>
+      <c r="BD31" s="5"/>
+      <c r="BE31" s="5"/>
+      <c r="BF31" s="5"/>
+    </row>
+    <row r="32" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>95</v>
-      </c>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="5"/>
-      <c r="J32" s="5"/>
-      <c r="K32" s="5"/>
-      <c r="L32" s="7"/>
-      <c r="M32" s="7"/>
-      <c r="N32" s="7"/>
-      <c r="O32" s="7"/>
-      <c r="P32" s="7"/>
-      <c r="Q32" s="7"/>
-      <c r="R32" s="7"/>
-      <c r="S32" s="5"/>
-      <c r="T32" s="5"/>
-      <c r="U32" s="5"/>
-      <c r="V32" s="5"/>
+        <v>94</v>
+      </c>
+      <c r="C32" s="7" t="e">
+        <f t="shared" ref="C32:K32" si="23">+C16/C8</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D32" s="7">
+        <f t="shared" si="23"/>
+        <v>-9.4781526751079648E-2</v>
+      </c>
+      <c r="E32" s="7" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F32" s="7" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G32" s="7">
+        <f t="shared" si="23"/>
+        <v>-0.1381706770288447</v>
+      </c>
+      <c r="H32" s="7">
+        <f t="shared" si="23"/>
+        <v>-9.7146639211648789E-2</v>
+      </c>
+      <c r="I32" s="7" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J32" s="7" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K32" s="7">
+        <f>+K16/K8</f>
+        <v>1.4363612182471088E-2</v>
+      </c>
+      <c r="L32" s="7" t="e">
+        <f t="shared" ref="L32:N32" si="24">+L16/L8</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M32" s="7" t="e">
+        <f t="shared" si="24"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N32" s="7" t="e">
+        <f t="shared" si="24"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O32" s="5"/>
+      <c r="P32" s="7" t="e">
+        <f t="shared" ref="P32:V32" si="25">+P16/P8</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q32" s="7" t="e">
+        <f t="shared" si="25"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R32" s="7" t="e">
+        <f t="shared" si="25"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S32" s="7" t="e">
+        <f t="shared" si="25"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T32" s="7">
+        <f t="shared" si="25"/>
+        <v>0.13512896598950003</v>
+      </c>
+      <c r="U32" s="7">
+        <f t="shared" si="25"/>
+        <v>-0.21779846352268253</v>
+      </c>
+      <c r="V32" s="7">
+        <f t="shared" si="25"/>
+        <v>-0.67119036937341092</v>
+      </c>
       <c r="W32" s="5"/>
       <c r="X32" s="5"/>
       <c r="Y32" s="5"/>
@@ -3254,31 +3703,92 @@
       <c r="AZ32" s="5"/>
       <c r="BA32" s="5"/>
       <c r="BB32" s="5"/>
-    </row>
-    <row r="33" spans="2:54" x14ac:dyDescent="0.25">
+      <c r="BC32" s="5"/>
+      <c r="BD32" s="5"/>
+      <c r="BE32" s="5"/>
+      <c r="BF32" s="5"/>
+    </row>
+    <row r="33" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>96</v>
-      </c>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="5"/>
-      <c r="J33" s="5"/>
-      <c r="K33" s="5"/>
-      <c r="L33" s="7"/>
-      <c r="M33" s="7"/>
-      <c r="N33" s="7"/>
-      <c r="O33" s="7"/>
-      <c r="P33" s="7"/>
-      <c r="Q33" s="7"/>
-      <c r="R33" s="7"/>
-      <c r="S33" s="5"/>
-      <c r="T33" s="5"/>
-      <c r="U33" s="5"/>
-      <c r="V33" s="5"/>
+        <v>95</v>
+      </c>
+      <c r="C33" s="7" t="e">
+        <f t="shared" ref="C33:K33" si="26">+C19/C18</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D33" s="7">
+        <f t="shared" si="26"/>
+        <v>0.39855548260013102</v>
+      </c>
+      <c r="E33" s="7" t="e">
+        <f t="shared" si="26"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F33" s="7" t="e">
+        <f t="shared" si="26"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G33" s="7">
+        <f t="shared" si="26"/>
+        <v>-0.23468426013195098</v>
+      </c>
+      <c r="H33" s="7">
+        <f t="shared" si="26"/>
+        <v>0.18116415958142573</v>
+      </c>
+      <c r="I33" s="7" t="e">
+        <f t="shared" si="26"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J33" s="7" t="e">
+        <f t="shared" si="26"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K33" s="7">
+        <f>+K19/K18</f>
+        <v>0.13768115942029008</v>
+      </c>
+      <c r="L33" s="7" t="e">
+        <f t="shared" ref="L33:N33" si="27">+L19/L18</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M33" s="7" t="e">
+        <f t="shared" si="27"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N33" s="7" t="e">
+        <f t="shared" si="27"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O33" s="5"/>
+      <c r="P33" s="7" t="e">
+        <f t="shared" ref="P33:V33" si="28">+P19/P18</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q33" s="7" t="e">
+        <f t="shared" si="28"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R33" s="7" t="e">
+        <f t="shared" si="28"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S33" s="7" t="e">
+        <f t="shared" si="28"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T33" s="7">
+        <f t="shared" si="28"/>
+        <v>0.10184787279759354</v>
+      </c>
+      <c r="U33" s="7">
+        <f t="shared" si="28"/>
+        <v>0.15947985950227941</v>
+      </c>
+      <c r="V33" s="7">
+        <f t="shared" si="28"/>
+        <v>-1.118072809765583E-2</v>
+      </c>
       <c r="W33" s="5"/>
       <c r="X33" s="5"/>
       <c r="Y33" s="5"/>
@@ -3311,8 +3821,12 @@
       <c r="AZ33" s="5"/>
       <c r="BA33" s="5"/>
       <c r="BB33" s="5"/>
-    </row>
-    <row r="34" spans="2:54" x14ac:dyDescent="0.25">
+      <c r="BC33" s="5"/>
+      <c r="BD33" s="5"/>
+      <c r="BE33" s="5"/>
+      <c r="BF33" s="5"/>
+    </row>
+    <row r="34" spans="2:58" x14ac:dyDescent="0.25">
       <c r="C34" s="5"/>
       <c r="D34" s="5"/>
       <c r="E34" s="5"/>
@@ -3365,8 +3879,12 @@
       <c r="AZ34" s="5"/>
       <c r="BA34" s="5"/>
       <c r="BB34" s="5"/>
-    </row>
-    <row r="35" spans="2:54" x14ac:dyDescent="0.25">
+      <c r="BC34" s="5"/>
+      <c r="BD34" s="5"/>
+      <c r="BE34" s="5"/>
+      <c r="BF34" s="5"/>
+    </row>
+    <row r="35" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>44</v>
       </c>
@@ -3385,13 +3903,13 @@
       <c r="O35" s="5"/>
       <c r="P35" s="5"/>
       <c r="Q35" s="5"/>
-      <c r="R35" s="5">
-        <v>754</v>
-      </c>
+      <c r="R35" s="5"/>
       <c r="S35" s="5"/>
       <c r="T35" s="5"/>
       <c r="U35" s="5"/>
-      <c r="V35" s="5"/>
+      <c r="V35" s="5">
+        <v>754</v>
+      </c>
       <c r="W35" s="5"/>
       <c r="X35" s="5"/>
       <c r="Y35" s="5"/>
@@ -3424,8 +3942,12 @@
       <c r="AZ35" s="5"/>
       <c r="BA35" s="5"/>
       <c r="BB35" s="5"/>
-    </row>
-    <row r="36" spans="2:54" x14ac:dyDescent="0.25">
+      <c r="BC35" s="5"/>
+      <c r="BD35" s="5"/>
+      <c r="BE35" s="5"/>
+      <c r="BF35" s="5"/>
+    </row>
+    <row r="36" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>45</v>
       </c>
@@ -3444,13 +3966,13 @@
       <c r="O36" s="5"/>
       <c r="P36" s="5"/>
       <c r="Q36" s="5"/>
-      <c r="R36" s="5">
-        <v>22</v>
-      </c>
+      <c r="R36" s="5"/>
       <c r="S36" s="5"/>
       <c r="T36" s="5"/>
       <c r="U36" s="5"/>
-      <c r="V36" s="5"/>
+      <c r="V36" s="5">
+        <v>22</v>
+      </c>
       <c r="W36" s="5"/>
       <c r="X36" s="5"/>
       <c r="Y36" s="5"/>
@@ -3483,8 +4005,12 @@
       <c r="AZ36" s="5"/>
       <c r="BA36" s="5"/>
       <c r="BB36" s="5"/>
-    </row>
-    <row r="37" spans="2:54" x14ac:dyDescent="0.25">
+      <c r="BC36" s="5"/>
+      <c r="BD36" s="5"/>
+      <c r="BE36" s="5"/>
+      <c r="BF36" s="5"/>
+    </row>
+    <row r="37" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>46</v>
       </c>
@@ -3503,13 +4029,13 @@
       <c r="O37" s="5"/>
       <c r="P37" s="5"/>
       <c r="Q37" s="5"/>
-      <c r="R37" s="5">
-        <v>252.1</v>
-      </c>
+      <c r="R37" s="5"/>
       <c r="S37" s="5"/>
       <c r="T37" s="5"/>
       <c r="U37" s="5"/>
-      <c r="V37" s="5"/>
+      <c r="V37" s="5">
+        <v>252.1</v>
+      </c>
       <c r="W37" s="5"/>
       <c r="X37" s="5"/>
       <c r="Y37" s="5"/>
@@ -3542,8 +4068,12 @@
       <c r="AZ37" s="5"/>
       <c r="BA37" s="5"/>
       <c r="BB37" s="5"/>
-    </row>
-    <row r="38" spans="2:54" x14ac:dyDescent="0.25">
+      <c r="BC37" s="5"/>
+      <c r="BD37" s="5"/>
+      <c r="BE37" s="5"/>
+      <c r="BF37" s="5"/>
+    </row>
+    <row r="38" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>47</v>
       </c>
@@ -3562,13 +4092,13 @@
       <c r="O38" s="5"/>
       <c r="P38" s="5"/>
       <c r="Q38" s="5"/>
-      <c r="R38" s="5">
-        <v>679.7</v>
-      </c>
+      <c r="R38" s="5"/>
       <c r="S38" s="5"/>
       <c r="T38" s="5"/>
       <c r="U38" s="5"/>
-      <c r="V38" s="5"/>
+      <c r="V38" s="5">
+        <v>679.7</v>
+      </c>
       <c r="W38" s="5"/>
       <c r="X38" s="5"/>
       <c r="Y38" s="5"/>
@@ -3601,8 +4131,12 @@
       <c r="AZ38" s="5"/>
       <c r="BA38" s="5"/>
       <c r="BB38" s="5"/>
-    </row>
-    <row r="39" spans="2:54" x14ac:dyDescent="0.25">
+      <c r="BC38" s="5"/>
+      <c r="BD38" s="5"/>
+      <c r="BE38" s="5"/>
+      <c r="BF38" s="5"/>
+    </row>
+    <row r="39" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>53</v>
       </c>
@@ -3621,13 +4155,13 @@
       <c r="O39" s="5"/>
       <c r="P39" s="5"/>
       <c r="Q39" s="5"/>
-      <c r="R39" s="5">
-        <v>88.3</v>
-      </c>
+      <c r="R39" s="5"/>
       <c r="S39" s="5"/>
       <c r="T39" s="5"/>
       <c r="U39" s="5"/>
-      <c r="V39" s="5"/>
+      <c r="V39" s="5">
+        <v>88.3</v>
+      </c>
       <c r="W39" s="5"/>
       <c r="X39" s="5"/>
       <c r="Y39" s="5"/>
@@ -3660,8 +4194,12 @@
       <c r="AZ39" s="5"/>
       <c r="BA39" s="5"/>
       <c r="BB39" s="5"/>
-    </row>
-    <row r="40" spans="2:54" x14ac:dyDescent="0.25">
+      <c r="BC39" s="5"/>
+      <c r="BD39" s="5"/>
+      <c r="BE39" s="5"/>
+      <c r="BF39" s="5"/>
+    </row>
+    <row r="40" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>48</v>
       </c>
@@ -3680,13 +4218,13 @@
       <c r="O40" s="5"/>
       <c r="P40" s="5"/>
       <c r="Q40" s="5"/>
-      <c r="R40" s="5">
-        <v>85</v>
-      </c>
+      <c r="R40" s="5"/>
       <c r="S40" s="5"/>
       <c r="T40" s="5"/>
       <c r="U40" s="5"/>
-      <c r="V40" s="5"/>
+      <c r="V40" s="5">
+        <v>85</v>
+      </c>
       <c r="W40" s="5"/>
       <c r="X40" s="5"/>
       <c r="Y40" s="5"/>
@@ -3719,8 +4257,12 @@
       <c r="AZ40" s="5"/>
       <c r="BA40" s="5"/>
       <c r="BB40" s="5"/>
-    </row>
-    <row r="41" spans="2:54" x14ac:dyDescent="0.25">
+      <c r="BC40" s="5"/>
+      <c r="BD40" s="5"/>
+      <c r="BE40" s="5"/>
+      <c r="BF40" s="5"/>
+    </row>
+    <row r="41" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>49</v>
       </c>
@@ -3739,13 +4281,13 @@
       <c r="O41" s="5"/>
       <c r="P41" s="5"/>
       <c r="Q41" s="5"/>
-      <c r="R41" s="5">
-        <v>378.6</v>
-      </c>
+      <c r="R41" s="5"/>
       <c r="S41" s="5"/>
       <c r="T41" s="5"/>
       <c r="U41" s="5"/>
-      <c r="V41" s="5"/>
+      <c r="V41" s="5">
+        <v>378.6</v>
+      </c>
       <c r="W41" s="5"/>
       <c r="X41" s="5"/>
       <c r="Y41" s="5"/>
@@ -3778,8 +4320,12 @@
       <c r="AZ41" s="5"/>
       <c r="BA41" s="5"/>
       <c r="BB41" s="5"/>
-    </row>
-    <row r="42" spans="2:54" x14ac:dyDescent="0.25">
+      <c r="BC41" s="5"/>
+      <c r="BD41" s="5"/>
+      <c r="BE41" s="5"/>
+      <c r="BF41" s="5"/>
+    </row>
+    <row r="42" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B42" s="1" t="s">
         <v>50</v>
       </c>
@@ -3798,14 +4344,14 @@
       <c r="O42" s="5"/>
       <c r="P42" s="5"/>
       <c r="Q42" s="5"/>
-      <c r="R42" s="6">
-        <f>SUM(R35:R41)</f>
-        <v>2259.6999999999998</v>
-      </c>
+      <c r="R42" s="5"/>
       <c r="S42" s="5"/>
       <c r="T42" s="5"/>
       <c r="U42" s="5"/>
-      <c r="V42" s="5"/>
+      <c r="V42" s="6">
+        <f>SUM(V35:V41)</f>
+        <v>2259.6999999999998</v>
+      </c>
       <c r="W42" s="5"/>
       <c r="X42" s="5"/>
       <c r="Y42" s="5"/>
@@ -3838,8 +4384,12 @@
       <c r="AZ42" s="5"/>
       <c r="BA42" s="5"/>
       <c r="BB42" s="5"/>
-    </row>
-    <row r="43" spans="2:54" x14ac:dyDescent="0.25">
+      <c r="BC42" s="5"/>
+      <c r="BD42" s="5"/>
+      <c r="BE42" s="5"/>
+      <c r="BF42" s="5"/>
+    </row>
+    <row r="43" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>51</v>
       </c>
@@ -3858,13 +4408,13 @@
       <c r="O43" s="5"/>
       <c r="P43" s="5"/>
       <c r="Q43" s="5"/>
-      <c r="R43" s="5">
-        <v>411.1</v>
-      </c>
+      <c r="R43" s="5"/>
       <c r="S43" s="5"/>
       <c r="T43" s="5"/>
       <c r="U43" s="5"/>
-      <c r="V43" s="5"/>
+      <c r="V43" s="5">
+        <v>411.1</v>
+      </c>
       <c r="W43" s="5"/>
       <c r="X43" s="5"/>
       <c r="Y43" s="5"/>
@@ -3897,8 +4447,12 @@
       <c r="AZ43" s="5"/>
       <c r="BA43" s="5"/>
       <c r="BB43" s="5"/>
-    </row>
-    <row r="44" spans="2:54" x14ac:dyDescent="0.25">
+      <c r="BC43" s="5"/>
+      <c r="BD43" s="5"/>
+      <c r="BE43" s="5"/>
+      <c r="BF43" s="5"/>
+    </row>
+    <row r="44" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>52</v>
       </c>
@@ -3917,13 +4471,13 @@
       <c r="O44" s="5"/>
       <c r="P44" s="5"/>
       <c r="Q44" s="5"/>
-      <c r="R44" s="5">
-        <v>325.7</v>
-      </c>
+      <c r="R44" s="5"/>
       <c r="S44" s="5"/>
       <c r="T44" s="5"/>
       <c r="U44" s="5"/>
-      <c r="V44" s="5"/>
+      <c r="V44" s="5">
+        <v>325.7</v>
+      </c>
       <c r="W44" s="5"/>
       <c r="X44" s="5"/>
       <c r="Y44" s="5"/>
@@ -3956,8 +4510,12 @@
       <c r="AZ44" s="5"/>
       <c r="BA44" s="5"/>
       <c r="BB44" s="5"/>
-    </row>
-    <row r="45" spans="2:54" x14ac:dyDescent="0.25">
+      <c r="BC44" s="5"/>
+      <c r="BD44" s="5"/>
+      <c r="BE44" s="5"/>
+      <c r="BF44" s="5"/>
+    </row>
+    <row r="45" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>53</v>
       </c>
@@ -3976,13 +4534,13 @@
       <c r="O45" s="5"/>
       <c r="P45" s="5"/>
       <c r="Q45" s="5"/>
-      <c r="R45" s="5">
-        <v>1446.5</v>
-      </c>
+      <c r="R45" s="5"/>
       <c r="S45" s="5"/>
       <c r="T45" s="5"/>
       <c r="U45" s="5"/>
-      <c r="V45" s="5"/>
+      <c r="V45" s="5">
+        <v>1446.5</v>
+      </c>
       <c r="W45" s="5"/>
       <c r="X45" s="5"/>
       <c r="Y45" s="5"/>
@@ -4015,8 +4573,12 @@
       <c r="AZ45" s="5"/>
       <c r="BA45" s="5"/>
       <c r="BB45" s="5"/>
-    </row>
-    <row r="46" spans="2:54" x14ac:dyDescent="0.25">
+      <c r="BC45" s="5"/>
+      <c r="BD45" s="5"/>
+      <c r="BE45" s="5"/>
+      <c r="BF45" s="5"/>
+    </row>
+    <row r="46" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>54</v>
       </c>
@@ -4035,13 +4597,13 @@
       <c r="O46" s="5"/>
       <c r="P46" s="5"/>
       <c r="Q46" s="5"/>
-      <c r="R46" s="5">
-        <v>4426.3999999999996</v>
-      </c>
+      <c r="R46" s="5"/>
       <c r="S46" s="5"/>
       <c r="T46" s="5"/>
       <c r="U46" s="5"/>
-      <c r="V46" s="5"/>
+      <c r="V46" s="5">
+        <v>4426.3999999999996</v>
+      </c>
       <c r="W46" s="5"/>
       <c r="X46" s="5"/>
       <c r="Y46" s="5"/>
@@ -4074,8 +4636,12 @@
       <c r="AZ46" s="5"/>
       <c r="BA46" s="5"/>
       <c r="BB46" s="5"/>
-    </row>
-    <row r="47" spans="2:54" x14ac:dyDescent="0.25">
+      <c r="BC46" s="5"/>
+      <c r="BD46" s="5"/>
+      <c r="BE46" s="5"/>
+      <c r="BF46" s="5"/>
+    </row>
+    <row r="47" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>55</v>
       </c>
@@ -4094,13 +4660,13 @@
       <c r="O47" s="5"/>
       <c r="P47" s="5"/>
       <c r="Q47" s="5"/>
-      <c r="R47" s="5">
-        <v>3060.6</v>
-      </c>
+      <c r="R47" s="5"/>
       <c r="S47" s="5"/>
       <c r="T47" s="5"/>
       <c r="U47" s="5"/>
-      <c r="V47" s="5"/>
+      <c r="V47" s="5">
+        <v>3060.6</v>
+      </c>
       <c r="W47" s="5"/>
       <c r="X47" s="5"/>
       <c r="Y47" s="5"/>
@@ -4133,8 +4699,12 @@
       <c r="AZ47" s="5"/>
       <c r="BA47" s="5"/>
       <c r="BB47" s="5"/>
-    </row>
-    <row r="48" spans="2:54" x14ac:dyDescent="0.25">
+      <c r="BC47" s="5"/>
+      <c r="BD47" s="5"/>
+      <c r="BE47" s="5"/>
+      <c r="BF47" s="5"/>
+    </row>
+    <row r="48" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>56</v>
       </c>
@@ -4153,13 +4723,13 @@
       <c r="O48" s="5"/>
       <c r="P48" s="5"/>
       <c r="Q48" s="5"/>
-      <c r="R48" s="5">
-        <v>1.9</v>
-      </c>
+      <c r="R48" s="5"/>
       <c r="S48" s="5"/>
       <c r="T48" s="5"/>
       <c r="U48" s="5"/>
-      <c r="V48" s="5"/>
+      <c r="V48" s="5">
+        <v>1.9</v>
+      </c>
       <c r="W48" s="5"/>
       <c r="X48" s="5"/>
       <c r="Y48" s="5"/>
@@ -4192,8 +4762,12 @@
       <c r="AZ48" s="5"/>
       <c r="BA48" s="5"/>
       <c r="BB48" s="5"/>
-    </row>
-    <row r="49" spans="2:54" x14ac:dyDescent="0.25">
+      <c r="BC48" s="5"/>
+      <c r="BD48" s="5"/>
+      <c r="BE48" s="5"/>
+      <c r="BF48" s="5"/>
+    </row>
+    <row r="49" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>46</v>
       </c>
@@ -4212,13 +4786,13 @@
       <c r="O49" s="5"/>
       <c r="P49" s="5"/>
       <c r="Q49" s="5"/>
-      <c r="R49" s="5">
-        <v>95.9</v>
-      </c>
+      <c r="R49" s="5"/>
       <c r="S49" s="5"/>
       <c r="T49" s="5"/>
       <c r="U49" s="5"/>
-      <c r="V49" s="5"/>
+      <c r="V49" s="5">
+        <v>95.9</v>
+      </c>
       <c r="W49" s="5"/>
       <c r="X49" s="5"/>
       <c r="Y49" s="5"/>
@@ -4251,8 +4825,12 @@
       <c r="AZ49" s="5"/>
       <c r="BA49" s="5"/>
       <c r="BB49" s="5"/>
-    </row>
-    <row r="50" spans="2:54" x14ac:dyDescent="0.25">
+      <c r="BC49" s="5"/>
+      <c r="BD49" s="5"/>
+      <c r="BE49" s="5"/>
+      <c r="BF49" s="5"/>
+    </row>
+    <row r="50" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>60</v>
       </c>
@@ -4271,13 +4849,13 @@
       <c r="O50" s="5"/>
       <c r="P50" s="5"/>
       <c r="Q50" s="5"/>
-      <c r="R50" s="5">
-        <v>189.1</v>
-      </c>
+      <c r="R50" s="5"/>
       <c r="S50" s="5"/>
       <c r="T50" s="5"/>
       <c r="U50" s="5"/>
-      <c r="V50" s="5"/>
+      <c r="V50" s="5">
+        <v>189.1</v>
+      </c>
       <c r="W50" s="5"/>
       <c r="X50" s="5"/>
       <c r="Y50" s="5"/>
@@ -4310,8 +4888,12 @@
       <c r="AZ50" s="5"/>
       <c r="BA50" s="5"/>
       <c r="BB50" s="5"/>
-    </row>
-    <row r="51" spans="2:54" x14ac:dyDescent="0.25">
+      <c r="BC50" s="5"/>
+      <c r="BD50" s="5"/>
+      <c r="BE50" s="5"/>
+      <c r="BF50" s="5"/>
+    </row>
+    <row r="51" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B51" s="1" t="s">
         <v>57</v>
       </c>
@@ -4330,14 +4912,14 @@
       <c r="O51" s="5"/>
       <c r="P51" s="5"/>
       <c r="Q51" s="5"/>
-      <c r="R51" s="6">
-        <f>SUM(R43:R50)</f>
-        <v>9957.1999999999989</v>
-      </c>
+      <c r="R51" s="5"/>
       <c r="S51" s="5"/>
       <c r="T51" s="5"/>
       <c r="U51" s="5"/>
-      <c r="V51" s="5"/>
+      <c r="V51" s="6">
+        <f>SUM(V43:V50)</f>
+        <v>9957.1999999999989</v>
+      </c>
       <c r="W51" s="5"/>
       <c r="X51" s="5"/>
       <c r="Y51" s="5"/>
@@ -4370,8 +4952,12 @@
       <c r="AZ51" s="5"/>
       <c r="BA51" s="5"/>
       <c r="BB51" s="5"/>
-    </row>
-    <row r="52" spans="2:54" x14ac:dyDescent="0.25">
+      <c r="BC51" s="5"/>
+      <c r="BD51" s="5"/>
+      <c r="BE51" s="5"/>
+      <c r="BF51" s="5"/>
+    </row>
+    <row r="52" spans="2:58" x14ac:dyDescent="0.25">
       <c r="C52" s="5"/>
       <c r="D52" s="5"/>
       <c r="E52" s="5"/>
@@ -4424,8 +5010,12 @@
       <c r="AZ52" s="5"/>
       <c r="BA52" s="5"/>
       <c r="BB52" s="5"/>
-    </row>
-    <row r="53" spans="2:54" x14ac:dyDescent="0.25">
+      <c r="BC52" s="5"/>
+      <c r="BD52" s="5"/>
+      <c r="BE52" s="5"/>
+      <c r="BF52" s="5"/>
+    </row>
+    <row r="53" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B53" s="1" t="s">
         <v>58</v>
       </c>
@@ -4444,14 +5034,14 @@
       <c r="O53" s="5"/>
       <c r="P53" s="5"/>
       <c r="Q53" s="5"/>
-      <c r="R53" s="6">
-        <f>R51+R42</f>
-        <v>12216.899999999998</v>
-      </c>
+      <c r="R53" s="5"/>
       <c r="S53" s="5"/>
       <c r="T53" s="5"/>
       <c r="U53" s="5"/>
-      <c r="V53" s="5"/>
+      <c r="V53" s="6">
+        <f>V51+V42</f>
+        <v>12216.899999999998</v>
+      </c>
       <c r="W53" s="5"/>
       <c r="X53" s="5"/>
       <c r="Y53" s="5"/>
@@ -4484,8 +5074,12 @@
       <c r="AZ53" s="5"/>
       <c r="BA53" s="5"/>
       <c r="BB53" s="5"/>
-    </row>
-    <row r="54" spans="2:54" x14ac:dyDescent="0.25">
+      <c r="BC53" s="5"/>
+      <c r="BD53" s="5"/>
+      <c r="BE53" s="5"/>
+      <c r="BF53" s="5"/>
+    </row>
+    <row r="54" spans="2:58" x14ac:dyDescent="0.25">
       <c r="C54" s="5"/>
       <c r="D54" s="5"/>
       <c r="E54" s="5"/>
@@ -4538,8 +5132,12 @@
       <c r="AZ54" s="5"/>
       <c r="BA54" s="5"/>
       <c r="BB54" s="5"/>
-    </row>
-    <row r="55" spans="2:54" x14ac:dyDescent="0.25">
+      <c r="BC54" s="5"/>
+      <c r="BD54" s="5"/>
+      <c r="BE54" s="5"/>
+      <c r="BF54" s="5"/>
+    </row>
+    <row r="55" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
         <v>61</v>
       </c>
@@ -4558,13 +5156,13 @@
       <c r="O55" s="5"/>
       <c r="P55" s="5"/>
       <c r="Q55" s="5"/>
-      <c r="R55" s="5">
-        <v>195.9</v>
-      </c>
+      <c r="R55" s="5"/>
       <c r="S55" s="5"/>
       <c r="T55" s="5"/>
       <c r="U55" s="5"/>
-      <c r="V55" s="5"/>
+      <c r="V55" s="5">
+        <v>195.9</v>
+      </c>
       <c r="W55" s="5"/>
       <c r="X55" s="5"/>
       <c r="Y55" s="5"/>
@@ -4597,8 +5195,12 @@
       <c r="AZ55" s="5"/>
       <c r="BA55" s="5"/>
       <c r="BB55" s="5"/>
-    </row>
-    <row r="56" spans="2:54" x14ac:dyDescent="0.25">
+      <c r="BC55" s="5"/>
+      <c r="BD55" s="5"/>
+      <c r="BE55" s="5"/>
+      <c r="BF55" s="5"/>
+    </row>
+    <row r="56" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
         <v>62</v>
       </c>
@@ -4617,13 +5219,13 @@
       <c r="O56" s="5"/>
       <c r="P56" s="5"/>
       <c r="Q56" s="5"/>
-      <c r="R56" s="5">
-        <v>1062.5999999999999</v>
-      </c>
+      <c r="R56" s="5"/>
       <c r="S56" s="5"/>
       <c r="T56" s="5"/>
       <c r="U56" s="5"/>
-      <c r="V56" s="5"/>
+      <c r="V56" s="5">
+        <v>1062.5999999999999</v>
+      </c>
       <c r="W56" s="5"/>
       <c r="X56" s="5"/>
       <c r="Y56" s="5"/>
@@ -4656,8 +5258,12 @@
       <c r="AZ56" s="5"/>
       <c r="BA56" s="5"/>
       <c r="BB56" s="5"/>
-    </row>
-    <row r="57" spans="2:54" x14ac:dyDescent="0.25">
+      <c r="BC56" s="5"/>
+      <c r="BD56" s="5"/>
+      <c r="BE56" s="5"/>
+      <c r="BF56" s="5"/>
+    </row>
+    <row r="57" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
         <v>63</v>
       </c>
@@ -4676,13 +5282,13 @@
       <c r="O57" s="5"/>
       <c r="P57" s="5"/>
       <c r="Q57" s="5"/>
-      <c r="R57" s="5">
-        <v>1059.5</v>
-      </c>
+      <c r="R57" s="5"/>
       <c r="S57" s="5"/>
       <c r="T57" s="5"/>
       <c r="U57" s="5"/>
-      <c r="V57" s="5"/>
+      <c r="V57" s="5">
+        <v>1059.5</v>
+      </c>
       <c r="W57" s="5"/>
       <c r="X57" s="5"/>
       <c r="Y57" s="5"/>
@@ -4715,8 +5321,12 @@
       <c r="AZ57" s="5"/>
       <c r="BA57" s="5"/>
       <c r="BB57" s="5"/>
-    </row>
-    <row r="58" spans="2:54" x14ac:dyDescent="0.25">
+      <c r="BC57" s="5"/>
+      <c r="BD57" s="5"/>
+      <c r="BE57" s="5"/>
+      <c r="BF57" s="5"/>
+    </row>
+    <row r="58" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
         <v>64</v>
       </c>
@@ -4735,13 +5345,13 @@
       <c r="O58" s="5"/>
       <c r="P58" s="5"/>
       <c r="Q58" s="5"/>
-      <c r="R58" s="5">
-        <v>63.8</v>
-      </c>
+      <c r="R58" s="5"/>
       <c r="S58" s="5"/>
       <c r="T58" s="5"/>
       <c r="U58" s="5"/>
-      <c r="V58" s="5"/>
+      <c r="V58" s="5">
+        <v>63.8</v>
+      </c>
       <c r="W58" s="5"/>
       <c r="X58" s="5"/>
       <c r="Y58" s="5"/>
@@ -4774,8 +5384,12 @@
       <c r="AZ58" s="5"/>
       <c r="BA58" s="5"/>
       <c r="BB58" s="5"/>
-    </row>
-    <row r="59" spans="2:54" x14ac:dyDescent="0.25">
+      <c r="BC58" s="5"/>
+      <c r="BD58" s="5"/>
+      <c r="BE58" s="5"/>
+      <c r="BF58" s="5"/>
+    </row>
+    <row r="59" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
         <v>65</v>
       </c>
@@ -4794,13 +5408,13 @@
       <c r="O59" s="5"/>
       <c r="P59" s="5"/>
       <c r="Q59" s="5"/>
-      <c r="R59" s="5">
-        <v>24.6</v>
-      </c>
+      <c r="R59" s="5"/>
       <c r="S59" s="5"/>
       <c r="T59" s="5"/>
       <c r="U59" s="5"/>
-      <c r="V59" s="5"/>
+      <c r="V59" s="5">
+        <v>24.6</v>
+      </c>
       <c r="W59" s="5"/>
       <c r="X59" s="5"/>
       <c r="Y59" s="5"/>
@@ -4833,8 +5447,12 @@
       <c r="AZ59" s="5"/>
       <c r="BA59" s="5"/>
       <c r="BB59" s="5"/>
-    </row>
-    <row r="60" spans="2:54" x14ac:dyDescent="0.25">
+      <c r="BC59" s="5"/>
+      <c r="BD59" s="5"/>
+      <c r="BE59" s="5"/>
+      <c r="BF59" s="5"/>
+    </row>
+    <row r="60" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B60" s="1" t="s">
         <v>59</v>
       </c>
@@ -4853,14 +5471,14 @@
       <c r="O60" s="5"/>
       <c r="P60" s="5"/>
       <c r="Q60" s="5"/>
-      <c r="R60" s="6">
-        <f>SUM(R55:R59)</f>
-        <v>2406.4</v>
-      </c>
+      <c r="R60" s="5"/>
       <c r="S60" s="5"/>
       <c r="T60" s="5"/>
       <c r="U60" s="5"/>
-      <c r="V60" s="5"/>
+      <c r="V60" s="6">
+        <f>SUM(V55:V59)</f>
+        <v>2406.4</v>
+      </c>
       <c r="W60" s="5"/>
       <c r="X60" s="5"/>
       <c r="Y60" s="5"/>
@@ -4893,8 +5511,12 @@
       <c r="AZ60" s="5"/>
       <c r="BA60" s="5"/>
       <c r="BB60" s="5"/>
-    </row>
-    <row r="61" spans="2:54" x14ac:dyDescent="0.25">
+      <c r="BC60" s="5"/>
+      <c r="BD60" s="5"/>
+      <c r="BE60" s="5"/>
+      <c r="BF60" s="5"/>
+    </row>
+    <row r="61" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
         <v>5</v>
       </c>
@@ -4913,13 +5535,13 @@
       <c r="O61" s="5"/>
       <c r="P61" s="5"/>
       <c r="Q61" s="5"/>
-      <c r="R61" s="5">
-        <v>3058.3</v>
-      </c>
+      <c r="R61" s="5"/>
       <c r="S61" s="5"/>
       <c r="T61" s="5"/>
       <c r="U61" s="5"/>
-      <c r="V61" s="5"/>
+      <c r="V61" s="5">
+        <v>3058.3</v>
+      </c>
       <c r="W61" s="5"/>
       <c r="X61" s="5"/>
       <c r="Y61" s="5"/>
@@ -4952,8 +5574,12 @@
       <c r="AZ61" s="5"/>
       <c r="BA61" s="5"/>
       <c r="BB61" s="5"/>
-    </row>
-    <row r="62" spans="2:54" x14ac:dyDescent="0.25">
+      <c r="BC61" s="5"/>
+      <c r="BD61" s="5"/>
+      <c r="BE61" s="5"/>
+      <c r="BF61" s="5"/>
+    </row>
+    <row r="62" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
         <v>63</v>
       </c>
@@ -4972,13 +5598,13 @@
       <c r="O62" s="5"/>
       <c r="P62" s="5"/>
       <c r="Q62" s="5"/>
-      <c r="R62" s="5">
-        <v>42.9</v>
-      </c>
+      <c r="R62" s="5"/>
       <c r="S62" s="5"/>
       <c r="T62" s="5"/>
       <c r="U62" s="5"/>
-      <c r="V62" s="5"/>
+      <c r="V62" s="5">
+        <v>42.9</v>
+      </c>
       <c r="W62" s="5"/>
       <c r="X62" s="5"/>
       <c r="Y62" s="5"/>
@@ -5011,8 +5637,12 @@
       <c r="AZ62" s="5"/>
       <c r="BA62" s="5"/>
       <c r="BB62" s="5"/>
-    </row>
-    <row r="63" spans="2:54" x14ac:dyDescent="0.25">
+      <c r="BC62" s="5"/>
+      <c r="BD62" s="5"/>
+      <c r="BE62" s="5"/>
+      <c r="BF62" s="5"/>
+    </row>
+    <row r="63" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
         <v>64</v>
       </c>
@@ -5031,13 +5661,13 @@
       <c r="O63" s="5"/>
       <c r="P63" s="5"/>
       <c r="Q63" s="5"/>
-      <c r="R63" s="5">
-        <v>387.3</v>
-      </c>
+      <c r="R63" s="5"/>
       <c r="S63" s="5"/>
       <c r="T63" s="5"/>
       <c r="U63" s="5"/>
-      <c r="V63" s="5"/>
+      <c r="V63" s="5">
+        <v>387.3</v>
+      </c>
       <c r="W63" s="5"/>
       <c r="X63" s="5"/>
       <c r="Y63" s="5"/>
@@ -5070,8 +5700,12 @@
       <c r="AZ63" s="5"/>
       <c r="BA63" s="5"/>
       <c r="BB63" s="5"/>
-    </row>
-    <row r="64" spans="2:54" x14ac:dyDescent="0.25">
+      <c r="BC63" s="5"/>
+      <c r="BD63" s="5"/>
+      <c r="BE63" s="5"/>
+      <c r="BF63" s="5"/>
+    </row>
+    <row r="64" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
         <v>66</v>
       </c>
@@ -5090,13 +5724,13 @@
       <c r="O64" s="5"/>
       <c r="P64" s="5"/>
       <c r="Q64" s="5"/>
-      <c r="R64" s="5">
-        <v>102.1</v>
-      </c>
+      <c r="R64" s="5"/>
       <c r="S64" s="5"/>
       <c r="T64" s="5"/>
       <c r="U64" s="5"/>
-      <c r="V64" s="5"/>
+      <c r="V64" s="5">
+        <v>102.1</v>
+      </c>
       <c r="W64" s="5"/>
       <c r="X64" s="5"/>
       <c r="Y64" s="5"/>
@@ -5129,8 +5763,12 @@
       <c r="AZ64" s="5"/>
       <c r="BA64" s="5"/>
       <c r="BB64" s="5"/>
-    </row>
-    <row r="65" spans="2:54" x14ac:dyDescent="0.25">
+      <c r="BC64" s="5"/>
+      <c r="BD64" s="5"/>
+      <c r="BE64" s="5"/>
+      <c r="BF64" s="5"/>
+    </row>
+    <row r="65" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
         <v>67</v>
       </c>
@@ -5149,13 +5787,13 @@
       <c r="O65" s="5"/>
       <c r="P65" s="5"/>
       <c r="Q65" s="5"/>
-      <c r="R65" s="5">
-        <v>340.9</v>
-      </c>
+      <c r="R65" s="5"/>
       <c r="S65" s="5"/>
       <c r="T65" s="5"/>
       <c r="U65" s="5"/>
-      <c r="V65" s="5"/>
+      <c r="V65" s="5">
+        <v>340.9</v>
+      </c>
       <c r="W65" s="5"/>
       <c r="X65" s="5"/>
       <c r="Y65" s="5"/>
@@ -5188,8 +5826,12 @@
       <c r="AZ65" s="5"/>
       <c r="BA65" s="5"/>
       <c r="BB65" s="5"/>
-    </row>
-    <row r="66" spans="2:54" x14ac:dyDescent="0.25">
+      <c r="BC65" s="5"/>
+      <c r="BD65" s="5"/>
+      <c r="BE65" s="5"/>
+      <c r="BF65" s="5"/>
+    </row>
+    <row r="66" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
         <v>60</v>
       </c>
@@ -5208,13 +5850,13 @@
       <c r="O66" s="5"/>
       <c r="P66" s="5"/>
       <c r="Q66" s="5"/>
-      <c r="R66" s="5">
-        <v>211.1</v>
-      </c>
+      <c r="R66" s="5"/>
       <c r="S66" s="5"/>
       <c r="T66" s="5"/>
       <c r="U66" s="5"/>
-      <c r="V66" s="5"/>
+      <c r="V66" s="5">
+        <v>211.1</v>
+      </c>
       <c r="W66" s="5"/>
       <c r="X66" s="5"/>
       <c r="Y66" s="5"/>
@@ -5247,8 +5889,12 @@
       <c r="AZ66" s="5"/>
       <c r="BA66" s="5"/>
       <c r="BB66" s="5"/>
-    </row>
-    <row r="67" spans="2:54" x14ac:dyDescent="0.25">
+      <c r="BC66" s="5"/>
+      <c r="BD66" s="5"/>
+      <c r="BE66" s="5"/>
+      <c r="BF66" s="5"/>
+    </row>
+    <row r="67" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B67" s="1" t="s">
         <v>68</v>
       </c>
@@ -5267,14 +5913,14 @@
       <c r="O67" s="5"/>
       <c r="P67" s="5"/>
       <c r="Q67" s="5"/>
-      <c r="R67" s="6">
-        <f>SUM(R61:R66)</f>
-        <v>4142.6000000000004</v>
-      </c>
+      <c r="R67" s="5"/>
       <c r="S67" s="5"/>
       <c r="T67" s="5"/>
       <c r="U67" s="5"/>
-      <c r="V67" s="5"/>
+      <c r="V67" s="6">
+        <f>SUM(V61:V66)</f>
+        <v>4142.6000000000004</v>
+      </c>
       <c r="W67" s="5"/>
       <c r="X67" s="5"/>
       <c r="Y67" s="5"/>
@@ -5307,8 +5953,12 @@
       <c r="AZ67" s="5"/>
       <c r="BA67" s="5"/>
       <c r="BB67" s="5"/>
-    </row>
-    <row r="68" spans="2:54" x14ac:dyDescent="0.25">
+      <c r="BC67" s="5"/>
+      <c r="BD67" s="5"/>
+      <c r="BE67" s="5"/>
+      <c r="BF67" s="5"/>
+    </row>
+    <row r="68" spans="2:58" x14ac:dyDescent="0.25">
       <c r="C68" s="5"/>
       <c r="D68" s="5"/>
       <c r="E68" s="5"/>
@@ -5361,8 +6011,12 @@
       <c r="AZ68" s="5"/>
       <c r="BA68" s="5"/>
       <c r="BB68" s="5"/>
-    </row>
-    <row r="69" spans="2:54" x14ac:dyDescent="0.25">
+      <c r="BC68" s="5"/>
+      <c r="BD68" s="5"/>
+      <c r="BE68" s="5"/>
+      <c r="BF68" s="5"/>
+    </row>
+    <row r="69" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B69" s="1" t="s">
         <v>69</v>
       </c>
@@ -5381,14 +6035,14 @@
       <c r="O69" s="5"/>
       <c r="P69" s="5"/>
       <c r="Q69" s="5"/>
-      <c r="R69" s="5">
-        <f>R67+R60</f>
-        <v>6549</v>
-      </c>
+      <c r="R69" s="5"/>
       <c r="S69" s="5"/>
       <c r="T69" s="5"/>
       <c r="U69" s="5"/>
-      <c r="V69" s="5"/>
+      <c r="V69" s="5">
+        <f>V67+V60</f>
+        <v>6549</v>
+      </c>
       <c r="W69" s="5"/>
       <c r="X69" s="5"/>
       <c r="Y69" s="5"/>
@@ -5421,8 +6075,12 @@
       <c r="AZ69" s="5"/>
       <c r="BA69" s="5"/>
       <c r="BB69" s="5"/>
-    </row>
-    <row r="70" spans="2:54" x14ac:dyDescent="0.25">
+      <c r="BC69" s="5"/>
+      <c r="BD69" s="5"/>
+      <c r="BE69" s="5"/>
+      <c r="BF69" s="5"/>
+    </row>
+    <row r="70" spans="2:58" x14ac:dyDescent="0.25">
       <c r="C70" s="5"/>
       <c r="D70" s="5"/>
       <c r="E70" s="5"/>
@@ -5475,8 +6133,12 @@
       <c r="AZ70" s="5"/>
       <c r="BA70" s="5"/>
       <c r="BB70" s="5"/>
-    </row>
-    <row r="71" spans="2:54" x14ac:dyDescent="0.25">
+      <c r="BC70" s="5"/>
+      <c r="BD70" s="5"/>
+      <c r="BE70" s="5"/>
+      <c r="BF70" s="5"/>
+    </row>
+    <row r="71" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
         <v>70</v>
       </c>
@@ -5495,13 +6157,13 @@
       <c r="O71" s="5"/>
       <c r="P71" s="5"/>
       <c r="Q71" s="5"/>
-      <c r="R71" s="5">
-        <v>5667.9</v>
-      </c>
+      <c r="R71" s="5"/>
       <c r="S71" s="5"/>
       <c r="T71" s="5"/>
       <c r="U71" s="5"/>
-      <c r="V71" s="5"/>
+      <c r="V71" s="5">
+        <v>5667.9</v>
+      </c>
       <c r="W71" s="5"/>
       <c r="X71" s="5"/>
       <c r="Y71" s="5"/>
@@ -5534,8 +6196,12 @@
       <c r="AZ71" s="5"/>
       <c r="BA71" s="5"/>
       <c r="BB71" s="5"/>
-    </row>
-    <row r="72" spans="2:54" x14ac:dyDescent="0.25">
+      <c r="BC71" s="5"/>
+      <c r="BD71" s="5"/>
+      <c r="BE71" s="5"/>
+      <c r="BF71" s="5"/>
+    </row>
+    <row r="72" spans="2:58" x14ac:dyDescent="0.25">
       <c r="C72" s="5"/>
       <c r="D72" s="5"/>
       <c r="E72" s="5"/>
@@ -5588,8 +6254,12 @@
       <c r="AZ72" s="5"/>
       <c r="BA72" s="5"/>
       <c r="BB72" s="5"/>
-    </row>
-    <row r="73" spans="2:54" x14ac:dyDescent="0.25">
+      <c r="BC72" s="5"/>
+      <c r="BD72" s="5"/>
+      <c r="BE72" s="5"/>
+      <c r="BF72" s="5"/>
+    </row>
+    <row r="73" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B73" s="1" t="s">
         <v>71</v>
       </c>
@@ -5608,14 +6278,14 @@
       <c r="O73" s="5"/>
       <c r="P73" s="5"/>
       <c r="Q73" s="5"/>
-      <c r="R73" s="6">
-        <f>R69+R71</f>
-        <v>12216.9</v>
-      </c>
+      <c r="R73" s="5"/>
       <c r="S73" s="5"/>
       <c r="T73" s="5"/>
       <c r="U73" s="5"/>
-      <c r="V73" s="5"/>
+      <c r="V73" s="6">
+        <f>V69+V71</f>
+        <v>12216.9</v>
+      </c>
       <c r="W73" s="5"/>
       <c r="X73" s="5"/>
       <c r="Y73" s="5"/>
@@ -5648,8 +6318,12 @@
       <c r="AZ73" s="5"/>
       <c r="BA73" s="5"/>
       <c r="BB73" s="5"/>
-    </row>
-    <row r="74" spans="2:54" x14ac:dyDescent="0.25">
+      <c r="BC73" s="5"/>
+      <c r="BD73" s="5"/>
+      <c r="BE73" s="5"/>
+      <c r="BF73" s="5"/>
+    </row>
+    <row r="74" spans="2:58" x14ac:dyDescent="0.25">
       <c r="C74" s="5"/>
       <c r="D74" s="5"/>
       <c r="E74" s="5"/>
@@ -5702,8 +6376,12 @@
       <c r="AZ74" s="5"/>
       <c r="BA74" s="5"/>
       <c r="BB74" s="5"/>
-    </row>
-    <row r="75" spans="2:54" x14ac:dyDescent="0.25">
+      <c r="BC74" s="5"/>
+      <c r="BD74" s="5"/>
+      <c r="BE74" s="5"/>
+      <c r="BF74" s="5"/>
+    </row>
+    <row r="75" spans="2:58" x14ac:dyDescent="0.25">
       <c r="C75" s="5"/>
       <c r="D75" s="5"/>
       <c r="E75" s="5"/>
@@ -5756,8 +6434,12 @@
       <c r="AZ75" s="5"/>
       <c r="BA75" s="5"/>
       <c r="BB75" s="5"/>
-    </row>
-    <row r="76" spans="2:54" x14ac:dyDescent="0.25">
+      <c r="BC75" s="5"/>
+      <c r="BD75" s="5"/>
+      <c r="BE75" s="5"/>
+      <c r="BF75" s="5"/>
+    </row>
+    <row r="76" spans="2:58" x14ac:dyDescent="0.25">
       <c r="C76" s="5"/>
       <c r="D76" s="5"/>
       <c r="E76" s="5"/>
@@ -5810,8 +6492,12 @@
       <c r="AZ76" s="5"/>
       <c r="BA76" s="5"/>
       <c r="BB76" s="5"/>
-    </row>
-    <row r="77" spans="2:54" x14ac:dyDescent="0.25">
+      <c r="BC76" s="5"/>
+      <c r="BD76" s="5"/>
+      <c r="BE76" s="5"/>
+      <c r="BF76" s="5"/>
+    </row>
+    <row r="77" spans="2:58" x14ac:dyDescent="0.25">
       <c r="C77" s="5"/>
       <c r="D77" s="5"/>
       <c r="E77" s="5"/>
@@ -5864,8 +6550,12 @@
       <c r="AZ77" s="5"/>
       <c r="BA77" s="5"/>
       <c r="BB77" s="5"/>
-    </row>
-    <row r="78" spans="2:54" x14ac:dyDescent="0.25">
+      <c r="BC77" s="5"/>
+      <c r="BD77" s="5"/>
+      <c r="BE77" s="5"/>
+      <c r="BF77" s="5"/>
+    </row>
+    <row r="78" spans="2:58" x14ac:dyDescent="0.25">
       <c r="C78" s="5"/>
       <c r="D78" s="5"/>
       <c r="E78" s="5"/>
@@ -5918,8 +6608,12 @@
       <c r="AZ78" s="5"/>
       <c r="BA78" s="5"/>
       <c r="BB78" s="5"/>
-    </row>
-    <row r="79" spans="2:54" x14ac:dyDescent="0.25">
+      <c r="BC78" s="5"/>
+      <c r="BD78" s="5"/>
+      <c r="BE78" s="5"/>
+      <c r="BF78" s="5"/>
+    </row>
+    <row r="79" spans="2:58" x14ac:dyDescent="0.25">
       <c r="C79" s="5"/>
       <c r="D79" s="5"/>
       <c r="E79" s="5"/>
@@ -5972,8 +6666,12 @@
       <c r="AZ79" s="5"/>
       <c r="BA79" s="5"/>
       <c r="BB79" s="5"/>
-    </row>
-    <row r="80" spans="2:54" x14ac:dyDescent="0.25">
+      <c r="BC79" s="5"/>
+      <c r="BD79" s="5"/>
+      <c r="BE79" s="5"/>
+      <c r="BF79" s="5"/>
+    </row>
+    <row r="80" spans="2:58" x14ac:dyDescent="0.25">
       <c r="C80" s="5"/>
       <c r="D80" s="5"/>
       <c r="E80" s="5"/>
@@ -6026,8 +6724,12 @@
       <c r="AZ80" s="5"/>
       <c r="BA80" s="5"/>
       <c r="BB80" s="5"/>
-    </row>
-    <row r="81" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC80" s="5"/>
+      <c r="BD80" s="5"/>
+      <c r="BE80" s="5"/>
+      <c r="BF80" s="5"/>
+    </row>
+    <row r="81" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C81" s="5"/>
       <c r="D81" s="5"/>
       <c r="E81" s="5"/>
@@ -6080,8 +6782,12 @@
       <c r="AZ81" s="5"/>
       <c r="BA81" s="5"/>
       <c r="BB81" s="5"/>
-    </row>
-    <row r="82" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC81" s="5"/>
+      <c r="BD81" s="5"/>
+      <c r="BE81" s="5"/>
+      <c r="BF81" s="5"/>
+    </row>
+    <row r="82" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C82" s="5"/>
       <c r="D82" s="5"/>
       <c r="E82" s="5"/>
@@ -6134,8 +6840,12 @@
       <c r="AZ82" s="5"/>
       <c r="BA82" s="5"/>
       <c r="BB82" s="5"/>
-    </row>
-    <row r="83" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC82" s="5"/>
+      <c r="BD82" s="5"/>
+      <c r="BE82" s="5"/>
+      <c r="BF82" s="5"/>
+    </row>
+    <row r="83" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C83" s="5"/>
       <c r="D83" s="5"/>
       <c r="E83" s="5"/>
@@ -6188,8 +6898,12 @@
       <c r="AZ83" s="5"/>
       <c r="BA83" s="5"/>
       <c r="BB83" s="5"/>
-    </row>
-    <row r="84" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC83" s="5"/>
+      <c r="BD83" s="5"/>
+      <c r="BE83" s="5"/>
+      <c r="BF83" s="5"/>
+    </row>
+    <row r="84" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C84" s="5"/>
       <c r="D84" s="5"/>
       <c r="E84" s="5"/>
@@ -6242,8 +6956,12 @@
       <c r="AZ84" s="5"/>
       <c r="BA84" s="5"/>
       <c r="BB84" s="5"/>
-    </row>
-    <row r="85" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC84" s="5"/>
+      <c r="BD84" s="5"/>
+      <c r="BE84" s="5"/>
+      <c r="BF84" s="5"/>
+    </row>
+    <row r="85" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C85" s="5"/>
       <c r="D85" s="5"/>
       <c r="E85" s="5"/>
@@ -6296,8 +7014,12 @@
       <c r="AZ85" s="5"/>
       <c r="BA85" s="5"/>
       <c r="BB85" s="5"/>
-    </row>
-    <row r="86" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC85" s="5"/>
+      <c r="BD85" s="5"/>
+      <c r="BE85" s="5"/>
+      <c r="BF85" s="5"/>
+    </row>
+    <row r="86" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C86" s="5"/>
       <c r="D86" s="5"/>
       <c r="E86" s="5"/>
@@ -6350,8 +7072,12 @@
       <c r="AZ86" s="5"/>
       <c r="BA86" s="5"/>
       <c r="BB86" s="5"/>
-    </row>
-    <row r="87" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC86" s="5"/>
+      <c r="BD86" s="5"/>
+      <c r="BE86" s="5"/>
+      <c r="BF86" s="5"/>
+    </row>
+    <row r="87" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C87" s="5"/>
       <c r="D87" s="5"/>
       <c r="E87" s="5"/>
@@ -6404,8 +7130,12 @@
       <c r="AZ87" s="5"/>
       <c r="BA87" s="5"/>
       <c r="BB87" s="5"/>
-    </row>
-    <row r="88" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC87" s="5"/>
+      <c r="BD87" s="5"/>
+      <c r="BE87" s="5"/>
+      <c r="BF87" s="5"/>
+    </row>
+    <row r="88" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C88" s="5"/>
       <c r="D88" s="5"/>
       <c r="E88" s="5"/>
@@ -6458,8 +7188,12 @@
       <c r="AZ88" s="5"/>
       <c r="BA88" s="5"/>
       <c r="BB88" s="5"/>
-    </row>
-    <row r="89" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC88" s="5"/>
+      <c r="BD88" s="5"/>
+      <c r="BE88" s="5"/>
+      <c r="BF88" s="5"/>
+    </row>
+    <row r="89" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C89" s="5"/>
       <c r="D89" s="5"/>
       <c r="E89" s="5"/>
@@ -6512,8 +7246,12 @@
       <c r="AZ89" s="5"/>
       <c r="BA89" s="5"/>
       <c r="BB89" s="5"/>
-    </row>
-    <row r="90" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC89" s="5"/>
+      <c r="BD89" s="5"/>
+      <c r="BE89" s="5"/>
+      <c r="BF89" s="5"/>
+    </row>
+    <row r="90" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C90" s="5"/>
       <c r="D90" s="5"/>
       <c r="E90" s="5"/>
@@ -6566,8 +7304,12 @@
       <c r="AZ90" s="5"/>
       <c r="BA90" s="5"/>
       <c r="BB90" s="5"/>
-    </row>
-    <row r="91" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC90" s="5"/>
+      <c r="BD90" s="5"/>
+      <c r="BE90" s="5"/>
+      <c r="BF90" s="5"/>
+    </row>
+    <row r="91" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C91" s="5"/>
       <c r="D91" s="5"/>
       <c r="E91" s="5"/>
@@ -6620,8 +7362,12 @@
       <c r="AZ91" s="5"/>
       <c r="BA91" s="5"/>
       <c r="BB91" s="5"/>
-    </row>
-    <row r="92" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC91" s="5"/>
+      <c r="BD91" s="5"/>
+      <c r="BE91" s="5"/>
+      <c r="BF91" s="5"/>
+    </row>
+    <row r="92" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C92" s="5"/>
       <c r="D92" s="5"/>
       <c r="E92" s="5"/>
@@ -6674,8 +7420,12 @@
       <c r="AZ92" s="5"/>
       <c r="BA92" s="5"/>
       <c r="BB92" s="5"/>
-    </row>
-    <row r="93" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC92" s="5"/>
+      <c r="BD92" s="5"/>
+      <c r="BE92" s="5"/>
+      <c r="BF92" s="5"/>
+    </row>
+    <row r="93" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C93" s="5"/>
       <c r="D93" s="5"/>
       <c r="E93" s="5"/>
@@ -6728,8 +7478,12 @@
       <c r="AZ93" s="5"/>
       <c r="BA93" s="5"/>
       <c r="BB93" s="5"/>
-    </row>
-    <row r="94" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC93" s="5"/>
+      <c r="BD93" s="5"/>
+      <c r="BE93" s="5"/>
+      <c r="BF93" s="5"/>
+    </row>
+    <row r="94" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C94" s="5"/>
       <c r="D94" s="5"/>
       <c r="E94" s="5"/>
@@ -6782,8 +7536,12 @@
       <c r="AZ94" s="5"/>
       <c r="BA94" s="5"/>
       <c r="BB94" s="5"/>
-    </row>
-    <row r="95" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC94" s="5"/>
+      <c r="BD94" s="5"/>
+      <c r="BE94" s="5"/>
+      <c r="BF94" s="5"/>
+    </row>
+    <row r="95" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C95" s="5"/>
       <c r="D95" s="5"/>
       <c r="E95" s="5"/>
@@ -6836,8 +7594,12 @@
       <c r="AZ95" s="5"/>
       <c r="BA95" s="5"/>
       <c r="BB95" s="5"/>
-    </row>
-    <row r="96" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC95" s="5"/>
+      <c r="BD95" s="5"/>
+      <c r="BE95" s="5"/>
+      <c r="BF95" s="5"/>
+    </row>
+    <row r="96" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C96" s="5"/>
       <c r="D96" s="5"/>
       <c r="E96" s="5"/>
@@ -6890,8 +7652,12 @@
       <c r="AZ96" s="5"/>
       <c r="BA96" s="5"/>
       <c r="BB96" s="5"/>
-    </row>
-    <row r="97" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC96" s="5"/>
+      <c r="BD96" s="5"/>
+      <c r="BE96" s="5"/>
+      <c r="BF96" s="5"/>
+    </row>
+    <row r="97" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C97" s="5"/>
       <c r="D97" s="5"/>
       <c r="E97" s="5"/>
@@ -6944,8 +7710,12 @@
       <c r="AZ97" s="5"/>
       <c r="BA97" s="5"/>
       <c r="BB97" s="5"/>
-    </row>
-    <row r="98" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC97" s="5"/>
+      <c r="BD97" s="5"/>
+      <c r="BE97" s="5"/>
+      <c r="BF97" s="5"/>
+    </row>
+    <row r="98" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C98" s="5"/>
       <c r="D98" s="5"/>
       <c r="E98" s="5"/>
@@ -6998,8 +7768,12 @@
       <c r="AZ98" s="5"/>
       <c r="BA98" s="5"/>
       <c r="BB98" s="5"/>
-    </row>
-    <row r="99" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC98" s="5"/>
+      <c r="BD98" s="5"/>
+      <c r="BE98" s="5"/>
+      <c r="BF98" s="5"/>
+    </row>
+    <row r="99" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C99" s="5"/>
       <c r="D99" s="5"/>
       <c r="E99" s="5"/>
@@ -7052,8 +7826,12 @@
       <c r="AZ99" s="5"/>
       <c r="BA99" s="5"/>
       <c r="BB99" s="5"/>
-    </row>
-    <row r="100" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC99" s="5"/>
+      <c r="BD99" s="5"/>
+      <c r="BE99" s="5"/>
+      <c r="BF99" s="5"/>
+    </row>
+    <row r="100" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C100" s="5"/>
       <c r="D100" s="5"/>
       <c r="E100" s="5"/>
@@ -7106,8 +7884,12 @@
       <c r="AZ100" s="5"/>
       <c r="BA100" s="5"/>
       <c r="BB100" s="5"/>
-    </row>
-    <row r="101" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC100" s="5"/>
+      <c r="BD100" s="5"/>
+      <c r="BE100" s="5"/>
+      <c r="BF100" s="5"/>
+    </row>
+    <row r="101" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C101" s="5"/>
       <c r="D101" s="5"/>
       <c r="E101" s="5"/>
@@ -7160,8 +7942,12 @@
       <c r="AZ101" s="5"/>
       <c r="BA101" s="5"/>
       <c r="BB101" s="5"/>
-    </row>
-    <row r="102" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC101" s="5"/>
+      <c r="BD101" s="5"/>
+      <c r="BE101" s="5"/>
+      <c r="BF101" s="5"/>
+    </row>
+    <row r="102" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C102" s="5"/>
       <c r="D102" s="5"/>
       <c r="E102" s="5"/>
@@ -7214,8 +8000,12 @@
       <c r="AZ102" s="5"/>
       <c r="BA102" s="5"/>
       <c r="BB102" s="5"/>
-    </row>
-    <row r="103" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC102" s="5"/>
+      <c r="BD102" s="5"/>
+      <c r="BE102" s="5"/>
+      <c r="BF102" s="5"/>
+    </row>
+    <row r="103" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C103" s="5"/>
       <c r="D103" s="5"/>
       <c r="E103" s="5"/>
@@ -7268,8 +8058,12 @@
       <c r="AZ103" s="5"/>
       <c r="BA103" s="5"/>
       <c r="BB103" s="5"/>
-    </row>
-    <row r="104" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC103" s="5"/>
+      <c r="BD103" s="5"/>
+      <c r="BE103" s="5"/>
+      <c r="BF103" s="5"/>
+    </row>
+    <row r="104" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C104" s="5"/>
       <c r="D104" s="5"/>
       <c r="E104" s="5"/>
@@ -7322,8 +8116,12 @@
       <c r="AZ104" s="5"/>
       <c r="BA104" s="5"/>
       <c r="BB104" s="5"/>
-    </row>
-    <row r="105" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC104" s="5"/>
+      <c r="BD104" s="5"/>
+      <c r="BE104" s="5"/>
+      <c r="BF104" s="5"/>
+    </row>
+    <row r="105" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C105" s="5"/>
       <c r="D105" s="5"/>
       <c r="E105" s="5"/>
@@ -7376,8 +8174,12 @@
       <c r="AZ105" s="5"/>
       <c r="BA105" s="5"/>
       <c r="BB105" s="5"/>
-    </row>
-    <row r="106" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC105" s="5"/>
+      <c r="BD105" s="5"/>
+      <c r="BE105" s="5"/>
+      <c r="BF105" s="5"/>
+    </row>
+    <row r="106" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C106" s="5"/>
       <c r="D106" s="5"/>
       <c r="E106" s="5"/>
@@ -7430,8 +8232,12 @@
       <c r="AZ106" s="5"/>
       <c r="BA106" s="5"/>
       <c r="BB106" s="5"/>
-    </row>
-    <row r="107" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC106" s="5"/>
+      <c r="BD106" s="5"/>
+      <c r="BE106" s="5"/>
+      <c r="BF106" s="5"/>
+    </row>
+    <row r="107" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C107" s="5"/>
       <c r="D107" s="5"/>
       <c r="E107" s="5"/>
@@ -7484,8 +8290,12 @@
       <c r="AZ107" s="5"/>
       <c r="BA107" s="5"/>
       <c r="BB107" s="5"/>
-    </row>
-    <row r="108" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC107" s="5"/>
+      <c r="BD107" s="5"/>
+      <c r="BE107" s="5"/>
+      <c r="BF107" s="5"/>
+    </row>
+    <row r="108" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C108" s="5"/>
       <c r="D108" s="5"/>
       <c r="E108" s="5"/>
@@ -7538,8 +8348,12 @@
       <c r="AZ108" s="5"/>
       <c r="BA108" s="5"/>
       <c r="BB108" s="5"/>
-    </row>
-    <row r="109" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC108" s="5"/>
+      <c r="BD108" s="5"/>
+      <c r="BE108" s="5"/>
+      <c r="BF108" s="5"/>
+    </row>
+    <row r="109" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C109" s="5"/>
       <c r="D109" s="5"/>
       <c r="E109" s="5"/>
@@ -7592,8 +8406,12 @@
       <c r="AZ109" s="5"/>
       <c r="BA109" s="5"/>
       <c r="BB109" s="5"/>
-    </row>
-    <row r="110" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC109" s="5"/>
+      <c r="BD109" s="5"/>
+      <c r="BE109" s="5"/>
+      <c r="BF109" s="5"/>
+    </row>
+    <row r="110" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C110" s="5"/>
       <c r="D110" s="5"/>
       <c r="E110" s="5"/>
@@ -7646,8 +8464,12 @@
       <c r="AZ110" s="5"/>
       <c r="BA110" s="5"/>
       <c r="BB110" s="5"/>
-    </row>
-    <row r="111" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC110" s="5"/>
+      <c r="BD110" s="5"/>
+      <c r="BE110" s="5"/>
+      <c r="BF110" s="5"/>
+    </row>
+    <row r="111" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C111" s="5"/>
       <c r="D111" s="5"/>
       <c r="E111" s="5"/>
@@ -7700,8 +8522,12 @@
       <c r="AZ111" s="5"/>
       <c r="BA111" s="5"/>
       <c r="BB111" s="5"/>
-    </row>
-    <row r="112" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC111" s="5"/>
+      <c r="BD111" s="5"/>
+      <c r="BE111" s="5"/>
+      <c r="BF111" s="5"/>
+    </row>
+    <row r="112" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C112" s="5"/>
       <c r="D112" s="5"/>
       <c r="E112" s="5"/>
@@ -7754,8 +8580,12 @@
       <c r="AZ112" s="5"/>
       <c r="BA112" s="5"/>
       <c r="BB112" s="5"/>
-    </row>
-    <row r="113" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC112" s="5"/>
+      <c r="BD112" s="5"/>
+      <c r="BE112" s="5"/>
+      <c r="BF112" s="5"/>
+    </row>
+    <row r="113" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C113" s="5"/>
       <c r="D113" s="5"/>
       <c r="E113" s="5"/>
@@ -7808,8 +8638,12 @@
       <c r="AZ113" s="5"/>
       <c r="BA113" s="5"/>
       <c r="BB113" s="5"/>
-    </row>
-    <row r="114" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC113" s="5"/>
+      <c r="BD113" s="5"/>
+      <c r="BE113" s="5"/>
+      <c r="BF113" s="5"/>
+    </row>
+    <row r="114" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C114" s="5"/>
       <c r="D114" s="5"/>
       <c r="E114" s="5"/>
@@ -7862,8 +8696,12 @@
       <c r="AZ114" s="5"/>
       <c r="BA114" s="5"/>
       <c r="BB114" s="5"/>
-    </row>
-    <row r="115" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC114" s="5"/>
+      <c r="BD114" s="5"/>
+      <c r="BE114" s="5"/>
+      <c r="BF114" s="5"/>
+    </row>
+    <row r="115" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C115" s="5"/>
       <c r="D115" s="5"/>
       <c r="E115" s="5"/>
@@ -7916,8 +8754,12 @@
       <c r="AZ115" s="5"/>
       <c r="BA115" s="5"/>
       <c r="BB115" s="5"/>
-    </row>
-    <row r="116" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC115" s="5"/>
+      <c r="BD115" s="5"/>
+      <c r="BE115" s="5"/>
+      <c r="BF115" s="5"/>
+    </row>
+    <row r="116" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C116" s="5"/>
       <c r="D116" s="5"/>
       <c r="E116" s="5"/>
@@ -7970,8 +8812,12 @@
       <c r="AZ116" s="5"/>
       <c r="BA116" s="5"/>
       <c r="BB116" s="5"/>
-    </row>
-    <row r="117" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC116" s="5"/>
+      <c r="BD116" s="5"/>
+      <c r="BE116" s="5"/>
+      <c r="BF116" s="5"/>
+    </row>
+    <row r="117" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C117" s="5"/>
       <c r="D117" s="5"/>
       <c r="E117" s="5"/>
@@ -8024,8 +8870,12 @@
       <c r="AZ117" s="5"/>
       <c r="BA117" s="5"/>
       <c r="BB117" s="5"/>
-    </row>
-    <row r="118" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC117" s="5"/>
+      <c r="BD117" s="5"/>
+      <c r="BE117" s="5"/>
+      <c r="BF117" s="5"/>
+    </row>
+    <row r="118" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C118" s="5"/>
       <c r="D118" s="5"/>
       <c r="E118" s="5"/>
@@ -8078,8 +8928,12 @@
       <c r="AZ118" s="5"/>
       <c r="BA118" s="5"/>
       <c r="BB118" s="5"/>
-    </row>
-    <row r="119" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC118" s="5"/>
+      <c r="BD118" s="5"/>
+      <c r="BE118" s="5"/>
+      <c r="BF118" s="5"/>
+    </row>
+    <row r="119" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C119" s="5"/>
       <c r="D119" s="5"/>
       <c r="E119" s="5"/>
@@ -8132,8 +8986,12 @@
       <c r="AZ119" s="5"/>
       <c r="BA119" s="5"/>
       <c r="BB119" s="5"/>
-    </row>
-    <row r="120" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC119" s="5"/>
+      <c r="BD119" s="5"/>
+      <c r="BE119" s="5"/>
+      <c r="BF119" s="5"/>
+    </row>
+    <row r="120" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C120" s="5"/>
       <c r="D120" s="5"/>
       <c r="E120" s="5"/>
@@ -8186,8 +9044,12 @@
       <c r="AZ120" s="5"/>
       <c r="BA120" s="5"/>
       <c r="BB120" s="5"/>
-    </row>
-    <row r="121" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC120" s="5"/>
+      <c r="BD120" s="5"/>
+      <c r="BE120" s="5"/>
+      <c r="BF120" s="5"/>
+    </row>
+    <row r="121" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C121" s="5"/>
       <c r="D121" s="5"/>
       <c r="E121" s="5"/>
@@ -8240,8 +9102,12 @@
       <c r="AZ121" s="5"/>
       <c r="BA121" s="5"/>
       <c r="BB121" s="5"/>
-    </row>
-    <row r="122" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC121" s="5"/>
+      <c r="BD121" s="5"/>
+      <c r="BE121" s="5"/>
+      <c r="BF121" s="5"/>
+    </row>
+    <row r="122" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C122" s="5"/>
       <c r="D122" s="5"/>
       <c r="E122" s="5"/>
@@ -8294,8 +9160,12 @@
       <c r="AZ122" s="5"/>
       <c r="BA122" s="5"/>
       <c r="BB122" s="5"/>
-    </row>
-    <row r="123" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC122" s="5"/>
+      <c r="BD122" s="5"/>
+      <c r="BE122" s="5"/>
+      <c r="BF122" s="5"/>
+    </row>
+    <row r="123" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C123" s="5"/>
       <c r="D123" s="5"/>
       <c r="E123" s="5"/>
@@ -8348,8 +9218,12 @@
       <c r="AZ123" s="5"/>
       <c r="BA123" s="5"/>
       <c r="BB123" s="5"/>
-    </row>
-    <row r="124" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC123" s="5"/>
+      <c r="BD123" s="5"/>
+      <c r="BE123" s="5"/>
+      <c r="BF123" s="5"/>
+    </row>
+    <row r="124" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C124" s="5"/>
       <c r="D124" s="5"/>
       <c r="E124" s="5"/>
@@ -8402,8 +9276,12 @@
       <c r="AZ124" s="5"/>
       <c r="BA124" s="5"/>
       <c r="BB124" s="5"/>
-    </row>
-    <row r="125" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC124" s="5"/>
+      <c r="BD124" s="5"/>
+      <c r="BE124" s="5"/>
+      <c r="BF124" s="5"/>
+    </row>
+    <row r="125" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C125" s="5"/>
       <c r="D125" s="5"/>
       <c r="E125" s="5"/>
@@ -8456,8 +9334,12 @@
       <c r="AZ125" s="5"/>
       <c r="BA125" s="5"/>
       <c r="BB125" s="5"/>
-    </row>
-    <row r="126" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC125" s="5"/>
+      <c r="BD125" s="5"/>
+      <c r="BE125" s="5"/>
+      <c r="BF125" s="5"/>
+    </row>
+    <row r="126" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C126" s="5"/>
       <c r="D126" s="5"/>
       <c r="E126" s="5"/>
@@ -8510,8 +9392,12 @@
       <c r="AZ126" s="5"/>
       <c r="BA126" s="5"/>
       <c r="BB126" s="5"/>
-    </row>
-    <row r="127" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC126" s="5"/>
+      <c r="BD126" s="5"/>
+      <c r="BE126" s="5"/>
+      <c r="BF126" s="5"/>
+    </row>
+    <row r="127" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C127" s="5"/>
       <c r="D127" s="5"/>
       <c r="E127" s="5"/>
@@ -8564,8 +9450,12 @@
       <c r="AZ127" s="5"/>
       <c r="BA127" s="5"/>
       <c r="BB127" s="5"/>
-    </row>
-    <row r="128" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC127" s="5"/>
+      <c r="BD127" s="5"/>
+      <c r="BE127" s="5"/>
+      <c r="BF127" s="5"/>
+    </row>
+    <row r="128" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C128" s="5"/>
       <c r="D128" s="5"/>
       <c r="E128" s="5"/>
@@ -8618,8 +9508,12 @@
       <c r="AZ128" s="5"/>
       <c r="BA128" s="5"/>
       <c r="BB128" s="5"/>
-    </row>
-    <row r="129" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC128" s="5"/>
+      <c r="BD128" s="5"/>
+      <c r="BE128" s="5"/>
+      <c r="BF128" s="5"/>
+    </row>
+    <row r="129" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C129" s="5"/>
       <c r="D129" s="5"/>
       <c r="E129" s="5"/>
@@ -8672,8 +9566,12 @@
       <c r="AZ129" s="5"/>
       <c r="BA129" s="5"/>
       <c r="BB129" s="5"/>
-    </row>
-    <row r="130" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC129" s="5"/>
+      <c r="BD129" s="5"/>
+      <c r="BE129" s="5"/>
+      <c r="BF129" s="5"/>
+    </row>
+    <row r="130" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C130" s="5"/>
       <c r="D130" s="5"/>
       <c r="E130" s="5"/>
@@ -8726,8 +9624,12 @@
       <c r="AZ130" s="5"/>
       <c r="BA130" s="5"/>
       <c r="BB130" s="5"/>
-    </row>
-    <row r="131" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC130" s="5"/>
+      <c r="BD130" s="5"/>
+      <c r="BE130" s="5"/>
+      <c r="BF130" s="5"/>
+    </row>
+    <row r="131" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C131" s="5"/>
       <c r="D131" s="5"/>
       <c r="E131" s="5"/>
@@ -8780,8 +9682,12 @@
       <c r="AZ131" s="5"/>
       <c r="BA131" s="5"/>
       <c r="BB131" s="5"/>
-    </row>
-    <row r="132" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC131" s="5"/>
+      <c r="BD131" s="5"/>
+      <c r="BE131" s="5"/>
+      <c r="BF131" s="5"/>
+    </row>
+    <row r="132" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C132" s="5"/>
       <c r="D132" s="5"/>
       <c r="E132" s="5"/>
@@ -8834,8 +9740,12 @@
       <c r="AZ132" s="5"/>
       <c r="BA132" s="5"/>
       <c r="BB132" s="5"/>
-    </row>
-    <row r="133" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC132" s="5"/>
+      <c r="BD132" s="5"/>
+      <c r="BE132" s="5"/>
+      <c r="BF132" s="5"/>
+    </row>
+    <row r="133" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C133" s="5"/>
       <c r="D133" s="5"/>
       <c r="E133" s="5"/>
@@ -8888,8 +9798,12 @@
       <c r="AZ133" s="5"/>
       <c r="BA133" s="5"/>
       <c r="BB133" s="5"/>
-    </row>
-    <row r="134" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC133" s="5"/>
+      <c r="BD133" s="5"/>
+      <c r="BE133" s="5"/>
+      <c r="BF133" s="5"/>
+    </row>
+    <row r="134" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C134" s="5"/>
       <c r="D134" s="5"/>
       <c r="E134" s="5"/>
@@ -8942,8 +9856,12 @@
       <c r="AZ134" s="5"/>
       <c r="BA134" s="5"/>
       <c r="BB134" s="5"/>
-    </row>
-    <row r="135" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC134" s="5"/>
+      <c r="BD134" s="5"/>
+      <c r="BE134" s="5"/>
+      <c r="BF134" s="5"/>
+    </row>
+    <row r="135" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C135" s="5"/>
       <c r="D135" s="5"/>
       <c r="E135" s="5"/>
@@ -8996,8 +9914,12 @@
       <c r="AZ135" s="5"/>
       <c r="BA135" s="5"/>
       <c r="BB135" s="5"/>
-    </row>
-    <row r="136" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC135" s="5"/>
+      <c r="BD135" s="5"/>
+      <c r="BE135" s="5"/>
+      <c r="BF135" s="5"/>
+    </row>
+    <row r="136" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C136" s="5"/>
       <c r="D136" s="5"/>
       <c r="E136" s="5"/>
@@ -9050,8 +9972,12 @@
       <c r="AZ136" s="5"/>
       <c r="BA136" s="5"/>
       <c r="BB136" s="5"/>
-    </row>
-    <row r="137" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC136" s="5"/>
+      <c r="BD136" s="5"/>
+      <c r="BE136" s="5"/>
+      <c r="BF136" s="5"/>
+    </row>
+    <row r="137" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C137" s="5"/>
       <c r="D137" s="5"/>
       <c r="E137" s="5"/>
@@ -9104,8 +10030,12 @@
       <c r="AZ137" s="5"/>
       <c r="BA137" s="5"/>
       <c r="BB137" s="5"/>
-    </row>
-    <row r="138" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC137" s="5"/>
+      <c r="BD137" s="5"/>
+      <c r="BE137" s="5"/>
+      <c r="BF137" s="5"/>
+    </row>
+    <row r="138" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C138" s="5"/>
       <c r="D138" s="5"/>
       <c r="E138" s="5"/>
@@ -9158,8 +10088,12 @@
       <c r="AZ138" s="5"/>
       <c r="BA138" s="5"/>
       <c r="BB138" s="5"/>
-    </row>
-    <row r="139" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC138" s="5"/>
+      <c r="BD138" s="5"/>
+      <c r="BE138" s="5"/>
+      <c r="BF138" s="5"/>
+    </row>
+    <row r="139" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C139" s="5"/>
       <c r="D139" s="5"/>
       <c r="E139" s="5"/>
@@ -9212,8 +10146,12 @@
       <c r="AZ139" s="5"/>
       <c r="BA139" s="5"/>
       <c r="BB139" s="5"/>
-    </row>
-    <row r="140" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC139" s="5"/>
+      <c r="BD139" s="5"/>
+      <c r="BE139" s="5"/>
+      <c r="BF139" s="5"/>
+    </row>
+    <row r="140" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C140" s="5"/>
       <c r="D140" s="5"/>
       <c r="E140" s="5"/>
@@ -9266,8 +10204,12 @@
       <c r="AZ140" s="5"/>
       <c r="BA140" s="5"/>
       <c r="BB140" s="5"/>
-    </row>
-    <row r="141" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC140" s="5"/>
+      <c r="BD140" s="5"/>
+      <c r="BE140" s="5"/>
+      <c r="BF140" s="5"/>
+    </row>
+    <row r="141" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C141" s="5"/>
       <c r="D141" s="5"/>
       <c r="E141" s="5"/>
@@ -9320,8 +10262,12 @@
       <c r="AZ141" s="5"/>
       <c r="BA141" s="5"/>
       <c r="BB141" s="5"/>
-    </row>
-    <row r="142" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC141" s="5"/>
+      <c r="BD141" s="5"/>
+      <c r="BE141" s="5"/>
+      <c r="BF141" s="5"/>
+    </row>
+    <row r="142" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C142" s="5"/>
       <c r="D142" s="5"/>
       <c r="E142" s="5"/>
@@ -9374,8 +10320,12 @@
       <c r="AZ142" s="5"/>
       <c r="BA142" s="5"/>
       <c r="BB142" s="5"/>
-    </row>
-    <row r="143" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC142" s="5"/>
+      <c r="BD142" s="5"/>
+      <c r="BE142" s="5"/>
+      <c r="BF142" s="5"/>
+    </row>
+    <row r="143" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C143" s="5"/>
       <c r="D143" s="5"/>
       <c r="E143" s="5"/>
@@ -9428,8 +10378,12 @@
       <c r="AZ143" s="5"/>
       <c r="BA143" s="5"/>
       <c r="BB143" s="5"/>
-    </row>
-    <row r="144" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC143" s="5"/>
+      <c r="BD143" s="5"/>
+      <c r="BE143" s="5"/>
+      <c r="BF143" s="5"/>
+    </row>
+    <row r="144" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C144" s="5"/>
       <c r="D144" s="5"/>
       <c r="E144" s="5"/>
@@ -9482,8 +10436,12 @@
       <c r="AZ144" s="5"/>
       <c r="BA144" s="5"/>
       <c r="BB144" s="5"/>
-    </row>
-    <row r="145" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC144" s="5"/>
+      <c r="BD144" s="5"/>
+      <c r="BE144" s="5"/>
+      <c r="BF144" s="5"/>
+    </row>
+    <row r="145" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C145" s="5"/>
       <c r="D145" s="5"/>
       <c r="E145" s="5"/>
@@ -9536,8 +10494,12 @@
       <c r="AZ145" s="5"/>
       <c r="BA145" s="5"/>
       <c r="BB145" s="5"/>
-    </row>
-    <row r="146" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC145" s="5"/>
+      <c r="BD145" s="5"/>
+      <c r="BE145" s="5"/>
+      <c r="BF145" s="5"/>
+    </row>
+    <row r="146" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C146" s="5"/>
       <c r="D146" s="5"/>
       <c r="E146" s="5"/>
@@ -9590,8 +10552,12 @@
       <c r="AZ146" s="5"/>
       <c r="BA146" s="5"/>
       <c r="BB146" s="5"/>
-    </row>
-    <row r="147" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC146" s="5"/>
+      <c r="BD146" s="5"/>
+      <c r="BE146" s="5"/>
+      <c r="BF146" s="5"/>
+    </row>
+    <row r="147" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C147" s="5"/>
       <c r="D147" s="5"/>
       <c r="E147" s="5"/>
@@ -9644,8 +10610,12 @@
       <c r="AZ147" s="5"/>
       <c r="BA147" s="5"/>
       <c r="BB147" s="5"/>
-    </row>
-    <row r="148" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC147" s="5"/>
+      <c r="BD147" s="5"/>
+      <c r="BE147" s="5"/>
+      <c r="BF147" s="5"/>
+    </row>
+    <row r="148" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C148" s="5"/>
       <c r="D148" s="5"/>
       <c r="E148" s="5"/>
@@ -9698,8 +10668,12 @@
       <c r="AZ148" s="5"/>
       <c r="BA148" s="5"/>
       <c r="BB148" s="5"/>
-    </row>
-    <row r="149" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC148" s="5"/>
+      <c r="BD148" s="5"/>
+      <c r="BE148" s="5"/>
+      <c r="BF148" s="5"/>
+    </row>
+    <row r="149" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C149" s="5"/>
       <c r="D149" s="5"/>
       <c r="E149" s="5"/>
@@ -9752,8 +10726,12 @@
       <c r="AZ149" s="5"/>
       <c r="BA149" s="5"/>
       <c r="BB149" s="5"/>
-    </row>
-    <row r="150" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC149" s="5"/>
+      <c r="BD149" s="5"/>
+      <c r="BE149" s="5"/>
+      <c r="BF149" s="5"/>
+    </row>
+    <row r="150" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C150" s="5"/>
       <c r="D150" s="5"/>
       <c r="E150" s="5"/>
@@ -9806,8 +10784,12 @@
       <c r="AZ150" s="5"/>
       <c r="BA150" s="5"/>
       <c r="BB150" s="5"/>
-    </row>
-    <row r="151" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC150" s="5"/>
+      <c r="BD150" s="5"/>
+      <c r="BE150" s="5"/>
+      <c r="BF150" s="5"/>
+    </row>
+    <row r="151" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C151" s="5"/>
       <c r="D151" s="5"/>
       <c r="E151" s="5"/>
@@ -9860,8 +10842,12 @@
       <c r="AZ151" s="5"/>
       <c r="BA151" s="5"/>
       <c r="BB151" s="5"/>
-    </row>
-    <row r="152" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC151" s="5"/>
+      <c r="BD151" s="5"/>
+      <c r="BE151" s="5"/>
+      <c r="BF151" s="5"/>
+    </row>
+    <row r="152" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C152" s="5"/>
       <c r="D152" s="5"/>
       <c r="E152" s="5"/>
@@ -9914,8 +10900,12 @@
       <c r="AZ152" s="5"/>
       <c r="BA152" s="5"/>
       <c r="BB152" s="5"/>
-    </row>
-    <row r="153" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC152" s="5"/>
+      <c r="BD152" s="5"/>
+      <c r="BE152" s="5"/>
+      <c r="BF152" s="5"/>
+    </row>
+    <row r="153" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C153" s="5"/>
       <c r="D153" s="5"/>
       <c r="E153" s="5"/>
@@ -9968,8 +10958,12 @@
       <c r="AZ153" s="5"/>
       <c r="BA153" s="5"/>
       <c r="BB153" s="5"/>
-    </row>
-    <row r="154" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC153" s="5"/>
+      <c r="BD153" s="5"/>
+      <c r="BE153" s="5"/>
+      <c r="BF153" s="5"/>
+    </row>
+    <row r="154" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C154" s="5"/>
       <c r="D154" s="5"/>
       <c r="E154" s="5"/>
@@ -10022,8 +11016,12 @@
       <c r="AZ154" s="5"/>
       <c r="BA154" s="5"/>
       <c r="BB154" s="5"/>
-    </row>
-    <row r="155" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC154" s="5"/>
+      <c r="BD154" s="5"/>
+      <c r="BE154" s="5"/>
+      <c r="BF154" s="5"/>
+    </row>
+    <row r="155" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C155" s="5"/>
       <c r="D155" s="5"/>
       <c r="E155" s="5"/>
@@ -10076,8 +11074,12 @@
       <c r="AZ155" s="5"/>
       <c r="BA155" s="5"/>
       <c r="BB155" s="5"/>
-    </row>
-    <row r="156" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC155" s="5"/>
+      <c r="BD155" s="5"/>
+      <c r="BE155" s="5"/>
+      <c r="BF155" s="5"/>
+    </row>
+    <row r="156" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C156" s="5"/>
       <c r="D156" s="5"/>
       <c r="E156" s="5"/>
@@ -10130,8 +11132,12 @@
       <c r="AZ156" s="5"/>
       <c r="BA156" s="5"/>
       <c r="BB156" s="5"/>
-    </row>
-    <row r="157" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC156" s="5"/>
+      <c r="BD156" s="5"/>
+      <c r="BE156" s="5"/>
+      <c r="BF156" s="5"/>
+    </row>
+    <row r="157" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C157" s="5"/>
       <c r="D157" s="5"/>
       <c r="E157" s="5"/>
@@ -10184,8 +11190,12 @@
       <c r="AZ157" s="5"/>
       <c r="BA157" s="5"/>
       <c r="BB157" s="5"/>
-    </row>
-    <row r="158" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC157" s="5"/>
+      <c r="BD157" s="5"/>
+      <c r="BE157" s="5"/>
+      <c r="BF157" s="5"/>
+    </row>
+    <row r="158" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C158" s="5"/>
       <c r="D158" s="5"/>
       <c r="E158" s="5"/>
@@ -10238,8 +11248,12 @@
       <c r="AZ158" s="5"/>
       <c r="BA158" s="5"/>
       <c r="BB158" s="5"/>
-    </row>
-    <row r="159" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC158" s="5"/>
+      <c r="BD158" s="5"/>
+      <c r="BE158" s="5"/>
+      <c r="BF158" s="5"/>
+    </row>
+    <row r="159" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C159" s="5"/>
       <c r="D159" s="5"/>
       <c r="E159" s="5"/>
@@ -10292,8 +11306,12 @@
       <c r="AZ159" s="5"/>
       <c r="BA159" s="5"/>
       <c r="BB159" s="5"/>
-    </row>
-    <row r="160" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC159" s="5"/>
+      <c r="BD159" s="5"/>
+      <c r="BE159" s="5"/>
+      <c r="BF159" s="5"/>
+    </row>
+    <row r="160" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C160" s="5"/>
       <c r="D160" s="5"/>
       <c r="E160" s="5"/>
@@ -10346,8 +11364,12 @@
       <c r="AZ160" s="5"/>
       <c r="BA160" s="5"/>
       <c r="BB160" s="5"/>
-    </row>
-    <row r="161" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC160" s="5"/>
+      <c r="BD160" s="5"/>
+      <c r="BE160" s="5"/>
+      <c r="BF160" s="5"/>
+    </row>
+    <row r="161" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C161" s="5"/>
       <c r="D161" s="5"/>
       <c r="E161" s="5"/>
@@ -10400,8 +11422,12 @@
       <c r="AZ161" s="5"/>
       <c r="BA161" s="5"/>
       <c r="BB161" s="5"/>
-    </row>
-    <row r="162" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC161" s="5"/>
+      <c r="BD161" s="5"/>
+      <c r="BE161" s="5"/>
+      <c r="BF161" s="5"/>
+    </row>
+    <row r="162" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C162" s="5"/>
       <c r="D162" s="5"/>
       <c r="E162" s="5"/>
@@ -10454,8 +11480,12 @@
       <c r="AZ162" s="5"/>
       <c r="BA162" s="5"/>
       <c r="BB162" s="5"/>
-    </row>
-    <row r="163" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC162" s="5"/>
+      <c r="BD162" s="5"/>
+      <c r="BE162" s="5"/>
+      <c r="BF162" s="5"/>
+    </row>
+    <row r="163" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C163" s="5"/>
       <c r="D163" s="5"/>
       <c r="E163" s="5"/>
@@ -10508,8 +11538,12 @@
       <c r="AZ163" s="5"/>
       <c r="BA163" s="5"/>
       <c r="BB163" s="5"/>
-    </row>
-    <row r="164" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC163" s="5"/>
+      <c r="BD163" s="5"/>
+      <c r="BE163" s="5"/>
+      <c r="BF163" s="5"/>
+    </row>
+    <row r="164" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C164" s="5"/>
       <c r="D164" s="5"/>
       <c r="E164" s="5"/>
@@ -10562,8 +11596,12 @@
       <c r="AZ164" s="5"/>
       <c r="BA164" s="5"/>
       <c r="BB164" s="5"/>
-    </row>
-    <row r="165" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC164" s="5"/>
+      <c r="BD164" s="5"/>
+      <c r="BE164" s="5"/>
+      <c r="BF164" s="5"/>
+    </row>
+    <row r="165" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C165" s="5"/>
       <c r="D165" s="5"/>
       <c r="E165" s="5"/>
@@ -10616,8 +11654,12 @@
       <c r="AZ165" s="5"/>
       <c r="BA165" s="5"/>
       <c r="BB165" s="5"/>
-    </row>
-    <row r="166" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC165" s="5"/>
+      <c r="BD165" s="5"/>
+      <c r="BE165" s="5"/>
+      <c r="BF165" s="5"/>
+    </row>
+    <row r="166" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C166" s="5"/>
       <c r="D166" s="5"/>
       <c r="E166" s="5"/>
@@ -10670,8 +11712,12 @@
       <c r="AZ166" s="5"/>
       <c r="BA166" s="5"/>
       <c r="BB166" s="5"/>
-    </row>
-    <row r="167" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC166" s="5"/>
+      <c r="BD166" s="5"/>
+      <c r="BE166" s="5"/>
+      <c r="BF166" s="5"/>
+    </row>
+    <row r="167" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C167" s="5"/>
       <c r="D167" s="5"/>
       <c r="E167" s="5"/>
@@ -10724,8 +11770,12 @@
       <c r="AZ167" s="5"/>
       <c r="BA167" s="5"/>
       <c r="BB167" s="5"/>
-    </row>
-    <row r="168" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC167" s="5"/>
+      <c r="BD167" s="5"/>
+      <c r="BE167" s="5"/>
+      <c r="BF167" s="5"/>
+    </row>
+    <row r="168" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C168" s="5"/>
       <c r="D168" s="5"/>
       <c r="E168" s="5"/>
@@ -10778,8 +11828,12 @@
       <c r="AZ168" s="5"/>
       <c r="BA168" s="5"/>
       <c r="BB168" s="5"/>
-    </row>
-    <row r="169" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC168" s="5"/>
+      <c r="BD168" s="5"/>
+      <c r="BE168" s="5"/>
+      <c r="BF168" s="5"/>
+    </row>
+    <row r="169" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C169" s="5"/>
       <c r="D169" s="5"/>
       <c r="E169" s="5"/>
@@ -10832,8 +11886,12 @@
       <c r="AZ169" s="5"/>
       <c r="BA169" s="5"/>
       <c r="BB169" s="5"/>
-    </row>
-    <row r="170" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC169" s="5"/>
+      <c r="BD169" s="5"/>
+      <c r="BE169" s="5"/>
+      <c r="BF169" s="5"/>
+    </row>
+    <row r="170" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C170" s="5"/>
       <c r="D170" s="5"/>
       <c r="E170" s="5"/>
@@ -10886,8 +11944,12 @@
       <c r="AZ170" s="5"/>
       <c r="BA170" s="5"/>
       <c r="BB170" s="5"/>
-    </row>
-    <row r="171" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC170" s="5"/>
+      <c r="BD170" s="5"/>
+      <c r="BE170" s="5"/>
+      <c r="BF170" s="5"/>
+    </row>
+    <row r="171" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C171" s="5"/>
       <c r="D171" s="5"/>
       <c r="E171" s="5"/>
@@ -10940,8 +12002,12 @@
       <c r="AZ171" s="5"/>
       <c r="BA171" s="5"/>
       <c r="BB171" s="5"/>
-    </row>
-    <row r="172" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC171" s="5"/>
+      <c r="BD171" s="5"/>
+      <c r="BE171" s="5"/>
+      <c r="BF171" s="5"/>
+    </row>
+    <row r="172" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C172" s="5"/>
       <c r="D172" s="5"/>
       <c r="E172" s="5"/>
@@ -10994,8 +12060,12 @@
       <c r="AZ172" s="5"/>
       <c r="BA172" s="5"/>
       <c r="BB172" s="5"/>
-    </row>
-    <row r="173" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC172" s="5"/>
+      <c r="BD172" s="5"/>
+      <c r="BE172" s="5"/>
+      <c r="BF172" s="5"/>
+    </row>
+    <row r="173" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C173" s="5"/>
       <c r="D173" s="5"/>
       <c r="E173" s="5"/>
@@ -11048,8 +12118,12 @@
       <c r="AZ173" s="5"/>
       <c r="BA173" s="5"/>
       <c r="BB173" s="5"/>
-    </row>
-    <row r="174" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC173" s="5"/>
+      <c r="BD173" s="5"/>
+      <c r="BE173" s="5"/>
+      <c r="BF173" s="5"/>
+    </row>
+    <row r="174" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C174" s="5"/>
       <c r="D174" s="5"/>
       <c r="E174" s="5"/>
@@ -11102,8 +12176,12 @@
       <c r="AZ174" s="5"/>
       <c r="BA174" s="5"/>
       <c r="BB174" s="5"/>
-    </row>
-    <row r="175" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC174" s="5"/>
+      <c r="BD174" s="5"/>
+      <c r="BE174" s="5"/>
+      <c r="BF174" s="5"/>
+    </row>
+    <row r="175" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C175" s="5"/>
       <c r="D175" s="5"/>
       <c r="E175" s="5"/>
@@ -11156,8 +12234,12 @@
       <c r="AZ175" s="5"/>
       <c r="BA175" s="5"/>
       <c r="BB175" s="5"/>
-    </row>
-    <row r="176" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC175" s="5"/>
+      <c r="BD175" s="5"/>
+      <c r="BE175" s="5"/>
+      <c r="BF175" s="5"/>
+    </row>
+    <row r="176" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C176" s="5"/>
       <c r="D176" s="5"/>
       <c r="E176" s="5"/>
@@ -11210,8 +12292,12 @@
       <c r="AZ176" s="5"/>
       <c r="BA176" s="5"/>
       <c r="BB176" s="5"/>
-    </row>
-    <row r="177" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC176" s="5"/>
+      <c r="BD176" s="5"/>
+      <c r="BE176" s="5"/>
+      <c r="BF176" s="5"/>
+    </row>
+    <row r="177" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C177" s="5"/>
       <c r="D177" s="5"/>
       <c r="E177" s="5"/>
@@ -11264,8 +12350,12 @@
       <c r="AZ177" s="5"/>
       <c r="BA177" s="5"/>
       <c r="BB177" s="5"/>
-    </row>
-    <row r="178" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC177" s="5"/>
+      <c r="BD177" s="5"/>
+      <c r="BE177" s="5"/>
+      <c r="BF177" s="5"/>
+    </row>
+    <row r="178" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C178" s="5"/>
       <c r="D178" s="5"/>
       <c r="E178" s="5"/>
@@ -11318,8 +12408,12 @@
       <c r="AZ178" s="5"/>
       <c r="BA178" s="5"/>
       <c r="BB178" s="5"/>
-    </row>
-    <row r="179" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC178" s="5"/>
+      <c r="BD178" s="5"/>
+      <c r="BE178" s="5"/>
+      <c r="BF178" s="5"/>
+    </row>
+    <row r="179" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C179" s="5"/>
       <c r="D179" s="5"/>
       <c r="E179" s="5"/>
@@ -11372,8 +12466,12 @@
       <c r="AZ179" s="5"/>
       <c r="BA179" s="5"/>
       <c r="BB179" s="5"/>
-    </row>
-    <row r="180" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC179" s="5"/>
+      <c r="BD179" s="5"/>
+      <c r="BE179" s="5"/>
+      <c r="BF179" s="5"/>
+    </row>
+    <row r="180" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C180" s="5"/>
       <c r="D180" s="5"/>
       <c r="E180" s="5"/>
@@ -11426,8 +12524,12 @@
       <c r="AZ180" s="5"/>
       <c r="BA180" s="5"/>
       <c r="BB180" s="5"/>
-    </row>
-    <row r="181" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC180" s="5"/>
+      <c r="BD180" s="5"/>
+      <c r="BE180" s="5"/>
+      <c r="BF180" s="5"/>
+    </row>
+    <row r="181" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C181" s="5"/>
       <c r="D181" s="5"/>
       <c r="E181" s="5"/>
@@ -11480,8 +12582,12 @@
       <c r="AZ181" s="5"/>
       <c r="BA181" s="5"/>
       <c r="BB181" s="5"/>
-    </row>
-    <row r="182" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC181" s="5"/>
+      <c r="BD181" s="5"/>
+      <c r="BE181" s="5"/>
+      <c r="BF181" s="5"/>
+    </row>
+    <row r="182" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C182" s="5"/>
       <c r="D182" s="5"/>
       <c r="E182" s="5"/>
@@ -11534,8 +12640,12 @@
       <c r="AZ182" s="5"/>
       <c r="BA182" s="5"/>
       <c r="BB182" s="5"/>
-    </row>
-    <row r="183" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC182" s="5"/>
+      <c r="BD182" s="5"/>
+      <c r="BE182" s="5"/>
+      <c r="BF182" s="5"/>
+    </row>
+    <row r="183" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C183" s="5"/>
       <c r="D183" s="5"/>
       <c r="E183" s="5"/>
@@ -11588,8 +12698,12 @@
       <c r="AZ183" s="5"/>
       <c r="BA183" s="5"/>
       <c r="BB183" s="5"/>
-    </row>
-    <row r="184" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC183" s="5"/>
+      <c r="BD183" s="5"/>
+      <c r="BE183" s="5"/>
+      <c r="BF183" s="5"/>
+    </row>
+    <row r="184" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C184" s="5"/>
       <c r="D184" s="5"/>
       <c r="E184" s="5"/>
@@ -11642,8 +12756,12 @@
       <c r="AZ184" s="5"/>
       <c r="BA184" s="5"/>
       <c r="BB184" s="5"/>
-    </row>
-    <row r="185" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC184" s="5"/>
+      <c r="BD184" s="5"/>
+      <c r="BE184" s="5"/>
+      <c r="BF184" s="5"/>
+    </row>
+    <row r="185" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C185" s="5"/>
       <c r="D185" s="5"/>
       <c r="E185" s="5"/>
@@ -11696,8 +12814,12 @@
       <c r="AZ185" s="5"/>
       <c r="BA185" s="5"/>
       <c r="BB185" s="5"/>
-    </row>
-    <row r="186" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC185" s="5"/>
+      <c r="BD185" s="5"/>
+      <c r="BE185" s="5"/>
+      <c r="BF185" s="5"/>
+    </row>
+    <row r="186" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C186" s="5"/>
       <c r="D186" s="5"/>
       <c r="E186" s="5"/>
@@ -11750,8 +12872,12 @@
       <c r="AZ186" s="5"/>
       <c r="BA186" s="5"/>
       <c r="BB186" s="5"/>
-    </row>
-    <row r="187" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC186" s="5"/>
+      <c r="BD186" s="5"/>
+      <c r="BE186" s="5"/>
+      <c r="BF186" s="5"/>
+    </row>
+    <row r="187" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C187" s="5"/>
       <c r="D187" s="5"/>
       <c r="E187" s="5"/>
@@ -11804,8 +12930,12 @@
       <c r="AZ187" s="5"/>
       <c r="BA187" s="5"/>
       <c r="BB187" s="5"/>
-    </row>
-    <row r="188" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC187" s="5"/>
+      <c r="BD187" s="5"/>
+      <c r="BE187" s="5"/>
+      <c r="BF187" s="5"/>
+    </row>
+    <row r="188" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C188" s="5"/>
       <c r="D188" s="5"/>
       <c r="E188" s="5"/>
@@ -11858,8 +12988,12 @@
       <c r="AZ188" s="5"/>
       <c r="BA188" s="5"/>
       <c r="BB188" s="5"/>
-    </row>
-    <row r="189" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC188" s="5"/>
+      <c r="BD188" s="5"/>
+      <c r="BE188" s="5"/>
+      <c r="BF188" s="5"/>
+    </row>
+    <row r="189" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C189" s="5"/>
       <c r="D189" s="5"/>
       <c r="E189" s="5"/>
@@ -11912,8 +13046,12 @@
       <c r="AZ189" s="5"/>
       <c r="BA189" s="5"/>
       <c r="BB189" s="5"/>
-    </row>
-    <row r="190" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC189" s="5"/>
+      <c r="BD189" s="5"/>
+      <c r="BE189" s="5"/>
+      <c r="BF189" s="5"/>
+    </row>
+    <row r="190" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C190" s="5"/>
       <c r="D190" s="5"/>
       <c r="E190" s="5"/>
@@ -11966,8 +13104,12 @@
       <c r="AZ190" s="5"/>
       <c r="BA190" s="5"/>
       <c r="BB190" s="5"/>
-    </row>
-    <row r="191" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC190" s="5"/>
+      <c r="BD190" s="5"/>
+      <c r="BE190" s="5"/>
+      <c r="BF190" s="5"/>
+    </row>
+    <row r="191" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C191" s="5"/>
       <c r="D191" s="5"/>
       <c r="E191" s="5"/>
@@ -12020,8 +13162,12 @@
       <c r="AZ191" s="5"/>
       <c r="BA191" s="5"/>
       <c r="BB191" s="5"/>
-    </row>
-    <row r="192" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC191" s="5"/>
+      <c r="BD191" s="5"/>
+      <c r="BE191" s="5"/>
+      <c r="BF191" s="5"/>
+    </row>
+    <row r="192" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C192" s="5"/>
       <c r="D192" s="5"/>
       <c r="E192" s="5"/>
@@ -12074,8 +13220,12 @@
       <c r="AZ192" s="5"/>
       <c r="BA192" s="5"/>
       <c r="BB192" s="5"/>
-    </row>
-    <row r="193" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC192" s="5"/>
+      <c r="BD192" s="5"/>
+      <c r="BE192" s="5"/>
+      <c r="BF192" s="5"/>
+    </row>
+    <row r="193" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C193" s="5"/>
       <c r="D193" s="5"/>
       <c r="E193" s="5"/>
@@ -12128,8 +13278,12 @@
       <c r="AZ193" s="5"/>
       <c r="BA193" s="5"/>
       <c r="BB193" s="5"/>
-    </row>
-    <row r="194" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC193" s="5"/>
+      <c r="BD193" s="5"/>
+      <c r="BE193" s="5"/>
+      <c r="BF193" s="5"/>
+    </row>
+    <row r="194" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C194" s="5"/>
       <c r="D194" s="5"/>
       <c r="E194" s="5"/>
@@ -12182,8 +13336,12 @@
       <c r="AZ194" s="5"/>
       <c r="BA194" s="5"/>
       <c r="BB194" s="5"/>
-    </row>
-    <row r="195" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC194" s="5"/>
+      <c r="BD194" s="5"/>
+      <c r="BE194" s="5"/>
+      <c r="BF194" s="5"/>
+    </row>
+    <row r="195" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C195" s="5"/>
       <c r="D195" s="5"/>
       <c r="E195" s="5"/>
@@ -12236,8 +13394,12 @@
       <c r="AZ195" s="5"/>
       <c r="BA195" s="5"/>
       <c r="BB195" s="5"/>
-    </row>
-    <row r="196" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC195" s="5"/>
+      <c r="BD195" s="5"/>
+      <c r="BE195" s="5"/>
+      <c r="BF195" s="5"/>
+    </row>
+    <row r="196" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C196" s="5"/>
       <c r="D196" s="5"/>
       <c r="E196" s="5"/>
@@ -12290,8 +13452,12 @@
       <c r="AZ196" s="5"/>
       <c r="BA196" s="5"/>
       <c r="BB196" s="5"/>
-    </row>
-    <row r="197" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC196" s="5"/>
+      <c r="BD196" s="5"/>
+      <c r="BE196" s="5"/>
+      <c r="BF196" s="5"/>
+    </row>
+    <row r="197" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C197" s="5"/>
       <c r="D197" s="5"/>
       <c r="E197" s="5"/>
@@ -12344,8 +13510,12 @@
       <c r="AZ197" s="5"/>
       <c r="BA197" s="5"/>
       <c r="BB197" s="5"/>
-    </row>
-    <row r="198" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC197" s="5"/>
+      <c r="BD197" s="5"/>
+      <c r="BE197" s="5"/>
+      <c r="BF197" s="5"/>
+    </row>
+    <row r="198" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C198" s="5"/>
       <c r="D198" s="5"/>
       <c r="E198" s="5"/>
@@ -12398,8 +13568,12 @@
       <c r="AZ198" s="5"/>
       <c r="BA198" s="5"/>
       <c r="BB198" s="5"/>
-    </row>
-    <row r="199" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC198" s="5"/>
+      <c r="BD198" s="5"/>
+      <c r="BE198" s="5"/>
+      <c r="BF198" s="5"/>
+    </row>
+    <row r="199" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C199" s="5"/>
       <c r="D199" s="5"/>
       <c r="E199" s="5"/>
@@ -12452,8 +13626,12 @@
       <c r="AZ199" s="5"/>
       <c r="BA199" s="5"/>
       <c r="BB199" s="5"/>
-    </row>
-    <row r="200" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC199" s="5"/>
+      <c r="BD199" s="5"/>
+      <c r="BE199" s="5"/>
+      <c r="BF199" s="5"/>
+    </row>
+    <row r="200" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C200" s="5"/>
       <c r="D200" s="5"/>
       <c r="E200" s="5"/>
@@ -12506,8 +13684,12 @@
       <c r="AZ200" s="5"/>
       <c r="BA200" s="5"/>
       <c r="BB200" s="5"/>
-    </row>
-    <row r="201" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC200" s="5"/>
+      <c r="BD200" s="5"/>
+      <c r="BE200" s="5"/>
+      <c r="BF200" s="5"/>
+    </row>
+    <row r="201" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C201" s="5"/>
       <c r="D201" s="5"/>
       <c r="E201" s="5"/>
@@ -12560,8 +13742,12 @@
       <c r="AZ201" s="5"/>
       <c r="BA201" s="5"/>
       <c r="BB201" s="5"/>
-    </row>
-    <row r="202" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC201" s="5"/>
+      <c r="BD201" s="5"/>
+      <c r="BE201" s="5"/>
+      <c r="BF201" s="5"/>
+    </row>
+    <row r="202" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C202" s="5"/>
       <c r="D202" s="5"/>
       <c r="E202" s="5"/>
@@ -12614,8 +13800,12 @@
       <c r="AZ202" s="5"/>
       <c r="BA202" s="5"/>
       <c r="BB202" s="5"/>
-    </row>
-    <row r="203" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC202" s="5"/>
+      <c r="BD202" s="5"/>
+      <c r="BE202" s="5"/>
+      <c r="BF202" s="5"/>
+    </row>
+    <row r="203" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C203" s="5"/>
       <c r="D203" s="5"/>
       <c r="E203" s="5"/>
@@ -12668,8 +13858,12 @@
       <c r="AZ203" s="5"/>
       <c r="BA203" s="5"/>
       <c r="BB203" s="5"/>
-    </row>
-    <row r="204" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC203" s="5"/>
+      <c r="BD203" s="5"/>
+      <c r="BE203" s="5"/>
+      <c r="BF203" s="5"/>
+    </row>
+    <row r="204" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C204" s="5"/>
       <c r="D204" s="5"/>
       <c r="E204" s="5"/>
@@ -12722,8 +13916,12 @@
       <c r="AZ204" s="5"/>
       <c r="BA204" s="5"/>
       <c r="BB204" s="5"/>
-    </row>
-    <row r="205" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC204" s="5"/>
+      <c r="BD204" s="5"/>
+      <c r="BE204" s="5"/>
+      <c r="BF204" s="5"/>
+    </row>
+    <row r="205" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C205" s="5"/>
       <c r="D205" s="5"/>
       <c r="E205" s="5"/>
@@ -12776,8 +13974,12 @@
       <c r="AZ205" s="5"/>
       <c r="BA205" s="5"/>
       <c r="BB205" s="5"/>
-    </row>
-    <row r="206" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC205" s="5"/>
+      <c r="BD205" s="5"/>
+      <c r="BE205" s="5"/>
+      <c r="BF205" s="5"/>
+    </row>
+    <row r="206" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C206" s="5"/>
       <c r="D206" s="5"/>
       <c r="E206" s="5"/>
@@ -12830,8 +14032,12 @@
       <c r="AZ206" s="5"/>
       <c r="BA206" s="5"/>
       <c r="BB206" s="5"/>
-    </row>
-    <row r="207" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC206" s="5"/>
+      <c r="BD206" s="5"/>
+      <c r="BE206" s="5"/>
+      <c r="BF206" s="5"/>
+    </row>
+    <row r="207" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C207" s="5"/>
       <c r="D207" s="5"/>
       <c r="E207" s="5"/>
@@ -12884,8 +14090,12 @@
       <c r="AZ207" s="5"/>
       <c r="BA207" s="5"/>
       <c r="BB207" s="5"/>
-    </row>
-    <row r="208" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC207" s="5"/>
+      <c r="BD207" s="5"/>
+      <c r="BE207" s="5"/>
+      <c r="BF207" s="5"/>
+    </row>
+    <row r="208" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C208" s="5"/>
       <c r="D208" s="5"/>
       <c r="E208" s="5"/>
@@ -12938,8 +14148,12 @@
       <c r="AZ208" s="5"/>
       <c r="BA208" s="5"/>
       <c r="BB208" s="5"/>
-    </row>
-    <row r="209" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC208" s="5"/>
+      <c r="BD208" s="5"/>
+      <c r="BE208" s="5"/>
+      <c r="BF208" s="5"/>
+    </row>
+    <row r="209" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C209" s="5"/>
       <c r="D209" s="5"/>
       <c r="E209" s="5"/>
@@ -12992,8 +14206,12 @@
       <c r="AZ209" s="5"/>
       <c r="BA209" s="5"/>
       <c r="BB209" s="5"/>
-    </row>
-    <row r="210" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC209" s="5"/>
+      <c r="BD209" s="5"/>
+      <c r="BE209" s="5"/>
+      <c r="BF209" s="5"/>
+    </row>
+    <row r="210" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C210" s="5"/>
       <c r="D210" s="5"/>
       <c r="E210" s="5"/>
@@ -13046,8 +14264,12 @@
       <c r="AZ210" s="5"/>
       <c r="BA210" s="5"/>
       <c r="BB210" s="5"/>
-    </row>
-    <row r="211" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC210" s="5"/>
+      <c r="BD210" s="5"/>
+      <c r="BE210" s="5"/>
+      <c r="BF210" s="5"/>
+    </row>
+    <row r="211" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C211" s="5"/>
       <c r="D211" s="5"/>
       <c r="E211" s="5"/>
@@ -13100,8 +14322,12 @@
       <c r="AZ211" s="5"/>
       <c r="BA211" s="5"/>
       <c r="BB211" s="5"/>
-    </row>
-    <row r="212" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC211" s="5"/>
+      <c r="BD211" s="5"/>
+      <c r="BE211" s="5"/>
+      <c r="BF211" s="5"/>
+    </row>
+    <row r="212" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C212" s="5"/>
       <c r="D212" s="5"/>
       <c r="E212" s="5"/>
@@ -13154,8 +14380,12 @@
       <c r="AZ212" s="5"/>
       <c r="BA212" s="5"/>
       <c r="BB212" s="5"/>
-    </row>
-    <row r="213" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC212" s="5"/>
+      <c r="BD212" s="5"/>
+      <c r="BE212" s="5"/>
+      <c r="BF212" s="5"/>
+    </row>
+    <row r="213" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C213" s="5"/>
       <c r="D213" s="5"/>
       <c r="E213" s="5"/>
@@ -13208,8 +14438,12 @@
       <c r="AZ213" s="5"/>
       <c r="BA213" s="5"/>
       <c r="BB213" s="5"/>
-    </row>
-    <row r="214" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC213" s="5"/>
+      <c r="BD213" s="5"/>
+      <c r="BE213" s="5"/>
+      <c r="BF213" s="5"/>
+    </row>
+    <row r="214" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C214" s="5"/>
       <c r="D214" s="5"/>
       <c r="E214" s="5"/>
@@ -13262,8 +14496,12 @@
       <c r="AZ214" s="5"/>
       <c r="BA214" s="5"/>
       <c r="BB214" s="5"/>
-    </row>
-    <row r="215" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC214" s="5"/>
+      <c r="BD214" s="5"/>
+      <c r="BE214" s="5"/>
+      <c r="BF214" s="5"/>
+    </row>
+    <row r="215" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C215" s="5"/>
       <c r="D215" s="5"/>
       <c r="E215" s="5"/>
@@ -13316,8 +14554,12 @@
       <c r="AZ215" s="5"/>
       <c r="BA215" s="5"/>
       <c r="BB215" s="5"/>
-    </row>
-    <row r="216" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC215" s="5"/>
+      <c r="BD215" s="5"/>
+      <c r="BE215" s="5"/>
+      <c r="BF215" s="5"/>
+    </row>
+    <row r="216" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C216" s="5"/>
       <c r="D216" s="5"/>
       <c r="E216" s="5"/>
@@ -13370,8 +14612,12 @@
       <c r="AZ216" s="5"/>
       <c r="BA216" s="5"/>
       <c r="BB216" s="5"/>
-    </row>
-    <row r="217" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC216" s="5"/>
+      <c r="BD216" s="5"/>
+      <c r="BE216" s="5"/>
+      <c r="BF216" s="5"/>
+    </row>
+    <row r="217" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C217" s="5"/>
       <c r="D217" s="5"/>
       <c r="E217" s="5"/>
@@ -13424,8 +14670,12 @@
       <c r="AZ217" s="5"/>
       <c r="BA217" s="5"/>
       <c r="BB217" s="5"/>
-    </row>
-    <row r="218" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC217" s="5"/>
+      <c r="BD217" s="5"/>
+      <c r="BE217" s="5"/>
+      <c r="BF217" s="5"/>
+    </row>
+    <row r="218" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C218" s="5"/>
       <c r="D218" s="5"/>
       <c r="E218" s="5"/>
@@ -13478,8 +14728,12 @@
       <c r="AZ218" s="5"/>
       <c r="BA218" s="5"/>
       <c r="BB218" s="5"/>
-    </row>
-    <row r="219" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC218" s="5"/>
+      <c r="BD218" s="5"/>
+      <c r="BE218" s="5"/>
+      <c r="BF218" s="5"/>
+    </row>
+    <row r="219" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C219" s="5"/>
       <c r="D219" s="5"/>
       <c r="E219" s="5"/>
@@ -13532,8 +14786,12 @@
       <c r="AZ219" s="5"/>
       <c r="BA219" s="5"/>
       <c r="BB219" s="5"/>
-    </row>
-    <row r="220" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC219" s="5"/>
+      <c r="BD219" s="5"/>
+      <c r="BE219" s="5"/>
+      <c r="BF219" s="5"/>
+    </row>
+    <row r="220" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C220" s="5"/>
       <c r="D220" s="5"/>
       <c r="E220" s="5"/>
@@ -13586,8 +14844,12 @@
       <c r="AZ220" s="5"/>
       <c r="BA220" s="5"/>
       <c r="BB220" s="5"/>
-    </row>
-    <row r="221" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC220" s="5"/>
+      <c r="BD220" s="5"/>
+      <c r="BE220" s="5"/>
+      <c r="BF220" s="5"/>
+    </row>
+    <row r="221" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C221" s="5"/>
       <c r="D221" s="5"/>
       <c r="E221" s="5"/>
@@ -13640,8 +14902,12 @@
       <c r="AZ221" s="5"/>
       <c r="BA221" s="5"/>
       <c r="BB221" s="5"/>
-    </row>
-    <row r="222" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC221" s="5"/>
+      <c r="BD221" s="5"/>
+      <c r="BE221" s="5"/>
+      <c r="BF221" s="5"/>
+    </row>
+    <row r="222" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C222" s="5"/>
       <c r="D222" s="5"/>
       <c r="E222" s="5"/>
@@ -13694,8 +14960,12 @@
       <c r="AZ222" s="5"/>
       <c r="BA222" s="5"/>
       <c r="BB222" s="5"/>
-    </row>
-    <row r="223" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC222" s="5"/>
+      <c r="BD222" s="5"/>
+      <c r="BE222" s="5"/>
+      <c r="BF222" s="5"/>
+    </row>
+    <row r="223" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C223" s="5"/>
       <c r="D223" s="5"/>
       <c r="E223" s="5"/>
@@ -13748,8 +15018,12 @@
       <c r="AZ223" s="5"/>
       <c r="BA223" s="5"/>
       <c r="BB223" s="5"/>
-    </row>
-    <row r="224" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC223" s="5"/>
+      <c r="BD223" s="5"/>
+      <c r="BE223" s="5"/>
+      <c r="BF223" s="5"/>
+    </row>
+    <row r="224" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C224" s="5"/>
       <c r="D224" s="5"/>
       <c r="E224" s="5"/>
@@ -13802,8 +15076,12 @@
       <c r="AZ224" s="5"/>
       <c r="BA224" s="5"/>
       <c r="BB224" s="5"/>
-    </row>
-    <row r="225" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC224" s="5"/>
+      <c r="BD224" s="5"/>
+      <c r="BE224" s="5"/>
+      <c r="BF224" s="5"/>
+    </row>
+    <row r="225" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C225" s="5"/>
       <c r="D225" s="5"/>
       <c r="E225" s="5"/>
@@ -13856,8 +15134,12 @@
       <c r="AZ225" s="5"/>
       <c r="BA225" s="5"/>
       <c r="BB225" s="5"/>
-    </row>
-    <row r="226" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC225" s="5"/>
+      <c r="BD225" s="5"/>
+      <c r="BE225" s="5"/>
+      <c r="BF225" s="5"/>
+    </row>
+    <row r="226" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C226" s="5"/>
       <c r="D226" s="5"/>
       <c r="E226" s="5"/>
@@ -13910,8 +15192,12 @@
       <c r="AZ226" s="5"/>
       <c r="BA226" s="5"/>
       <c r="BB226" s="5"/>
-    </row>
-    <row r="227" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC226" s="5"/>
+      <c r="BD226" s="5"/>
+      <c r="BE226" s="5"/>
+      <c r="BF226" s="5"/>
+    </row>
+    <row r="227" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C227" s="5"/>
       <c r="D227" s="5"/>
       <c r="E227" s="5"/>
@@ -13964,8 +15250,12 @@
       <c r="AZ227" s="5"/>
       <c r="BA227" s="5"/>
       <c r="BB227" s="5"/>
-    </row>
-    <row r="228" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC227" s="5"/>
+      <c r="BD227" s="5"/>
+      <c r="BE227" s="5"/>
+      <c r="BF227" s="5"/>
+    </row>
+    <row r="228" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C228" s="5"/>
       <c r="D228" s="5"/>
       <c r="E228" s="5"/>
@@ -14018,8 +15308,12 @@
       <c r="AZ228" s="5"/>
       <c r="BA228" s="5"/>
       <c r="BB228" s="5"/>
-    </row>
-    <row r="229" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC228" s="5"/>
+      <c r="BD228" s="5"/>
+      <c r="BE228" s="5"/>
+      <c r="BF228" s="5"/>
+    </row>
+    <row r="229" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C229" s="5"/>
       <c r="D229" s="5"/>
       <c r="E229" s="5"/>
@@ -14072,8 +15366,12 @@
       <c r="AZ229" s="5"/>
       <c r="BA229" s="5"/>
       <c r="BB229" s="5"/>
-    </row>
-    <row r="230" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC229" s="5"/>
+      <c r="BD229" s="5"/>
+      <c r="BE229" s="5"/>
+      <c r="BF229" s="5"/>
+    </row>
+    <row r="230" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C230" s="5"/>
       <c r="D230" s="5"/>
       <c r="E230" s="5"/>
@@ -14126,8 +15424,12 @@
       <c r="AZ230" s="5"/>
       <c r="BA230" s="5"/>
       <c r="BB230" s="5"/>
-    </row>
-    <row r="231" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC230" s="5"/>
+      <c r="BD230" s="5"/>
+      <c r="BE230" s="5"/>
+      <c r="BF230" s="5"/>
+    </row>
+    <row r="231" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C231" s="5"/>
       <c r="D231" s="5"/>
       <c r="E231" s="5"/>
@@ -14180,8 +15482,12 @@
       <c r="AZ231" s="5"/>
       <c r="BA231" s="5"/>
       <c r="BB231" s="5"/>
-    </row>
-    <row r="232" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC231" s="5"/>
+      <c r="BD231" s="5"/>
+      <c r="BE231" s="5"/>
+      <c r="BF231" s="5"/>
+    </row>
+    <row r="232" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C232" s="5"/>
       <c r="D232" s="5"/>
       <c r="E232" s="5"/>
@@ -14234,8 +15540,12 @@
       <c r="AZ232" s="5"/>
       <c r="BA232" s="5"/>
       <c r="BB232" s="5"/>
-    </row>
-    <row r="233" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC232" s="5"/>
+      <c r="BD232" s="5"/>
+      <c r="BE232" s="5"/>
+      <c r="BF232" s="5"/>
+    </row>
+    <row r="233" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C233" s="5"/>
       <c r="D233" s="5"/>
       <c r="E233" s="5"/>
@@ -14288,8 +15598,12 @@
       <c r="AZ233" s="5"/>
       <c r="BA233" s="5"/>
       <c r="BB233" s="5"/>
-    </row>
-    <row r="234" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC233" s="5"/>
+      <c r="BD233" s="5"/>
+      <c r="BE233" s="5"/>
+      <c r="BF233" s="5"/>
+    </row>
+    <row r="234" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C234" s="5"/>
       <c r="D234" s="5"/>
       <c r="E234" s="5"/>
@@ -14342,8 +15656,12 @@
       <c r="AZ234" s="5"/>
       <c r="BA234" s="5"/>
       <c r="BB234" s="5"/>
-    </row>
-    <row r="235" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC234" s="5"/>
+      <c r="BD234" s="5"/>
+      <c r="BE234" s="5"/>
+      <c r="BF234" s="5"/>
+    </row>
+    <row r="235" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C235" s="5"/>
       <c r="D235" s="5"/>
       <c r="E235" s="5"/>
@@ -14396,8 +15714,12 @@
       <c r="AZ235" s="5"/>
       <c r="BA235" s="5"/>
       <c r="BB235" s="5"/>
-    </row>
-    <row r="236" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC235" s="5"/>
+      <c r="BD235" s="5"/>
+      <c r="BE235" s="5"/>
+      <c r="BF235" s="5"/>
+    </row>
+    <row r="236" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C236" s="5"/>
       <c r="D236" s="5"/>
       <c r="E236" s="5"/>
@@ -14450,8 +15772,12 @@
       <c r="AZ236" s="5"/>
       <c r="BA236" s="5"/>
       <c r="BB236" s="5"/>
-    </row>
-    <row r="237" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC236" s="5"/>
+      <c r="BD236" s="5"/>
+      <c r="BE236" s="5"/>
+      <c r="BF236" s="5"/>
+    </row>
+    <row r="237" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C237" s="5"/>
       <c r="D237" s="5"/>
       <c r="E237" s="5"/>
@@ -14504,8 +15830,12 @@
       <c r="AZ237" s="5"/>
       <c r="BA237" s="5"/>
       <c r="BB237" s="5"/>
-    </row>
-    <row r="238" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC237" s="5"/>
+      <c r="BD237" s="5"/>
+      <c r="BE237" s="5"/>
+      <c r="BF237" s="5"/>
+    </row>
+    <row r="238" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C238" s="5"/>
       <c r="D238" s="5"/>
       <c r="E238" s="5"/>
@@ -14558,8 +15888,12 @@
       <c r="AZ238" s="5"/>
       <c r="BA238" s="5"/>
       <c r="BB238" s="5"/>
-    </row>
-    <row r="239" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC238" s="5"/>
+      <c r="BD238" s="5"/>
+      <c r="BE238" s="5"/>
+      <c r="BF238" s="5"/>
+    </row>
+    <row r="239" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C239" s="5"/>
       <c r="D239" s="5"/>
       <c r="E239" s="5"/>
@@ -14612,8 +15946,12 @@
       <c r="AZ239" s="5"/>
       <c r="BA239" s="5"/>
       <c r="BB239" s="5"/>
-    </row>
-    <row r="240" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC239" s="5"/>
+      <c r="BD239" s="5"/>
+      <c r="BE239" s="5"/>
+      <c r="BF239" s="5"/>
+    </row>
+    <row r="240" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C240" s="5"/>
       <c r="D240" s="5"/>
       <c r="E240" s="5"/>
@@ -14666,8 +16004,12 @@
       <c r="AZ240" s="5"/>
       <c r="BA240" s="5"/>
       <c r="BB240" s="5"/>
-    </row>
-    <row r="241" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC240" s="5"/>
+      <c r="BD240" s="5"/>
+      <c r="BE240" s="5"/>
+      <c r="BF240" s="5"/>
+    </row>
+    <row r="241" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C241" s="5"/>
       <c r="D241" s="5"/>
       <c r="E241" s="5"/>
@@ -14720,8 +16062,12 @@
       <c r="AZ241" s="5"/>
       <c r="BA241" s="5"/>
       <c r="BB241" s="5"/>
-    </row>
-    <row r="242" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC241" s="5"/>
+      <c r="BD241" s="5"/>
+      <c r="BE241" s="5"/>
+      <c r="BF241" s="5"/>
+    </row>
+    <row r="242" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C242" s="5"/>
       <c r="D242" s="5"/>
       <c r="E242" s="5"/>
@@ -14774,8 +16120,12 @@
       <c r="AZ242" s="5"/>
       <c r="BA242" s="5"/>
       <c r="BB242" s="5"/>
-    </row>
-    <row r="243" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC242" s="5"/>
+      <c r="BD242" s="5"/>
+      <c r="BE242" s="5"/>
+      <c r="BF242" s="5"/>
+    </row>
+    <row r="243" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C243" s="5"/>
       <c r="D243" s="5"/>
       <c r="E243" s="5"/>
@@ -14828,8 +16178,12 @@
       <c r="AZ243" s="5"/>
       <c r="BA243" s="5"/>
       <c r="BB243" s="5"/>
-    </row>
-    <row r="244" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC243" s="5"/>
+      <c r="BD243" s="5"/>
+      <c r="BE243" s="5"/>
+      <c r="BF243" s="5"/>
+    </row>
+    <row r="244" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C244" s="5"/>
       <c r="D244" s="5"/>
       <c r="E244" s="5"/>
@@ -14882,8 +16236,12 @@
       <c r="AZ244" s="5"/>
       <c r="BA244" s="5"/>
       <c r="BB244" s="5"/>
-    </row>
-    <row r="245" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC244" s="5"/>
+      <c r="BD244" s="5"/>
+      <c r="BE244" s="5"/>
+      <c r="BF244" s="5"/>
+    </row>
+    <row r="245" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C245" s="5"/>
       <c r="D245" s="5"/>
       <c r="E245" s="5"/>
@@ -14936,8 +16294,12 @@
       <c r="AZ245" s="5"/>
       <c r="BA245" s="5"/>
       <c r="BB245" s="5"/>
-    </row>
-    <row r="246" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC245" s="5"/>
+      <c r="BD245" s="5"/>
+      <c r="BE245" s="5"/>
+      <c r="BF245" s="5"/>
+    </row>
+    <row r="246" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C246" s="5"/>
       <c r="D246" s="5"/>
       <c r="E246" s="5"/>
@@ -14990,8 +16352,12 @@
       <c r="AZ246" s="5"/>
       <c r="BA246" s="5"/>
       <c r="BB246" s="5"/>
-    </row>
-    <row r="247" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC246" s="5"/>
+      <c r="BD246" s="5"/>
+      <c r="BE246" s="5"/>
+      <c r="BF246" s="5"/>
+    </row>
+    <row r="247" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C247" s="5"/>
       <c r="D247" s="5"/>
       <c r="E247" s="5"/>
@@ -15044,8 +16410,12 @@
       <c r="AZ247" s="5"/>
       <c r="BA247" s="5"/>
       <c r="BB247" s="5"/>
-    </row>
-    <row r="248" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC247" s="5"/>
+      <c r="BD247" s="5"/>
+      <c r="BE247" s="5"/>
+      <c r="BF247" s="5"/>
+    </row>
+    <row r="248" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C248" s="5"/>
       <c r="D248" s="5"/>
       <c r="E248" s="5"/>
@@ -15098,8 +16468,12 @@
       <c r="AZ248" s="5"/>
       <c r="BA248" s="5"/>
       <c r="BB248" s="5"/>
-    </row>
-    <row r="249" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC248" s="5"/>
+      <c r="BD248" s="5"/>
+      <c r="BE248" s="5"/>
+      <c r="BF248" s="5"/>
+    </row>
+    <row r="249" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C249" s="5"/>
       <c r="D249" s="5"/>
       <c r="E249" s="5"/>
@@ -15152,8 +16526,12 @@
       <c r="AZ249" s="5"/>
       <c r="BA249" s="5"/>
       <c r="BB249" s="5"/>
-    </row>
-    <row r="250" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC249" s="5"/>
+      <c r="BD249" s="5"/>
+      <c r="BE249" s="5"/>
+      <c r="BF249" s="5"/>
+    </row>
+    <row r="250" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C250" s="5"/>
       <c r="D250" s="5"/>
       <c r="E250" s="5"/>
@@ -15206,8 +16584,12 @@
       <c r="AZ250" s="5"/>
       <c r="BA250" s="5"/>
       <c r="BB250" s="5"/>
-    </row>
-    <row r="251" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC250" s="5"/>
+      <c r="BD250" s="5"/>
+      <c r="BE250" s="5"/>
+      <c r="BF250" s="5"/>
+    </row>
+    <row r="251" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C251" s="5"/>
       <c r="D251" s="5"/>
       <c r="E251" s="5"/>
@@ -15260,8 +16642,12 @@
       <c r="AZ251" s="5"/>
       <c r="BA251" s="5"/>
       <c r="BB251" s="5"/>
-    </row>
-    <row r="252" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC251" s="5"/>
+      <c r="BD251" s="5"/>
+      <c r="BE251" s="5"/>
+      <c r="BF251" s="5"/>
+    </row>
+    <row r="252" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C252" s="5"/>
       <c r="D252" s="5"/>
       <c r="E252" s="5"/>
@@ -15314,8 +16700,12 @@
       <c r="AZ252" s="5"/>
       <c r="BA252" s="5"/>
       <c r="BB252" s="5"/>
-    </row>
-    <row r="253" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC252" s="5"/>
+      <c r="BD252" s="5"/>
+      <c r="BE252" s="5"/>
+      <c r="BF252" s="5"/>
+    </row>
+    <row r="253" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C253" s="5"/>
       <c r="D253" s="5"/>
       <c r="E253" s="5"/>
@@ -15368,8 +16758,12 @@
       <c r="AZ253" s="5"/>
       <c r="BA253" s="5"/>
       <c r="BB253" s="5"/>
-    </row>
-    <row r="254" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC253" s="5"/>
+      <c r="BD253" s="5"/>
+      <c r="BE253" s="5"/>
+      <c r="BF253" s="5"/>
+    </row>
+    <row r="254" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C254" s="5"/>
       <c r="D254" s="5"/>
       <c r="E254" s="5"/>
@@ -15422,8 +16816,12 @@
       <c r="AZ254" s="5"/>
       <c r="BA254" s="5"/>
       <c r="BB254" s="5"/>
-    </row>
-    <row r="255" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC254" s="5"/>
+      <c r="BD254" s="5"/>
+      <c r="BE254" s="5"/>
+      <c r="BF254" s="5"/>
+    </row>
+    <row r="255" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C255" s="5"/>
       <c r="D255" s="5"/>
       <c r="E255" s="5"/>
@@ -15476,8 +16874,12 @@
       <c r="AZ255" s="5"/>
       <c r="BA255" s="5"/>
       <c r="BB255" s="5"/>
-    </row>
-    <row r="256" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC255" s="5"/>
+      <c r="BD255" s="5"/>
+      <c r="BE255" s="5"/>
+      <c r="BF255" s="5"/>
+    </row>
+    <row r="256" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C256" s="5"/>
       <c r="D256" s="5"/>
       <c r="E256" s="5"/>
@@ -15530,8 +16932,12 @@
       <c r="AZ256" s="5"/>
       <c r="BA256" s="5"/>
       <c r="BB256" s="5"/>
-    </row>
-    <row r="257" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC256" s="5"/>
+      <c r="BD256" s="5"/>
+      <c r="BE256" s="5"/>
+      <c r="BF256" s="5"/>
+    </row>
+    <row r="257" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C257" s="5"/>
       <c r="D257" s="5"/>
       <c r="E257" s="5"/>
@@ -15584,8 +16990,12 @@
       <c r="AZ257" s="5"/>
       <c r="BA257" s="5"/>
       <c r="BB257" s="5"/>
-    </row>
-    <row r="258" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC257" s="5"/>
+      <c r="BD257" s="5"/>
+      <c r="BE257" s="5"/>
+      <c r="BF257" s="5"/>
+    </row>
+    <row r="258" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C258" s="5"/>
       <c r="D258" s="5"/>
       <c r="E258" s="5"/>
@@ -15638,8 +17048,12 @@
       <c r="AZ258" s="5"/>
       <c r="BA258" s="5"/>
       <c r="BB258" s="5"/>
-    </row>
-    <row r="259" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC258" s="5"/>
+      <c r="BD258" s="5"/>
+      <c r="BE258" s="5"/>
+      <c r="BF258" s="5"/>
+    </row>
+    <row r="259" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C259" s="5"/>
       <c r="D259" s="5"/>
       <c r="E259" s="5"/>
@@ -15692,8 +17106,12 @@
       <c r="AZ259" s="5"/>
       <c r="BA259" s="5"/>
       <c r="BB259" s="5"/>
-    </row>
-    <row r="260" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC259" s="5"/>
+      <c r="BD259" s="5"/>
+      <c r="BE259" s="5"/>
+      <c r="BF259" s="5"/>
+    </row>
+    <row r="260" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C260" s="5"/>
       <c r="D260" s="5"/>
       <c r="E260" s="5"/>
@@ -15746,8 +17164,12 @@
       <c r="AZ260" s="5"/>
       <c r="BA260" s="5"/>
       <c r="BB260" s="5"/>
-    </row>
-    <row r="261" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC260" s="5"/>
+      <c r="BD260" s="5"/>
+      <c r="BE260" s="5"/>
+      <c r="BF260" s="5"/>
+    </row>
+    <row r="261" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C261" s="5"/>
       <c r="D261" s="5"/>
       <c r="E261" s="5"/>
@@ -15800,8 +17222,12 @@
       <c r="AZ261" s="5"/>
       <c r="BA261" s="5"/>
       <c r="BB261" s="5"/>
-    </row>
-    <row r="262" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC261" s="5"/>
+      <c r="BD261" s="5"/>
+      <c r="BE261" s="5"/>
+      <c r="BF261" s="5"/>
+    </row>
+    <row r="262" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C262" s="5"/>
       <c r="D262" s="5"/>
       <c r="E262" s="5"/>
@@ -15854,8 +17280,12 @@
       <c r="AZ262" s="5"/>
       <c r="BA262" s="5"/>
       <c r="BB262" s="5"/>
-    </row>
-    <row r="263" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC262" s="5"/>
+      <c r="BD262" s="5"/>
+      <c r="BE262" s="5"/>
+      <c r="BF262" s="5"/>
+    </row>
+    <row r="263" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C263" s="5"/>
       <c r="D263" s="5"/>
       <c r="E263" s="5"/>
@@ -15908,8 +17338,12 @@
       <c r="AZ263" s="5"/>
       <c r="BA263" s="5"/>
       <c r="BB263" s="5"/>
-    </row>
-    <row r="264" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC263" s="5"/>
+      <c r="BD263" s="5"/>
+      <c r="BE263" s="5"/>
+      <c r="BF263" s="5"/>
+    </row>
+    <row r="264" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C264" s="5"/>
       <c r="D264" s="5"/>
       <c r="E264" s="5"/>
@@ -15962,8 +17396,12 @@
       <c r="AZ264" s="5"/>
       <c r="BA264" s="5"/>
       <c r="BB264" s="5"/>
-    </row>
-    <row r="265" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC264" s="5"/>
+      <c r="BD264" s="5"/>
+      <c r="BE264" s="5"/>
+      <c r="BF264" s="5"/>
+    </row>
+    <row r="265" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C265" s="5"/>
       <c r="D265" s="5"/>
       <c r="E265" s="5"/>
@@ -16016,8 +17454,12 @@
       <c r="AZ265" s="5"/>
       <c r="BA265" s="5"/>
       <c r="BB265" s="5"/>
-    </row>
-    <row r="266" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC265" s="5"/>
+      <c r="BD265" s="5"/>
+      <c r="BE265" s="5"/>
+      <c r="BF265" s="5"/>
+    </row>
+    <row r="266" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C266" s="5"/>
       <c r="D266" s="5"/>
       <c r="E266" s="5"/>
@@ -16070,8 +17512,12 @@
       <c r="AZ266" s="5"/>
       <c r="BA266" s="5"/>
       <c r="BB266" s="5"/>
-    </row>
-    <row r="267" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC266" s="5"/>
+      <c r="BD266" s="5"/>
+      <c r="BE266" s="5"/>
+      <c r="BF266" s="5"/>
+    </row>
+    <row r="267" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C267" s="5"/>
       <c r="D267" s="5"/>
       <c r="E267" s="5"/>
@@ -16124,8 +17570,12 @@
       <c r="AZ267" s="5"/>
       <c r="BA267" s="5"/>
       <c r="BB267" s="5"/>
-    </row>
-    <row r="268" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC267" s="5"/>
+      <c r="BD267" s="5"/>
+      <c r="BE267" s="5"/>
+      <c r="BF267" s="5"/>
+    </row>
+    <row r="268" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C268" s="5"/>
       <c r="D268" s="5"/>
       <c r="E268" s="5"/>
@@ -16178,8 +17628,12 @@
       <c r="AZ268" s="5"/>
       <c r="BA268" s="5"/>
       <c r="BB268" s="5"/>
-    </row>
-    <row r="269" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC268" s="5"/>
+      <c r="BD268" s="5"/>
+      <c r="BE268" s="5"/>
+      <c r="BF268" s="5"/>
+    </row>
+    <row r="269" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C269" s="5"/>
       <c r="D269" s="5"/>
       <c r="E269" s="5"/>
@@ -16232,8 +17686,12 @@
       <c r="AZ269" s="5"/>
       <c r="BA269" s="5"/>
       <c r="BB269" s="5"/>
-    </row>
-    <row r="270" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC269" s="5"/>
+      <c r="BD269" s="5"/>
+      <c r="BE269" s="5"/>
+      <c r="BF269" s="5"/>
+    </row>
+    <row r="270" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C270" s="5"/>
       <c r="D270" s="5"/>
       <c r="E270" s="5"/>
@@ -16286,8 +17744,12 @@
       <c r="AZ270" s="5"/>
       <c r="BA270" s="5"/>
       <c r="BB270" s="5"/>
-    </row>
-    <row r="271" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC270" s="5"/>
+      <c r="BD270" s="5"/>
+      <c r="BE270" s="5"/>
+      <c r="BF270" s="5"/>
+    </row>
+    <row r="271" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C271" s="5"/>
       <c r="D271" s="5"/>
       <c r="E271" s="5"/>
@@ -16340,8 +17802,12 @@
       <c r="AZ271" s="5"/>
       <c r="BA271" s="5"/>
       <c r="BB271" s="5"/>
-    </row>
-    <row r="272" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC271" s="5"/>
+      <c r="BD271" s="5"/>
+      <c r="BE271" s="5"/>
+      <c r="BF271" s="5"/>
+    </row>
+    <row r="272" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C272" s="5"/>
       <c r="D272" s="5"/>
       <c r="E272" s="5"/>
@@ -16394,8 +17860,12 @@
       <c r="AZ272" s="5"/>
       <c r="BA272" s="5"/>
       <c r="BB272" s="5"/>
-    </row>
-    <row r="273" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC272" s="5"/>
+      <c r="BD272" s="5"/>
+      <c r="BE272" s="5"/>
+      <c r="BF272" s="5"/>
+    </row>
+    <row r="273" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C273" s="5"/>
       <c r="D273" s="5"/>
       <c r="E273" s="5"/>
@@ -16448,8 +17918,12 @@
       <c r="AZ273" s="5"/>
       <c r="BA273" s="5"/>
       <c r="BB273" s="5"/>
-    </row>
-    <row r="274" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC273" s="5"/>
+      <c r="BD273" s="5"/>
+      <c r="BE273" s="5"/>
+      <c r="BF273" s="5"/>
+    </row>
+    <row r="274" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C274" s="5"/>
       <c r="D274" s="5"/>
       <c r="E274" s="5"/>
@@ -16502,8 +17976,12 @@
       <c r="AZ274" s="5"/>
       <c r="BA274" s="5"/>
       <c r="BB274" s="5"/>
-    </row>
-    <row r="275" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC274" s="5"/>
+      <c r="BD274" s="5"/>
+      <c r="BE274" s="5"/>
+      <c r="BF274" s="5"/>
+    </row>
+    <row r="275" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C275" s="5"/>
       <c r="D275" s="5"/>
       <c r="E275" s="5"/>
@@ -16556,8 +18034,12 @@
       <c r="AZ275" s="5"/>
       <c r="BA275" s="5"/>
       <c r="BB275" s="5"/>
-    </row>
-    <row r="276" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC275" s="5"/>
+      <c r="BD275" s="5"/>
+      <c r="BE275" s="5"/>
+      <c r="BF275" s="5"/>
+    </row>
+    <row r="276" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C276" s="5"/>
       <c r="D276" s="5"/>
       <c r="E276" s="5"/>
@@ -16610,8 +18092,12 @@
       <c r="AZ276" s="5"/>
       <c r="BA276" s="5"/>
       <c r="BB276" s="5"/>
-    </row>
-    <row r="277" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC276" s="5"/>
+      <c r="BD276" s="5"/>
+      <c r="BE276" s="5"/>
+      <c r="BF276" s="5"/>
+    </row>
+    <row r="277" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C277" s="5"/>
       <c r="D277" s="5"/>
       <c r="E277" s="5"/>
@@ -16664,8 +18150,12 @@
       <c r="AZ277" s="5"/>
       <c r="BA277" s="5"/>
       <c r="BB277" s="5"/>
-    </row>
-    <row r="278" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC277" s="5"/>
+      <c r="BD277" s="5"/>
+      <c r="BE277" s="5"/>
+      <c r="BF277" s="5"/>
+    </row>
+    <row r="278" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C278" s="5"/>
       <c r="D278" s="5"/>
       <c r="E278" s="5"/>
@@ -16718,8 +18208,12 @@
       <c r="AZ278" s="5"/>
       <c r="BA278" s="5"/>
       <c r="BB278" s="5"/>
-    </row>
-    <row r="279" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC278" s="5"/>
+      <c r="BD278" s="5"/>
+      <c r="BE278" s="5"/>
+      <c r="BF278" s="5"/>
+    </row>
+    <row r="279" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C279" s="5"/>
       <c r="D279" s="5"/>
       <c r="E279" s="5"/>
@@ -16772,8 +18266,12 @@
       <c r="AZ279" s="5"/>
       <c r="BA279" s="5"/>
       <c r="BB279" s="5"/>
-    </row>
-    <row r="280" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC279" s="5"/>
+      <c r="BD279" s="5"/>
+      <c r="BE279" s="5"/>
+      <c r="BF279" s="5"/>
+    </row>
+    <row r="280" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C280" s="5"/>
       <c r="D280" s="5"/>
       <c r="E280" s="5"/>
@@ -16826,8 +18324,12 @@
       <c r="AZ280" s="5"/>
       <c r="BA280" s="5"/>
       <c r="BB280" s="5"/>
-    </row>
-    <row r="281" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC280" s="5"/>
+      <c r="BD280" s="5"/>
+      <c r="BE280" s="5"/>
+      <c r="BF280" s="5"/>
+    </row>
+    <row r="281" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C281" s="5"/>
       <c r="D281" s="5"/>
       <c r="E281" s="5"/>
@@ -16880,8 +18382,12 @@
       <c r="AZ281" s="5"/>
       <c r="BA281" s="5"/>
       <c r="BB281" s="5"/>
-    </row>
-    <row r="282" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC281" s="5"/>
+      <c r="BD281" s="5"/>
+      <c r="BE281" s="5"/>
+      <c r="BF281" s="5"/>
+    </row>
+    <row r="282" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C282" s="5"/>
       <c r="D282" s="5"/>
       <c r="E282" s="5"/>
@@ -16934,8 +18440,12 @@
       <c r="AZ282" s="5"/>
       <c r="BA282" s="5"/>
       <c r="BB282" s="5"/>
-    </row>
-    <row r="283" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC282" s="5"/>
+      <c r="BD282" s="5"/>
+      <c r="BE282" s="5"/>
+      <c r="BF282" s="5"/>
+    </row>
+    <row r="283" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C283" s="5"/>
       <c r="D283" s="5"/>
       <c r="E283" s="5"/>
@@ -16988,8 +18498,12 @@
       <c r="AZ283" s="5"/>
       <c r="BA283" s="5"/>
       <c r="BB283" s="5"/>
-    </row>
-    <row r="284" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC283" s="5"/>
+      <c r="BD283" s="5"/>
+      <c r="BE283" s="5"/>
+      <c r="BF283" s="5"/>
+    </row>
+    <row r="284" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C284" s="5"/>
       <c r="D284" s="5"/>
       <c r="E284" s="5"/>
@@ -17042,8 +18556,12 @@
       <c r="AZ284" s="5"/>
       <c r="BA284" s="5"/>
       <c r="BB284" s="5"/>
-    </row>
-    <row r="285" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC284" s="5"/>
+      <c r="BD284" s="5"/>
+      <c r="BE284" s="5"/>
+      <c r="BF284" s="5"/>
+    </row>
+    <row r="285" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C285" s="5"/>
       <c r="D285" s="5"/>
       <c r="E285" s="5"/>
@@ -17096,8 +18614,12 @@
       <c r="AZ285" s="5"/>
       <c r="BA285" s="5"/>
       <c r="BB285" s="5"/>
-    </row>
-    <row r="286" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC285" s="5"/>
+      <c r="BD285" s="5"/>
+      <c r="BE285" s="5"/>
+      <c r="BF285" s="5"/>
+    </row>
+    <row r="286" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C286" s="5"/>
       <c r="D286" s="5"/>
       <c r="E286" s="5"/>
@@ -17150,8 +18672,12 @@
       <c r="AZ286" s="5"/>
       <c r="BA286" s="5"/>
       <c r="BB286" s="5"/>
-    </row>
-    <row r="287" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC286" s="5"/>
+      <c r="BD286" s="5"/>
+      <c r="BE286" s="5"/>
+      <c r="BF286" s="5"/>
+    </row>
+    <row r="287" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C287" s="5"/>
       <c r="D287" s="5"/>
       <c r="E287" s="5"/>
@@ -17204,8 +18730,12 @@
       <c r="AZ287" s="5"/>
       <c r="BA287" s="5"/>
       <c r="BB287" s="5"/>
-    </row>
-    <row r="288" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC287" s="5"/>
+      <c r="BD287" s="5"/>
+      <c r="BE287" s="5"/>
+      <c r="BF287" s="5"/>
+    </row>
+    <row r="288" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C288" s="5"/>
       <c r="D288" s="5"/>
       <c r="E288" s="5"/>
@@ -17258,8 +18788,12 @@
       <c r="AZ288" s="5"/>
       <c r="BA288" s="5"/>
       <c r="BB288" s="5"/>
-    </row>
-    <row r="289" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC288" s="5"/>
+      <c r="BD288" s="5"/>
+      <c r="BE288" s="5"/>
+      <c r="BF288" s="5"/>
+    </row>
+    <row r="289" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C289" s="5"/>
       <c r="D289" s="5"/>
       <c r="E289" s="5"/>
@@ -17312,8 +18846,12 @@
       <c r="AZ289" s="5"/>
       <c r="BA289" s="5"/>
       <c r="BB289" s="5"/>
-    </row>
-    <row r="290" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC289" s="5"/>
+      <c r="BD289" s="5"/>
+      <c r="BE289" s="5"/>
+      <c r="BF289" s="5"/>
+    </row>
+    <row r="290" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C290" s="5"/>
       <c r="D290" s="5"/>
       <c r="E290" s="5"/>
@@ -17366,8 +18904,12 @@
       <c r="AZ290" s="5"/>
       <c r="BA290" s="5"/>
       <c r="BB290" s="5"/>
-    </row>
-    <row r="291" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC290" s="5"/>
+      <c r="BD290" s="5"/>
+      <c r="BE290" s="5"/>
+      <c r="BF290" s="5"/>
+    </row>
+    <row r="291" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C291" s="5"/>
       <c r="D291" s="5"/>
       <c r="E291" s="5"/>
@@ -17420,8 +18962,12 @@
       <c r="AZ291" s="5"/>
       <c r="BA291" s="5"/>
       <c r="BB291" s="5"/>
-    </row>
-    <row r="292" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC291" s="5"/>
+      <c r="BD291" s="5"/>
+      <c r="BE291" s="5"/>
+      <c r="BF291" s="5"/>
+    </row>
+    <row r="292" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C292" s="5"/>
       <c r="D292" s="5"/>
       <c r="E292" s="5"/>
@@ -17474,8 +19020,12 @@
       <c r="AZ292" s="5"/>
       <c r="BA292" s="5"/>
       <c r="BB292" s="5"/>
-    </row>
-    <row r="293" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC292" s="5"/>
+      <c r="BD292" s="5"/>
+      <c r="BE292" s="5"/>
+      <c r="BF292" s="5"/>
+    </row>
+    <row r="293" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C293" s="5"/>
       <c r="D293" s="5"/>
       <c r="E293" s="5"/>
@@ -17528,8 +19078,12 @@
       <c r="AZ293" s="5"/>
       <c r="BA293" s="5"/>
       <c r="BB293" s="5"/>
-    </row>
-    <row r="294" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC293" s="5"/>
+      <c r="BD293" s="5"/>
+      <c r="BE293" s="5"/>
+      <c r="BF293" s="5"/>
+    </row>
+    <row r="294" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C294" s="5"/>
       <c r="D294" s="5"/>
       <c r="E294" s="5"/>
@@ -17582,8 +19136,12 @@
       <c r="AZ294" s="5"/>
       <c r="BA294" s="5"/>
       <c r="BB294" s="5"/>
-    </row>
-    <row r="295" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC294" s="5"/>
+      <c r="BD294" s="5"/>
+      <c r="BE294" s="5"/>
+      <c r="BF294" s="5"/>
+    </row>
+    <row r="295" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C295" s="5"/>
       <c r="D295" s="5"/>
       <c r="E295" s="5"/>
@@ -17636,8 +19194,12 @@
       <c r="AZ295" s="5"/>
       <c r="BA295" s="5"/>
       <c r="BB295" s="5"/>
-    </row>
-    <row r="296" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC295" s="5"/>
+      <c r="BD295" s="5"/>
+      <c r="BE295" s="5"/>
+      <c r="BF295" s="5"/>
+    </row>
+    <row r="296" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C296" s="5"/>
       <c r="D296" s="5"/>
       <c r="E296" s="5"/>
@@ -17690,8 +19252,12 @@
       <c r="AZ296" s="5"/>
       <c r="BA296" s="5"/>
       <c r="BB296" s="5"/>
-    </row>
-    <row r="297" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC296" s="5"/>
+      <c r="BD296" s="5"/>
+      <c r="BE296" s="5"/>
+      <c r="BF296" s="5"/>
+    </row>
+    <row r="297" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C297" s="5"/>
       <c r="D297" s="5"/>
       <c r="E297" s="5"/>
@@ -17744,8 +19310,12 @@
       <c r="AZ297" s="5"/>
       <c r="BA297" s="5"/>
       <c r="BB297" s="5"/>
-    </row>
-    <row r="298" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC297" s="5"/>
+      <c r="BD297" s="5"/>
+      <c r="BE297" s="5"/>
+      <c r="BF297" s="5"/>
+    </row>
+    <row r="298" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C298" s="5"/>
       <c r="D298" s="5"/>
       <c r="E298" s="5"/>
@@ -17798,8 +19368,12 @@
       <c r="AZ298" s="5"/>
       <c r="BA298" s="5"/>
       <c r="BB298" s="5"/>
-    </row>
-    <row r="299" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC298" s="5"/>
+      <c r="BD298" s="5"/>
+      <c r="BE298" s="5"/>
+      <c r="BF298" s="5"/>
+    </row>
+    <row r="299" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C299" s="5"/>
       <c r="D299" s="5"/>
       <c r="E299" s="5"/>
@@ -17852,8 +19426,12 @@
       <c r="AZ299" s="5"/>
       <c r="BA299" s="5"/>
       <c r="BB299" s="5"/>
-    </row>
-    <row r="300" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC299" s="5"/>
+      <c r="BD299" s="5"/>
+      <c r="BE299" s="5"/>
+      <c r="BF299" s="5"/>
+    </row>
+    <row r="300" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C300" s="5"/>
       <c r="D300" s="5"/>
       <c r="E300" s="5"/>
@@ -17906,8 +19484,12 @@
       <c r="AZ300" s="5"/>
       <c r="BA300" s="5"/>
       <c r="BB300" s="5"/>
-    </row>
-    <row r="301" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC300" s="5"/>
+      <c r="BD300" s="5"/>
+      <c r="BE300" s="5"/>
+      <c r="BF300" s="5"/>
+    </row>
+    <row r="301" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C301" s="5"/>
       <c r="D301" s="5"/>
       <c r="E301" s="5"/>
@@ -17960,8 +19542,12 @@
       <c r="AZ301" s="5"/>
       <c r="BA301" s="5"/>
       <c r="BB301" s="5"/>
-    </row>
-    <row r="302" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC301" s="5"/>
+      <c r="BD301" s="5"/>
+      <c r="BE301" s="5"/>
+      <c r="BF301" s="5"/>
+    </row>
+    <row r="302" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C302" s="5"/>
       <c r="D302" s="5"/>
       <c r="E302" s="5"/>
@@ -18014,8 +19600,12 @@
       <c r="AZ302" s="5"/>
       <c r="BA302" s="5"/>
       <c r="BB302" s="5"/>
-    </row>
-    <row r="303" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC302" s="5"/>
+      <c r="BD302" s="5"/>
+      <c r="BE302" s="5"/>
+      <c r="BF302" s="5"/>
+    </row>
+    <row r="303" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C303" s="5"/>
       <c r="D303" s="5"/>
       <c r="E303" s="5"/>
@@ -18068,8 +19658,12 @@
       <c r="AZ303" s="5"/>
       <c r="BA303" s="5"/>
       <c r="BB303" s="5"/>
-    </row>
-    <row r="304" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC303" s="5"/>
+      <c r="BD303" s="5"/>
+      <c r="BE303" s="5"/>
+      <c r="BF303" s="5"/>
+    </row>
+    <row r="304" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C304" s="5"/>
       <c r="D304" s="5"/>
       <c r="E304" s="5"/>
@@ -18122,8 +19716,12 @@
       <c r="AZ304" s="5"/>
       <c r="BA304" s="5"/>
       <c r="BB304" s="5"/>
-    </row>
-    <row r="305" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC304" s="5"/>
+      <c r="BD304" s="5"/>
+      <c r="BE304" s="5"/>
+      <c r="BF304" s="5"/>
+    </row>
+    <row r="305" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C305" s="5"/>
       <c r="D305" s="5"/>
       <c r="E305" s="5"/>
@@ -18176,8 +19774,12 @@
       <c r="AZ305" s="5"/>
       <c r="BA305" s="5"/>
       <c r="BB305" s="5"/>
-    </row>
-    <row r="306" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC305" s="5"/>
+      <c r="BD305" s="5"/>
+      <c r="BE305" s="5"/>
+      <c r="BF305" s="5"/>
+    </row>
+    <row r="306" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C306" s="5"/>
       <c r="D306" s="5"/>
       <c r="E306" s="5"/>
@@ -18230,8 +19832,12 @@
       <c r="AZ306" s="5"/>
       <c r="BA306" s="5"/>
       <c r="BB306" s="5"/>
-    </row>
-    <row r="307" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC306" s="5"/>
+      <c r="BD306" s="5"/>
+      <c r="BE306" s="5"/>
+      <c r="BF306" s="5"/>
+    </row>
+    <row r="307" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C307" s="5"/>
       <c r="D307" s="5"/>
       <c r="E307" s="5"/>
@@ -18284,8 +19890,12 @@
       <c r="AZ307" s="5"/>
       <c r="BA307" s="5"/>
       <c r="BB307" s="5"/>
-    </row>
-    <row r="308" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC307" s="5"/>
+      <c r="BD307" s="5"/>
+      <c r="BE307" s="5"/>
+      <c r="BF307" s="5"/>
+    </row>
+    <row r="308" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C308" s="5"/>
       <c r="D308" s="5"/>
       <c r="E308" s="5"/>
@@ -18338,8 +19948,12 @@
       <c r="AZ308" s="5"/>
       <c r="BA308" s="5"/>
       <c r="BB308" s="5"/>
-    </row>
-    <row r="309" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC308" s="5"/>
+      <c r="BD308" s="5"/>
+      <c r="BE308" s="5"/>
+      <c r="BF308" s="5"/>
+    </row>
+    <row r="309" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C309" s="5"/>
       <c r="D309" s="5"/>
       <c r="E309" s="5"/>
@@ -18392,8 +20006,12 @@
       <c r="AZ309" s="5"/>
       <c r="BA309" s="5"/>
       <c r="BB309" s="5"/>
-    </row>
-    <row r="310" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC309" s="5"/>
+      <c r="BD309" s="5"/>
+      <c r="BE309" s="5"/>
+      <c r="BF309" s="5"/>
+    </row>
+    <row r="310" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C310" s="5"/>
       <c r="D310" s="5"/>
       <c r="E310" s="5"/>
@@ -18446,8 +20064,12 @@
       <c r="AZ310" s="5"/>
       <c r="BA310" s="5"/>
       <c r="BB310" s="5"/>
-    </row>
-    <row r="311" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC310" s="5"/>
+      <c r="BD310" s="5"/>
+      <c r="BE310" s="5"/>
+      <c r="BF310" s="5"/>
+    </row>
+    <row r="311" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C311" s="5"/>
       <c r="D311" s="5"/>
       <c r="E311" s="5"/>
@@ -18500,8 +20122,12 @@
       <c r="AZ311" s="5"/>
       <c r="BA311" s="5"/>
       <c r="BB311" s="5"/>
-    </row>
-    <row r="312" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC311" s="5"/>
+      <c r="BD311" s="5"/>
+      <c r="BE311" s="5"/>
+      <c r="BF311" s="5"/>
+    </row>
+    <row r="312" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C312" s="5"/>
       <c r="D312" s="5"/>
       <c r="E312" s="5"/>
@@ -18554,8 +20180,12 @@
       <c r="AZ312" s="5"/>
       <c r="BA312" s="5"/>
       <c r="BB312" s="5"/>
-    </row>
-    <row r="313" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC312" s="5"/>
+      <c r="BD312" s="5"/>
+      <c r="BE312" s="5"/>
+      <c r="BF312" s="5"/>
+    </row>
+    <row r="313" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C313" s="5"/>
       <c r="D313" s="5"/>
       <c r="E313" s="5"/>
@@ -18608,8 +20238,12 @@
       <c r="AZ313" s="5"/>
       <c r="BA313" s="5"/>
       <c r="BB313" s="5"/>
-    </row>
-    <row r="314" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC313" s="5"/>
+      <c r="BD313" s="5"/>
+      <c r="BE313" s="5"/>
+      <c r="BF313" s="5"/>
+    </row>
+    <row r="314" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C314" s="5"/>
       <c r="D314" s="5"/>
       <c r="E314" s="5"/>
@@ -18662,8 +20296,12 @@
       <c r="AZ314" s="5"/>
       <c r="BA314" s="5"/>
       <c r="BB314" s="5"/>
-    </row>
-    <row r="315" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC314" s="5"/>
+      <c r="BD314" s="5"/>
+      <c r="BE314" s="5"/>
+      <c r="BF314" s="5"/>
+    </row>
+    <row r="315" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C315" s="5"/>
       <c r="D315" s="5"/>
       <c r="E315" s="5"/>
@@ -18716,8 +20354,12 @@
       <c r="AZ315" s="5"/>
       <c r="BA315" s="5"/>
       <c r="BB315" s="5"/>
-    </row>
-    <row r="316" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC315" s="5"/>
+      <c r="BD315" s="5"/>
+      <c r="BE315" s="5"/>
+      <c r="BF315" s="5"/>
+    </row>
+    <row r="316" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C316" s="5"/>
       <c r="D316" s="5"/>
       <c r="E316" s="5"/>
@@ -18770,8 +20412,12 @@
       <c r="AZ316" s="5"/>
       <c r="BA316" s="5"/>
       <c r="BB316" s="5"/>
-    </row>
-    <row r="317" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC316" s="5"/>
+      <c r="BD316" s="5"/>
+      <c r="BE316" s="5"/>
+      <c r="BF316" s="5"/>
+    </row>
+    <row r="317" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C317" s="5"/>
       <c r="D317" s="5"/>
       <c r="E317" s="5"/>
@@ -18824,8 +20470,12 @@
       <c r="AZ317" s="5"/>
       <c r="BA317" s="5"/>
       <c r="BB317" s="5"/>
-    </row>
-    <row r="318" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC317" s="5"/>
+      <c r="BD317" s="5"/>
+      <c r="BE317" s="5"/>
+      <c r="BF317" s="5"/>
+    </row>
+    <row r="318" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C318" s="5"/>
       <c r="D318" s="5"/>
       <c r="E318" s="5"/>
@@ -18878,8 +20528,12 @@
       <c r="AZ318" s="5"/>
       <c r="BA318" s="5"/>
       <c r="BB318" s="5"/>
-    </row>
-    <row r="319" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC318" s="5"/>
+      <c r="BD318" s="5"/>
+      <c r="BE318" s="5"/>
+      <c r="BF318" s="5"/>
+    </row>
+    <row r="319" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C319" s="5"/>
       <c r="D319" s="5"/>
       <c r="E319" s="5"/>
@@ -18932,8 +20586,12 @@
       <c r="AZ319" s="5"/>
       <c r="BA319" s="5"/>
       <c r="BB319" s="5"/>
-    </row>
-    <row r="320" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC319" s="5"/>
+      <c r="BD319" s="5"/>
+      <c r="BE319" s="5"/>
+      <c r="BF319" s="5"/>
+    </row>
+    <row r="320" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C320" s="5"/>
       <c r="D320" s="5"/>
       <c r="E320" s="5"/>
@@ -18986,8 +20644,12 @@
       <c r="AZ320" s="5"/>
       <c r="BA320" s="5"/>
       <c r="BB320" s="5"/>
-    </row>
-    <row r="321" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC320" s="5"/>
+      <c r="BD320" s="5"/>
+      <c r="BE320" s="5"/>
+      <c r="BF320" s="5"/>
+    </row>
+    <row r="321" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C321" s="5"/>
       <c r="D321" s="5"/>
       <c r="E321" s="5"/>
@@ -19040,8 +20702,12 @@
       <c r="AZ321" s="5"/>
       <c r="BA321" s="5"/>
       <c r="BB321" s="5"/>
-    </row>
-    <row r="322" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC321" s="5"/>
+      <c r="BD321" s="5"/>
+      <c r="BE321" s="5"/>
+      <c r="BF321" s="5"/>
+    </row>
+    <row r="322" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C322" s="5"/>
       <c r="D322" s="5"/>
       <c r="E322" s="5"/>
@@ -19094,8 +20760,12 @@
       <c r="AZ322" s="5"/>
       <c r="BA322" s="5"/>
       <c r="BB322" s="5"/>
-    </row>
-    <row r="323" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC322" s="5"/>
+      <c r="BD322" s="5"/>
+      <c r="BE322" s="5"/>
+      <c r="BF322" s="5"/>
+    </row>
+    <row r="323" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C323" s="5"/>
       <c r="D323" s="5"/>
       <c r="E323" s="5"/>
@@ -19148,8 +20818,12 @@
       <c r="AZ323" s="5"/>
       <c r="BA323" s="5"/>
       <c r="BB323" s="5"/>
-    </row>
-    <row r="324" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC323" s="5"/>
+      <c r="BD323" s="5"/>
+      <c r="BE323" s="5"/>
+      <c r="BF323" s="5"/>
+    </row>
+    <row r="324" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C324" s="5"/>
       <c r="D324" s="5"/>
       <c r="E324" s="5"/>
@@ -19202,8 +20876,12 @@
       <c r="AZ324" s="5"/>
       <c r="BA324" s="5"/>
       <c r="BB324" s="5"/>
-    </row>
-    <row r="325" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC324" s="5"/>
+      <c r="BD324" s="5"/>
+      <c r="BE324" s="5"/>
+      <c r="BF324" s="5"/>
+    </row>
+    <row r="325" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C325" s="5"/>
       <c r="D325" s="5"/>
       <c r="E325" s="5"/>
@@ -19256,8 +20934,12 @@
       <c r="AZ325" s="5"/>
       <c r="BA325" s="5"/>
       <c r="BB325" s="5"/>
-    </row>
-    <row r="326" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC325" s="5"/>
+      <c r="BD325" s="5"/>
+      <c r="BE325" s="5"/>
+      <c r="BF325" s="5"/>
+    </row>
+    <row r="326" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C326" s="5"/>
       <c r="D326" s="5"/>
       <c r="E326" s="5"/>
@@ -19310,8 +20992,12 @@
       <c r="AZ326" s="5"/>
       <c r="BA326" s="5"/>
       <c r="BB326" s="5"/>
-    </row>
-    <row r="327" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC326" s="5"/>
+      <c r="BD326" s="5"/>
+      <c r="BE326" s="5"/>
+      <c r="BF326" s="5"/>
+    </row>
+    <row r="327" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C327" s="5"/>
       <c r="D327" s="5"/>
       <c r="E327" s="5"/>
@@ -19364,8 +21050,12 @@
       <c r="AZ327" s="5"/>
       <c r="BA327" s="5"/>
       <c r="BB327" s="5"/>
-    </row>
-    <row r="328" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC327" s="5"/>
+      <c r="BD327" s="5"/>
+      <c r="BE327" s="5"/>
+      <c r="BF327" s="5"/>
+    </row>
+    <row r="328" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C328" s="5"/>
       <c r="D328" s="5"/>
       <c r="E328" s="5"/>
@@ -19418,8 +21108,12 @@
       <c r="AZ328" s="5"/>
       <c r="BA328" s="5"/>
       <c r="BB328" s="5"/>
-    </row>
-    <row r="329" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC328" s="5"/>
+      <c r="BD328" s="5"/>
+      <c r="BE328" s="5"/>
+      <c r="BF328" s="5"/>
+    </row>
+    <row r="329" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C329" s="5"/>
       <c r="D329" s="5"/>
       <c r="E329" s="5"/>
@@ -19472,8 +21166,12 @@
       <c r="AZ329" s="5"/>
       <c r="BA329" s="5"/>
       <c r="BB329" s="5"/>
-    </row>
-    <row r="330" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC329" s="5"/>
+      <c r="BD329" s="5"/>
+      <c r="BE329" s="5"/>
+      <c r="BF329" s="5"/>
+    </row>
+    <row r="330" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C330" s="5"/>
       <c r="D330" s="5"/>
       <c r="E330" s="5"/>
@@ -19526,8 +21224,12 @@
       <c r="AZ330" s="5"/>
       <c r="BA330" s="5"/>
       <c r="BB330" s="5"/>
-    </row>
-    <row r="331" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC330" s="5"/>
+      <c r="BD330" s="5"/>
+      <c r="BE330" s="5"/>
+      <c r="BF330" s="5"/>
+    </row>
+    <row r="331" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C331" s="5"/>
       <c r="D331" s="5"/>
       <c r="E331" s="5"/>
@@ -19580,8 +21282,12 @@
       <c r="AZ331" s="5"/>
       <c r="BA331" s="5"/>
       <c r="BB331" s="5"/>
-    </row>
-    <row r="332" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC331" s="5"/>
+      <c r="BD331" s="5"/>
+      <c r="BE331" s="5"/>
+      <c r="BF331" s="5"/>
+    </row>
+    <row r="332" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C332" s="5"/>
       <c r="D332" s="5"/>
       <c r="E332" s="5"/>
@@ -19634,8 +21340,12 @@
       <c r="AZ332" s="5"/>
       <c r="BA332" s="5"/>
       <c r="BB332" s="5"/>
-    </row>
-    <row r="333" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC332" s="5"/>
+      <c r="BD332" s="5"/>
+      <c r="BE332" s="5"/>
+      <c r="BF332" s="5"/>
+    </row>
+    <row r="333" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C333" s="5"/>
       <c r="D333" s="5"/>
       <c r="E333" s="5"/>
@@ -19688,8 +21398,12 @@
       <c r="AZ333" s="5"/>
       <c r="BA333" s="5"/>
       <c r="BB333" s="5"/>
-    </row>
-    <row r="334" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC333" s="5"/>
+      <c r="BD333" s="5"/>
+      <c r="BE333" s="5"/>
+      <c r="BF333" s="5"/>
+    </row>
+    <row r="334" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C334" s="5"/>
       <c r="D334" s="5"/>
       <c r="E334" s="5"/>
@@ -19742,8 +21456,12 @@
       <c r="AZ334" s="5"/>
       <c r="BA334" s="5"/>
       <c r="BB334" s="5"/>
-    </row>
-    <row r="335" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC334" s="5"/>
+      <c r="BD334" s="5"/>
+      <c r="BE334" s="5"/>
+      <c r="BF334" s="5"/>
+    </row>
+    <row r="335" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C335" s="5"/>
       <c r="D335" s="5"/>
       <c r="E335" s="5"/>
@@ -19796,8 +21514,12 @@
       <c r="AZ335" s="5"/>
       <c r="BA335" s="5"/>
       <c r="BB335" s="5"/>
-    </row>
-    <row r="336" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC335" s="5"/>
+      <c r="BD335" s="5"/>
+      <c r="BE335" s="5"/>
+      <c r="BF335" s="5"/>
+    </row>
+    <row r="336" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C336" s="5"/>
       <c r="D336" s="5"/>
       <c r="E336" s="5"/>
@@ -19850,8 +21572,12 @@
       <c r="AZ336" s="5"/>
       <c r="BA336" s="5"/>
       <c r="BB336" s="5"/>
-    </row>
-    <row r="337" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC336" s="5"/>
+      <c r="BD336" s="5"/>
+      <c r="BE336" s="5"/>
+      <c r="BF336" s="5"/>
+    </row>
+    <row r="337" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C337" s="5"/>
       <c r="D337" s="5"/>
       <c r="E337" s="5"/>
@@ -19904,8 +21630,12 @@
       <c r="AZ337" s="5"/>
       <c r="BA337" s="5"/>
       <c r="BB337" s="5"/>
-    </row>
-    <row r="338" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC337" s="5"/>
+      <c r="BD337" s="5"/>
+      <c r="BE337" s="5"/>
+      <c r="BF337" s="5"/>
+    </row>
+    <row r="338" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C338" s="5"/>
       <c r="D338" s="5"/>
       <c r="E338" s="5"/>
@@ -19958,8 +21688,12 @@
       <c r="AZ338" s="5"/>
       <c r="BA338" s="5"/>
       <c r="BB338" s="5"/>
-    </row>
-    <row r="339" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC338" s="5"/>
+      <c r="BD338" s="5"/>
+      <c r="BE338" s="5"/>
+      <c r="BF338" s="5"/>
+    </row>
+    <row r="339" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C339" s="5"/>
       <c r="D339" s="5"/>
       <c r="E339" s="5"/>
@@ -20012,8 +21746,12 @@
       <c r="AZ339" s="5"/>
       <c r="BA339" s="5"/>
       <c r="BB339" s="5"/>
-    </row>
-    <row r="340" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC339" s="5"/>
+      <c r="BD339" s="5"/>
+      <c r="BE339" s="5"/>
+      <c r="BF339" s="5"/>
+    </row>
+    <row r="340" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C340" s="5"/>
       <c r="D340" s="5"/>
       <c r="E340" s="5"/>
@@ -20066,8 +21804,12 @@
       <c r="AZ340" s="5"/>
       <c r="BA340" s="5"/>
       <c r="BB340" s="5"/>
-    </row>
-    <row r="341" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC340" s="5"/>
+      <c r="BD340" s="5"/>
+      <c r="BE340" s="5"/>
+      <c r="BF340" s="5"/>
+    </row>
+    <row r="341" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C341" s="5"/>
       <c r="D341" s="5"/>
       <c r="E341" s="5"/>
@@ -20120,8 +21862,12 @@
       <c r="AZ341" s="5"/>
       <c r="BA341" s="5"/>
       <c r="BB341" s="5"/>
-    </row>
-    <row r="342" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC341" s="5"/>
+      <c r="BD341" s="5"/>
+      <c r="BE341" s="5"/>
+      <c r="BF341" s="5"/>
+    </row>
+    <row r="342" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C342" s="5"/>
       <c r="D342" s="5"/>
       <c r="E342" s="5"/>
@@ -20174,8 +21920,12 @@
       <c r="AZ342" s="5"/>
       <c r="BA342" s="5"/>
       <c r="BB342" s="5"/>
-    </row>
-    <row r="343" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC342" s="5"/>
+      <c r="BD342" s="5"/>
+      <c r="BE342" s="5"/>
+      <c r="BF342" s="5"/>
+    </row>
+    <row r="343" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C343" s="5"/>
       <c r="D343" s="5"/>
       <c r="E343" s="5"/>
@@ -20228,8 +21978,12 @@
       <c r="AZ343" s="5"/>
       <c r="BA343" s="5"/>
       <c r="BB343" s="5"/>
-    </row>
-    <row r="344" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC343" s="5"/>
+      <c r="BD343" s="5"/>
+      <c r="BE343" s="5"/>
+      <c r="BF343" s="5"/>
+    </row>
+    <row r="344" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C344" s="5"/>
       <c r="D344" s="5"/>
       <c r="E344" s="5"/>
@@ -20282,8 +22036,12 @@
       <c r="AZ344" s="5"/>
       <c r="BA344" s="5"/>
       <c r="BB344" s="5"/>
-    </row>
-    <row r="345" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC344" s="5"/>
+      <c r="BD344" s="5"/>
+      <c r="BE344" s="5"/>
+      <c r="BF344" s="5"/>
+    </row>
+    <row r="345" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C345" s="5"/>
       <c r="D345" s="5"/>
       <c r="E345" s="5"/>
@@ -20336,8 +22094,12 @@
       <c r="AZ345" s="5"/>
       <c r="BA345" s="5"/>
       <c r="BB345" s="5"/>
-    </row>
-    <row r="346" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC345" s="5"/>
+      <c r="BD345" s="5"/>
+      <c r="BE345" s="5"/>
+      <c r="BF345" s="5"/>
+    </row>
+    <row r="346" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C346" s="5"/>
       <c r="D346" s="5"/>
       <c r="E346" s="5"/>
@@ -20390,8 +22152,12 @@
       <c r="AZ346" s="5"/>
       <c r="BA346" s="5"/>
       <c r="BB346" s="5"/>
-    </row>
-    <row r="347" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC346" s="5"/>
+      <c r="BD346" s="5"/>
+      <c r="BE346" s="5"/>
+      <c r="BF346" s="5"/>
+    </row>
+    <row r="347" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C347" s="5"/>
       <c r="D347" s="5"/>
       <c r="E347" s="5"/>
@@ -20444,8 +22210,12 @@
       <c r="AZ347" s="5"/>
       <c r="BA347" s="5"/>
       <c r="BB347" s="5"/>
-    </row>
-    <row r="348" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC347" s="5"/>
+      <c r="BD347" s="5"/>
+      <c r="BE347" s="5"/>
+      <c r="BF347" s="5"/>
+    </row>
+    <row r="348" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C348" s="5"/>
       <c r="D348" s="5"/>
       <c r="E348" s="5"/>
@@ -20498,8 +22268,12 @@
       <c r="AZ348" s="5"/>
       <c r="BA348" s="5"/>
       <c r="BB348" s="5"/>
-    </row>
-    <row r="349" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC348" s="5"/>
+      <c r="BD348" s="5"/>
+      <c r="BE348" s="5"/>
+      <c r="BF348" s="5"/>
+    </row>
+    <row r="349" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C349" s="5"/>
       <c r="D349" s="5"/>
       <c r="E349" s="5"/>
@@ -20552,8 +22326,12 @@
       <c r="AZ349" s="5"/>
       <c r="BA349" s="5"/>
       <c r="BB349" s="5"/>
-    </row>
-    <row r="350" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC349" s="5"/>
+      <c r="BD349" s="5"/>
+      <c r="BE349" s="5"/>
+      <c r="BF349" s="5"/>
+    </row>
+    <row r="350" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C350" s="5"/>
       <c r="D350" s="5"/>
       <c r="E350" s="5"/>
@@ -20606,8 +22384,12 @@
       <c r="AZ350" s="5"/>
       <c r="BA350" s="5"/>
       <c r="BB350" s="5"/>
-    </row>
-    <row r="351" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC350" s="5"/>
+      <c r="BD350" s="5"/>
+      <c r="BE350" s="5"/>
+      <c r="BF350" s="5"/>
+    </row>
+    <row r="351" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C351" s="5"/>
       <c r="D351" s="5"/>
       <c r="E351" s="5"/>
@@ -20660,8 +22442,12 @@
       <c r="AZ351" s="5"/>
       <c r="BA351" s="5"/>
       <c r="BB351" s="5"/>
-    </row>
-    <row r="352" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC351" s="5"/>
+      <c r="BD351" s="5"/>
+      <c r="BE351" s="5"/>
+      <c r="BF351" s="5"/>
+    </row>
+    <row r="352" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C352" s="5"/>
       <c r="D352" s="5"/>
       <c r="E352" s="5"/>
@@ -20714,8 +22500,12 @@
       <c r="AZ352" s="5"/>
       <c r="BA352" s="5"/>
       <c r="BB352" s="5"/>
-    </row>
-    <row r="353" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC352" s="5"/>
+      <c r="BD352" s="5"/>
+      <c r="BE352" s="5"/>
+      <c r="BF352" s="5"/>
+    </row>
+    <row r="353" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C353" s="5"/>
       <c r="D353" s="5"/>
       <c r="E353" s="5"/>
@@ -20768,8 +22558,12 @@
       <c r="AZ353" s="5"/>
       <c r="BA353" s="5"/>
       <c r="BB353" s="5"/>
-    </row>
-    <row r="354" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC353" s="5"/>
+      <c r="BD353" s="5"/>
+      <c r="BE353" s="5"/>
+      <c r="BF353" s="5"/>
+    </row>
+    <row r="354" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C354" s="5"/>
       <c r="D354" s="5"/>
       <c r="E354" s="5"/>
@@ -20822,8 +22616,12 @@
       <c r="AZ354" s="5"/>
       <c r="BA354" s="5"/>
       <c r="BB354" s="5"/>
-    </row>
-    <row r="355" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC354" s="5"/>
+      <c r="BD354" s="5"/>
+      <c r="BE354" s="5"/>
+      <c r="BF354" s="5"/>
+    </row>
+    <row r="355" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C355" s="5"/>
       <c r="D355" s="5"/>
       <c r="E355" s="5"/>
@@ -20876,8 +22674,12 @@
       <c r="AZ355" s="5"/>
       <c r="BA355" s="5"/>
       <c r="BB355" s="5"/>
-    </row>
-    <row r="356" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC355" s="5"/>
+      <c r="BD355" s="5"/>
+      <c r="BE355" s="5"/>
+      <c r="BF355" s="5"/>
+    </row>
+    <row r="356" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C356" s="5"/>
       <c r="D356" s="5"/>
       <c r="E356" s="5"/>
@@ -20930,8 +22732,12 @@
       <c r="AZ356" s="5"/>
       <c r="BA356" s="5"/>
       <c r="BB356" s="5"/>
-    </row>
-    <row r="357" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC356" s="5"/>
+      <c r="BD356" s="5"/>
+      <c r="BE356" s="5"/>
+      <c r="BF356" s="5"/>
+    </row>
+    <row r="357" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C357" s="5"/>
       <c r="D357" s="5"/>
       <c r="E357" s="5"/>
@@ -20984,8 +22790,12 @@
       <c r="AZ357" s="5"/>
       <c r="BA357" s="5"/>
       <c r="BB357" s="5"/>
-    </row>
-    <row r="358" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC357" s="5"/>
+      <c r="BD357" s="5"/>
+      <c r="BE357" s="5"/>
+      <c r="BF357" s="5"/>
+    </row>
+    <row r="358" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C358" s="5"/>
       <c r="D358" s="5"/>
       <c r="E358" s="5"/>
@@ -21038,8 +22848,12 @@
       <c r="AZ358" s="5"/>
       <c r="BA358" s="5"/>
       <c r="BB358" s="5"/>
-    </row>
-    <row r="359" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC358" s="5"/>
+      <c r="BD358" s="5"/>
+      <c r="BE358" s="5"/>
+      <c r="BF358" s="5"/>
+    </row>
+    <row r="359" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C359" s="5"/>
       <c r="D359" s="5"/>
       <c r="E359" s="5"/>
@@ -21092,8 +22906,12 @@
       <c r="AZ359" s="5"/>
       <c r="BA359" s="5"/>
       <c r="BB359" s="5"/>
-    </row>
-    <row r="360" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC359" s="5"/>
+      <c r="BD359" s="5"/>
+      <c r="BE359" s="5"/>
+      <c r="BF359" s="5"/>
+    </row>
+    <row r="360" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C360" s="5"/>
       <c r="D360" s="5"/>
       <c r="E360" s="5"/>
@@ -21146,8 +22964,12 @@
       <c r="AZ360" s="5"/>
       <c r="BA360" s="5"/>
       <c r="BB360" s="5"/>
-    </row>
-    <row r="361" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC360" s="5"/>
+      <c r="BD360" s="5"/>
+      <c r="BE360" s="5"/>
+      <c r="BF360" s="5"/>
+    </row>
+    <row r="361" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C361" s="5"/>
       <c r="D361" s="5"/>
       <c r="E361" s="5"/>
@@ -21200,8 +23022,12 @@
       <c r="AZ361" s="5"/>
       <c r="BA361" s="5"/>
       <c r="BB361" s="5"/>
-    </row>
-    <row r="362" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC361" s="5"/>
+      <c r="BD361" s="5"/>
+      <c r="BE361" s="5"/>
+      <c r="BF361" s="5"/>
+    </row>
+    <row r="362" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C362" s="5"/>
       <c r="D362" s="5"/>
       <c r="E362" s="5"/>
@@ -21254,8 +23080,12 @@
       <c r="AZ362" s="5"/>
       <c r="BA362" s="5"/>
       <c r="BB362" s="5"/>
-    </row>
-    <row r="363" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC362" s="5"/>
+      <c r="BD362" s="5"/>
+      <c r="BE362" s="5"/>
+      <c r="BF362" s="5"/>
+    </row>
+    <row r="363" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C363" s="5"/>
       <c r="D363" s="5"/>
       <c r="E363" s="5"/>
@@ -21308,8 +23138,12 @@
       <c r="AZ363" s="5"/>
       <c r="BA363" s="5"/>
       <c r="BB363" s="5"/>
-    </row>
-    <row r="364" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC363" s="5"/>
+      <c r="BD363" s="5"/>
+      <c r="BE363" s="5"/>
+      <c r="BF363" s="5"/>
+    </row>
+    <row r="364" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C364" s="5"/>
       <c r="D364" s="5"/>
       <c r="E364" s="5"/>
@@ -21362,8 +23196,12 @@
       <c r="AZ364" s="5"/>
       <c r="BA364" s="5"/>
       <c r="BB364" s="5"/>
-    </row>
-    <row r="365" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC364" s="5"/>
+      <c r="BD364" s="5"/>
+      <c r="BE364" s="5"/>
+      <c r="BF364" s="5"/>
+    </row>
+    <row r="365" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C365" s="5"/>
       <c r="D365" s="5"/>
       <c r="E365" s="5"/>
@@ -21416,8 +23254,12 @@
       <c r="AZ365" s="5"/>
       <c r="BA365" s="5"/>
       <c r="BB365" s="5"/>
-    </row>
-    <row r="366" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC365" s="5"/>
+      <c r="BD365" s="5"/>
+      <c r="BE365" s="5"/>
+      <c r="BF365" s="5"/>
+    </row>
+    <row r="366" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C366" s="5"/>
       <c r="D366" s="5"/>
       <c r="E366" s="5"/>
@@ -21470,8 +23312,12 @@
       <c r="AZ366" s="5"/>
       <c r="BA366" s="5"/>
       <c r="BB366" s="5"/>
-    </row>
-    <row r="367" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC366" s="5"/>
+      <c r="BD366" s="5"/>
+      <c r="BE366" s="5"/>
+      <c r="BF366" s="5"/>
+    </row>
+    <row r="367" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C367" s="5"/>
       <c r="D367" s="5"/>
       <c r="E367" s="5"/>
@@ -21524,8 +23370,12 @@
       <c r="AZ367" s="5"/>
       <c r="BA367" s="5"/>
       <c r="BB367" s="5"/>
-    </row>
-    <row r="368" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC367" s="5"/>
+      <c r="BD367" s="5"/>
+      <c r="BE367" s="5"/>
+      <c r="BF367" s="5"/>
+    </row>
+    <row r="368" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C368" s="5"/>
       <c r="D368" s="5"/>
       <c r="E368" s="5"/>
@@ -21578,8 +23428,12 @@
       <c r="AZ368" s="5"/>
       <c r="BA368" s="5"/>
       <c r="BB368" s="5"/>
-    </row>
-    <row r="369" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC368" s="5"/>
+      <c r="BD368" s="5"/>
+      <c r="BE368" s="5"/>
+      <c r="BF368" s="5"/>
+    </row>
+    <row r="369" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C369" s="5"/>
       <c r="D369" s="5"/>
       <c r="E369" s="5"/>
@@ -21632,8 +23486,12 @@
       <c r="AZ369" s="5"/>
       <c r="BA369" s="5"/>
       <c r="BB369" s="5"/>
-    </row>
-    <row r="370" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC369" s="5"/>
+      <c r="BD369" s="5"/>
+      <c r="BE369" s="5"/>
+      <c r="BF369" s="5"/>
+    </row>
+    <row r="370" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C370" s="5"/>
       <c r="D370" s="5"/>
       <c r="E370" s="5"/>
@@ -21686,8 +23544,12 @@
       <c r="AZ370" s="5"/>
       <c r="BA370" s="5"/>
       <c r="BB370" s="5"/>
-    </row>
-    <row r="371" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC370" s="5"/>
+      <c r="BD370" s="5"/>
+      <c r="BE370" s="5"/>
+      <c r="BF370" s="5"/>
+    </row>
+    <row r="371" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C371" s="5"/>
       <c r="D371" s="5"/>
       <c r="E371" s="5"/>
@@ -21740,8 +23602,12 @@
       <c r="AZ371" s="5"/>
       <c r="BA371" s="5"/>
       <c r="BB371" s="5"/>
-    </row>
-    <row r="372" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC371" s="5"/>
+      <c r="BD371" s="5"/>
+      <c r="BE371" s="5"/>
+      <c r="BF371" s="5"/>
+    </row>
+    <row r="372" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C372" s="5"/>
       <c r="D372" s="5"/>
       <c r="E372" s="5"/>
@@ -21794,8 +23660,12 @@
       <c r="AZ372" s="5"/>
       <c r="BA372" s="5"/>
       <c r="BB372" s="5"/>
-    </row>
-    <row r="373" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC372" s="5"/>
+      <c r="BD372" s="5"/>
+      <c r="BE372" s="5"/>
+      <c r="BF372" s="5"/>
+    </row>
+    <row r="373" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C373" s="5"/>
       <c r="D373" s="5"/>
       <c r="E373" s="5"/>
@@ -21848,8 +23718,12 @@
       <c r="AZ373" s="5"/>
       <c r="BA373" s="5"/>
       <c r="BB373" s="5"/>
-    </row>
-    <row r="374" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC373" s="5"/>
+      <c r="BD373" s="5"/>
+      <c r="BE373" s="5"/>
+      <c r="BF373" s="5"/>
+    </row>
+    <row r="374" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C374" s="5"/>
       <c r="D374" s="5"/>
       <c r="E374" s="5"/>
@@ -21902,8 +23776,12 @@
       <c r="AZ374" s="5"/>
       <c r="BA374" s="5"/>
       <c r="BB374" s="5"/>
-    </row>
-    <row r="375" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC374" s="5"/>
+      <c r="BD374" s="5"/>
+      <c r="BE374" s="5"/>
+      <c r="BF374" s="5"/>
+    </row>
+    <row r="375" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C375" s="5"/>
       <c r="D375" s="5"/>
       <c r="E375" s="5"/>
@@ -21956,8 +23834,12 @@
       <c r="AZ375" s="5"/>
       <c r="BA375" s="5"/>
       <c r="BB375" s="5"/>
-    </row>
-    <row r="376" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC375" s="5"/>
+      <c r="BD375" s="5"/>
+      <c r="BE375" s="5"/>
+      <c r="BF375" s="5"/>
+    </row>
+    <row r="376" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C376" s="5"/>
       <c r="D376" s="5"/>
       <c r="E376" s="5"/>
@@ -22010,8 +23892,12 @@
       <c r="AZ376" s="5"/>
       <c r="BA376" s="5"/>
       <c r="BB376" s="5"/>
-    </row>
-    <row r="377" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC376" s="5"/>
+      <c r="BD376" s="5"/>
+      <c r="BE376" s="5"/>
+      <c r="BF376" s="5"/>
+    </row>
+    <row r="377" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C377" s="5"/>
       <c r="D377" s="5"/>
       <c r="E377" s="5"/>
@@ -22064,8 +23950,12 @@
       <c r="AZ377" s="5"/>
       <c r="BA377" s="5"/>
       <c r="BB377" s="5"/>
-    </row>
-    <row r="378" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC377" s="5"/>
+      <c r="BD377" s="5"/>
+      <c r="BE377" s="5"/>
+      <c r="BF377" s="5"/>
+    </row>
+    <row r="378" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C378" s="5"/>
       <c r="D378" s="5"/>
       <c r="E378" s="5"/>
@@ -22118,8 +24008,12 @@
       <c r="AZ378" s="5"/>
       <c r="BA378" s="5"/>
       <c r="BB378" s="5"/>
-    </row>
-    <row r="379" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC378" s="5"/>
+      <c r="BD378" s="5"/>
+      <c r="BE378" s="5"/>
+      <c r="BF378" s="5"/>
+    </row>
+    <row r="379" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C379" s="5"/>
       <c r="D379" s="5"/>
       <c r="E379" s="5"/>
@@ -22172,8 +24066,12 @@
       <c r="AZ379" s="5"/>
       <c r="BA379" s="5"/>
       <c r="BB379" s="5"/>
-    </row>
-    <row r="380" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC379" s="5"/>
+      <c r="BD379" s="5"/>
+      <c r="BE379" s="5"/>
+      <c r="BF379" s="5"/>
+    </row>
+    <row r="380" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C380" s="5"/>
       <c r="D380" s="5"/>
       <c r="E380" s="5"/>
@@ -22226,8 +24124,12 @@
       <c r="AZ380" s="5"/>
       <c r="BA380" s="5"/>
       <c r="BB380" s="5"/>
-    </row>
-    <row r="381" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC380" s="5"/>
+      <c r="BD380" s="5"/>
+      <c r="BE380" s="5"/>
+      <c r="BF380" s="5"/>
+    </row>
+    <row r="381" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C381" s="5"/>
       <c r="D381" s="5"/>
       <c r="E381" s="5"/>
@@ -22280,8 +24182,12 @@
       <c r="AZ381" s="5"/>
       <c r="BA381" s="5"/>
       <c r="BB381" s="5"/>
-    </row>
-    <row r="382" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC381" s="5"/>
+      <c r="BD381" s="5"/>
+      <c r="BE381" s="5"/>
+      <c r="BF381" s="5"/>
+    </row>
+    <row r="382" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C382" s="5"/>
       <c r="D382" s="5"/>
       <c r="E382" s="5"/>
@@ -22334,8 +24240,12 @@
       <c r="AZ382" s="5"/>
       <c r="BA382" s="5"/>
       <c r="BB382" s="5"/>
-    </row>
-    <row r="383" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC382" s="5"/>
+      <c r="BD382" s="5"/>
+      <c r="BE382" s="5"/>
+      <c r="BF382" s="5"/>
+    </row>
+    <row r="383" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C383" s="5"/>
       <c r="D383" s="5"/>
       <c r="E383" s="5"/>
@@ -22388,8 +24298,12 @@
       <c r="AZ383" s="5"/>
       <c r="BA383" s="5"/>
       <c r="BB383" s="5"/>
-    </row>
-    <row r="384" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC383" s="5"/>
+      <c r="BD383" s="5"/>
+      <c r="BE383" s="5"/>
+      <c r="BF383" s="5"/>
+    </row>
+    <row r="384" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C384" s="5"/>
       <c r="D384" s="5"/>
       <c r="E384" s="5"/>
@@ -22442,8 +24356,12 @@
       <c r="AZ384" s="5"/>
       <c r="BA384" s="5"/>
       <c r="BB384" s="5"/>
-    </row>
-    <row r="385" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC384" s="5"/>
+      <c r="BD384" s="5"/>
+      <c r="BE384" s="5"/>
+      <c r="BF384" s="5"/>
+    </row>
+    <row r="385" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C385" s="5"/>
       <c r="D385" s="5"/>
       <c r="E385" s="5"/>
@@ -22496,8 +24414,12 @@
       <c r="AZ385" s="5"/>
       <c r="BA385" s="5"/>
       <c r="BB385" s="5"/>
-    </row>
-    <row r="386" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC385" s="5"/>
+      <c r="BD385" s="5"/>
+      <c r="BE385" s="5"/>
+      <c r="BF385" s="5"/>
+    </row>
+    <row r="386" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C386" s="5"/>
       <c r="D386" s="5"/>
       <c r="E386" s="5"/>
@@ -22550,8 +24472,12 @@
       <c r="AZ386" s="5"/>
       <c r="BA386" s="5"/>
       <c r="BB386" s="5"/>
-    </row>
-    <row r="387" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC386" s="5"/>
+      <c r="BD386" s="5"/>
+      <c r="BE386" s="5"/>
+      <c r="BF386" s="5"/>
+    </row>
+    <row r="387" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C387" s="5"/>
       <c r="D387" s="5"/>
       <c r="E387" s="5"/>
@@ -22604,8 +24530,12 @@
       <c r="AZ387" s="5"/>
       <c r="BA387" s="5"/>
       <c r="BB387" s="5"/>
-    </row>
-    <row r="388" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC387" s="5"/>
+      <c r="BD387" s="5"/>
+      <c r="BE387" s="5"/>
+      <c r="BF387" s="5"/>
+    </row>
+    <row r="388" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C388" s="5"/>
       <c r="D388" s="5"/>
       <c r="E388" s="5"/>
@@ -22658,8 +24588,12 @@
       <c r="AZ388" s="5"/>
       <c r="BA388" s="5"/>
       <c r="BB388" s="5"/>
-    </row>
-    <row r="389" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC388" s="5"/>
+      <c r="BD388" s="5"/>
+      <c r="BE388" s="5"/>
+      <c r="BF388" s="5"/>
+    </row>
+    <row r="389" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C389" s="5"/>
       <c r="D389" s="5"/>
       <c r="E389" s="5"/>
@@ -22712,8 +24646,12 @@
       <c r="AZ389" s="5"/>
       <c r="BA389" s="5"/>
       <c r="BB389" s="5"/>
-    </row>
-    <row r="390" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC389" s="5"/>
+      <c r="BD389" s="5"/>
+      <c r="BE389" s="5"/>
+      <c r="BF389" s="5"/>
+    </row>
+    <row r="390" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C390" s="5"/>
       <c r="D390" s="5"/>
       <c r="E390" s="5"/>
@@ -22766,8 +24704,12 @@
       <c r="AZ390" s="5"/>
       <c r="BA390" s="5"/>
       <c r="BB390" s="5"/>
-    </row>
-    <row r="391" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC390" s="5"/>
+      <c r="BD390" s="5"/>
+      <c r="BE390" s="5"/>
+      <c r="BF390" s="5"/>
+    </row>
+    <row r="391" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C391" s="5"/>
       <c r="D391" s="5"/>
       <c r="E391" s="5"/>
@@ -22820,8 +24762,12 @@
       <c r="AZ391" s="5"/>
       <c r="BA391" s="5"/>
       <c r="BB391" s="5"/>
-    </row>
-    <row r="392" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC391" s="5"/>
+      <c r="BD391" s="5"/>
+      <c r="BE391" s="5"/>
+      <c r="BF391" s="5"/>
+    </row>
+    <row r="392" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C392" s="5"/>
       <c r="D392" s="5"/>
       <c r="E392" s="5"/>
@@ -22874,8 +24820,12 @@
       <c r="AZ392" s="5"/>
       <c r="BA392" s="5"/>
       <c r="BB392" s="5"/>
-    </row>
-    <row r="393" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC392" s="5"/>
+      <c r="BD392" s="5"/>
+      <c r="BE392" s="5"/>
+      <c r="BF392" s="5"/>
+    </row>
+    <row r="393" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C393" s="5"/>
       <c r="D393" s="5"/>
       <c r="E393" s="5"/>
@@ -22928,8 +24878,12 @@
       <c r="AZ393" s="5"/>
       <c r="BA393" s="5"/>
       <c r="BB393" s="5"/>
-    </row>
-    <row r="394" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC393" s="5"/>
+      <c r="BD393" s="5"/>
+      <c r="BE393" s="5"/>
+      <c r="BF393" s="5"/>
+    </row>
+    <row r="394" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C394" s="5"/>
       <c r="D394" s="5"/>
       <c r="E394" s="5"/>
@@ -22982,8 +24936,12 @@
       <c r="AZ394" s="5"/>
       <c r="BA394" s="5"/>
       <c r="BB394" s="5"/>
-    </row>
-    <row r="395" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC394" s="5"/>
+      <c r="BD394" s="5"/>
+      <c r="BE394" s="5"/>
+      <c r="BF394" s="5"/>
+    </row>
+    <row r="395" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C395" s="5"/>
       <c r="D395" s="5"/>
       <c r="E395" s="5"/>
@@ -23036,8 +24994,12 @@
       <c r="AZ395" s="5"/>
       <c r="BA395" s="5"/>
       <c r="BB395" s="5"/>
-    </row>
-    <row r="396" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC395" s="5"/>
+      <c r="BD395" s="5"/>
+      <c r="BE395" s="5"/>
+      <c r="BF395" s="5"/>
+    </row>
+    <row r="396" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C396" s="5"/>
       <c r="D396" s="5"/>
       <c r="E396" s="5"/>
@@ -23090,8 +25052,12 @@
       <c r="AZ396" s="5"/>
       <c r="BA396" s="5"/>
       <c r="BB396" s="5"/>
-    </row>
-    <row r="397" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC396" s="5"/>
+      <c r="BD396" s="5"/>
+      <c r="BE396" s="5"/>
+      <c r="BF396" s="5"/>
+    </row>
+    <row r="397" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C397" s="5"/>
       <c r="D397" s="5"/>
       <c r="E397" s="5"/>
@@ -23144,8 +25110,12 @@
       <c r="AZ397" s="5"/>
       <c r="BA397" s="5"/>
       <c r="BB397" s="5"/>
-    </row>
-    <row r="398" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC397" s="5"/>
+      <c r="BD397" s="5"/>
+      <c r="BE397" s="5"/>
+      <c r="BF397" s="5"/>
+    </row>
+    <row r="398" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C398" s="5"/>
       <c r="D398" s="5"/>
       <c r="E398" s="5"/>
@@ -23198,6 +25168,10 @@
       <c r="AZ398" s="5"/>
       <c r="BA398" s="5"/>
       <c r="BB398" s="5"/>
+      <c r="BC398" s="5"/>
+      <c r="BD398" s="5"/>
+      <c r="BE398" s="5"/>
+      <c r="BF398" s="5"/>
     </row>
   </sheetData>
   <hyperlinks>
